--- a/Doc/Arch/TaC命令表.xlsx
+++ b/Doc/Arch/TaC命令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0EB220-8D80-4DFC-B03B-B5571D6E881E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560C18D7-3210-453F-A656-447CC770D04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5408,7 +5408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5892,82 +5892,145 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5976,92 +6039,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6117,24 +6246,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6144,155 +6255,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="13" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="13" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6757,11 +6763,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="18">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -6778,9 +6784,9 @@
       </c>
     </row>
     <row r="2" spans="2:17" ht="18">
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -6797,37 +6803,37 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="16.95" customHeight="1">
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="162"/>
+      <c r="D3" s="180"/>
       <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="164" t="s">
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="162" t="s">
+      <c r="P3" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="165"/>
+      <c r="Q3" s="172"/>
     </row>
     <row r="4" spans="2:17" ht="18">
-      <c r="B4" s="162"/>
+      <c r="B4" s="180"/>
       <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
@@ -6864,9 +6870,9 @@
       <c r="N4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="164"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="165"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="172"/>
     </row>
     <row r="5" spans="2:17" ht="18">
       <c r="B5" s="19" t="s">
@@ -8794,12 +8800,12 @@
       <c r="P46" s="39"/>
     </row>
     <row r="47" spans="2:17">
-      <c r="B47" s="166" t="s">
+      <c r="B47" s="173" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
-      <c r="E47" s="166"/>
+      <c r="C47" s="173"/>
+      <c r="D47" s="173"/>
+      <c r="E47" s="173"/>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
@@ -8813,58 +8819,58 @@
       <c r="P47" s="40"/>
     </row>
     <row r="48" spans="2:17" ht="16.95" customHeight="1">
-      <c r="B48" s="167" t="s">
+      <c r="B48" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="167" t="s">
+      <c r="C48" s="174" t="s">
         <v>188</v>
       </c>
-      <c r="D48" s="168" t="s">
+      <c r="D48" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="168"/>
-      <c r="F48" s="169" t="s">
+      <c r="E48" s="175"/>
+      <c r="F48" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="G48" s="169"/>
-      <c r="H48" s="169"/>
-      <c r="I48" s="169"/>
-      <c r="J48" s="170" t="s">
+      <c r="G48" s="176"/>
+      <c r="H48" s="176"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="K48" s="170"/>
-      <c r="L48" s="170"/>
-      <c r="M48" s="170"/>
-      <c r="N48" s="170"/>
-      <c r="O48" s="170"/>
-      <c r="P48" s="170"/>
+      <c r="K48" s="177"/>
+      <c r="L48" s="177"/>
+      <c r="M48" s="177"/>
+      <c r="N48" s="177"/>
+      <c r="O48" s="177"/>
+      <c r="P48" s="177"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="171" t="s">
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="178" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="171"/>
-      <c r="F49" s="172" t="s">
+      <c r="E49" s="178"/>
+      <c r="F49" s="179" t="s">
         <v>192</v>
       </c>
-      <c r="G49" s="172"/>
-      <c r="H49" s="172" t="s">
+      <c r="G49" s="179"/>
+      <c r="H49" s="179" t="s">
         <v>193</v>
       </c>
-      <c r="I49" s="172"/>
-      <c r="J49" s="172" t="s">
+      <c r="I49" s="179"/>
+      <c r="J49" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="K49" s="172"/>
-      <c r="L49" s="172" t="s">
+      <c r="K49" s="179"/>
+      <c r="L49" s="179" t="s">
         <v>194</v>
       </c>
-      <c r="M49" s="172"/>
-      <c r="N49" s="172"/>
-      <c r="O49" s="172"/>
-      <c r="P49" s="172"/>
+      <c r="M49" s="179"/>
+      <c r="N49" s="179"/>
+      <c r="O49" s="179"/>
+      <c r="P49" s="179"/>
     </row>
     <row r="50" spans="2:17">
       <c r="B50" s="41" t="s">
@@ -8873,31 +8879,31 @@
       <c r="C50" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="173" t="s">
+      <c r="D50" s="170" t="s">
         <v>196</v>
       </c>
-      <c r="E50" s="173"/>
+      <c r="E50" s="170"/>
       <c r="F50" s="43" t="s">
         <v>197</v>
       </c>
       <c r="G50" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="H50" s="174" t="s">
+      <c r="H50" s="171" t="s">
         <v>199</v>
       </c>
-      <c r="I50" s="174"/>
-      <c r="J50" s="174" t="s">
+      <c r="I50" s="171"/>
+      <c r="J50" s="171" t="s">
         <v>200</v>
       </c>
-      <c r="K50" s="174"/>
-      <c r="L50" s="173" t="s">
+      <c r="K50" s="171"/>
+      <c r="L50" s="170" t="s">
         <v>201</v>
       </c>
-      <c r="M50" s="173"/>
-      <c r="N50" s="173"/>
-      <c r="O50" s="173"/>
-      <c r="P50" s="173"/>
+      <c r="M50" s="170"/>
+      <c r="N50" s="170"/>
+      <c r="O50" s="170"/>
+      <c r="P50" s="170"/>
     </row>
     <row r="51" spans="2:17">
       <c r="B51" s="45" t="s">
@@ -8906,31 +8912,31 @@
       <c r="C51" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="175" t="s">
+      <c r="D51" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="E51" s="175"/>
+      <c r="E51" s="166"/>
       <c r="F51" s="47" t="s">
         <v>204</v>
       </c>
       <c r="G51" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="H51" s="176" t="s">
+      <c r="H51" s="167" t="s">
         <v>199</v>
       </c>
-      <c r="I51" s="176"/>
-      <c r="J51" s="176" t="s">
+      <c r="I51" s="167"/>
+      <c r="J51" s="167" t="s">
         <v>206</v>
       </c>
-      <c r="K51" s="176"/>
-      <c r="L51" s="177" t="s">
+      <c r="K51" s="167"/>
+      <c r="L51" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="M51" s="177"/>
-      <c r="N51" s="177"/>
-      <c r="O51" s="177"/>
-      <c r="P51" s="177"/>
+      <c r="M51" s="161"/>
+      <c r="N51" s="161"/>
+      <c r="O51" s="161"/>
+      <c r="P51" s="161"/>
     </row>
     <row r="52" spans="2:17">
       <c r="B52" s="45" t="s">
@@ -8939,31 +8945,31 @@
       <c r="C52" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="175" t="s">
+      <c r="D52" s="166" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="175"/>
+      <c r="E52" s="166"/>
       <c r="F52" s="47" t="s">
         <v>210</v>
       </c>
       <c r="G52" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="H52" s="176" t="s">
+      <c r="H52" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="176"/>
-      <c r="J52" s="176" t="s">
+      <c r="I52" s="167"/>
+      <c r="J52" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="176"/>
-      <c r="L52" s="178" t="s">
+      <c r="K52" s="167"/>
+      <c r="L52" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="M52" s="178"/>
-      <c r="N52" s="178"/>
-      <c r="O52" s="178"/>
-      <c r="P52" s="178"/>
+      <c r="M52" s="168"/>
+      <c r="N52" s="168"/>
+      <c r="O52" s="168"/>
+      <c r="P52" s="168"/>
     </row>
     <row r="53" spans="2:17">
       <c r="B53" s="45" t="s">
@@ -8972,31 +8978,31 @@
       <c r="C53" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="175" t="s">
+      <c r="D53" s="166" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="175"/>
+      <c r="E53" s="166"/>
       <c r="F53" s="47" t="s">
         <v>214</v>
       </c>
       <c r="G53" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="H53" s="176" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="176"/>
-      <c r="J53" s="176" t="s">
+      <c r="H53" s="167" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="167"/>
+      <c r="J53" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="K53" s="176"/>
-      <c r="L53" s="179" t="s">
+      <c r="K53" s="167"/>
+      <c r="L53" s="169" t="s">
         <v>217</v>
       </c>
-      <c r="M53" s="179"/>
-      <c r="N53" s="179"/>
-      <c r="O53" s="179"/>
-      <c r="P53" s="179"/>
+      <c r="M53" s="169"/>
+      <c r="N53" s="169"/>
+      <c r="O53" s="169"/>
+      <c r="P53" s="169"/>
       <c r="Q53" s="4" t="s">
         <v>218</v>
       </c>
@@ -9008,31 +9014,31 @@
       <c r="C54" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="175" t="s">
+      <c r="D54" s="166" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="175"/>
+      <c r="E54" s="166"/>
       <c r="F54" s="47" t="s">
         <v>221</v>
       </c>
       <c r="G54" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="H54" s="176" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="176"/>
-      <c r="J54" s="176" t="s">
+      <c r="H54" s="167" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="167"/>
+      <c r="J54" s="167" t="s">
         <v>223</v>
       </c>
-      <c r="K54" s="176"/>
-      <c r="L54" s="178" t="s">
+      <c r="K54" s="167"/>
+      <c r="L54" s="168" t="s">
         <v>224</v>
       </c>
-      <c r="M54" s="178"/>
-      <c r="N54" s="178"/>
-      <c r="O54" s="178"/>
-      <c r="P54" s="178"/>
+      <c r="M54" s="168"/>
+      <c r="N54" s="168"/>
+      <c r="O54" s="168"/>
+      <c r="P54" s="168"/>
     </row>
     <row r="55" spans="2:17">
       <c r="B55" s="45" t="s">
@@ -9041,31 +9047,31 @@
       <c r="C55" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="175" t="s">
+      <c r="D55" s="166" t="s">
         <v>226</v>
       </c>
-      <c r="E55" s="175"/>
+      <c r="E55" s="166"/>
       <c r="F55" s="47" t="s">
         <v>227</v>
       </c>
       <c r="G55" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="H55" s="176" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="176"/>
-      <c r="J55" s="176" t="s">
+      <c r="H55" s="167" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="167"/>
+      <c r="J55" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="K55" s="176"/>
-      <c r="L55" s="178" t="s">
+      <c r="K55" s="167"/>
+      <c r="L55" s="168" t="s">
         <v>229</v>
       </c>
-      <c r="M55" s="178"/>
-      <c r="N55" s="178"/>
-      <c r="O55" s="178"/>
-      <c r="P55" s="178"/>
+      <c r="M55" s="168"/>
+      <c r="N55" s="168"/>
+      <c r="O55" s="168"/>
+      <c r="P55" s="168"/>
       <c r="Q55" s="4" t="s">
         <v>230</v>
       </c>
@@ -9077,31 +9083,31 @@
       <c r="C56" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="175" t="s">
+      <c r="D56" s="166" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="175"/>
+      <c r="E56" s="166"/>
       <c r="F56" s="47" t="s">
         <v>233</v>
       </c>
       <c r="G56" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="H56" s="176" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="176"/>
-      <c r="J56" s="176" t="s">
+      <c r="H56" s="167" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="167"/>
+      <c r="J56" s="167" t="s">
         <v>234</v>
       </c>
-      <c r="K56" s="176"/>
-      <c r="L56" s="178" t="s">
+      <c r="K56" s="167"/>
+      <c r="L56" s="168" t="s">
         <v>235</v>
       </c>
-      <c r="M56" s="178"/>
-      <c r="N56" s="178"/>
-      <c r="O56" s="178"/>
-      <c r="P56" s="178"/>
+      <c r="M56" s="168"/>
+      <c r="N56" s="168"/>
+      <c r="O56" s="168"/>
+      <c r="P56" s="168"/>
     </row>
     <row r="57" spans="2:17">
       <c r="B57" s="45" t="s">
@@ -9120,79 +9126,79 @@
       <c r="G57" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="H57" s="176" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="176"/>
-      <c r="J57" s="176" t="s">
+      <c r="H57" s="167" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="167"/>
+      <c r="J57" s="167" t="s">
         <v>234</v>
       </c>
-      <c r="K57" s="176"/>
-      <c r="L57" s="178" t="s">
+      <c r="K57" s="167"/>
+      <c r="L57" s="168" t="s">
         <v>239</v>
       </c>
-      <c r="M57" s="178"/>
-      <c r="N57" s="178"/>
-      <c r="O57" s="178"/>
-      <c r="P57" s="178"/>
+      <c r="M57" s="168"/>
+      <c r="N57" s="168"/>
+      <c r="O57" s="168"/>
+      <c r="P57" s="168"/>
     </row>
     <row r="58" spans="2:17">
-      <c r="B58" s="180" t="s">
+      <c r="B58" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="181" t="s">
+      <c r="C58" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="175" t="s">
+      <c r="D58" s="166" t="s">
         <v>241</v>
       </c>
-      <c r="E58" s="175"/>
+      <c r="E58" s="166"/>
       <c r="F58" s="47" t="s">
         <v>242</v>
       </c>
       <c r="G58" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="H58" s="176" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="176"/>
-      <c r="J58" s="176"/>
-      <c r="K58" s="176"/>
-      <c r="L58" s="177" t="s">
+      <c r="H58" s="167" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="167"/>
+      <c r="J58" s="167"/>
+      <c r="K58" s="167"/>
+      <c r="L58" s="161" t="s">
         <v>243</v>
       </c>
-      <c r="M58" s="177"/>
-      <c r="N58" s="177"/>
-      <c r="O58" s="177"/>
-      <c r="P58" s="177"/>
+      <c r="M58" s="161"/>
+      <c r="N58" s="161"/>
+      <c r="O58" s="161"/>
+      <c r="P58" s="161"/>
     </row>
     <row r="59" spans="2:17">
-      <c r="B59" s="180"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="180" t="s">
+      <c r="B59" s="162"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="162" t="s">
         <v>242</v>
       </c>
-      <c r="E59" s="180"/>
+      <c r="E59" s="162"/>
       <c r="F59" s="50" t="s">
         <v>242</v>
       </c>
       <c r="G59" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="H59" s="182" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="182"/>
-      <c r="J59" s="182"/>
-      <c r="K59" s="182"/>
-      <c r="L59" s="183" t="s">
+      <c r="H59" s="163" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="163"/>
+      <c r="J59" s="163"/>
+      <c r="K59" s="163"/>
+      <c r="L59" s="164" t="s">
         <v>243</v>
       </c>
-      <c r="M59" s="183"/>
-      <c r="N59" s="183"/>
-      <c r="O59" s="183"/>
-      <c r="P59" s="183"/>
+      <c r="M59" s="164"/>
+      <c r="N59" s="164"/>
+      <c r="O59" s="164"/>
+      <c r="P59" s="164"/>
     </row>
     <row r="60" spans="2:17">
       <c r="C60"/>
@@ -9829,47 +9835,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="59">
-    <mergeCell ref="L58:P58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:P59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:P56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:P55"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:P51"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="B48:B49"/>
@@ -9883,11 +9853,47 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="L49:P49"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:P51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:P52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:P55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:P56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:P58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:P59"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.79027777777777775" right="0.79027777777777775" top="0.79027777777777775" bottom="0.79027777777777775" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -9956,17 +9962,17 @@
       <c r="B4" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="180" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
       <c r="I4" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
     </row>
     <row r="5" spans="1:14" ht="13.2">
       <c r="B5" s="61"/>
@@ -9979,12 +9985,12 @@
       <c r="B6" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="180" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
     </row>
     <row r="7" spans="1:14" ht="13.2">
       <c r="B7" s="61"/>
@@ -9997,148 +10003,148 @@
         <v>271</v>
       </c>
       <c r="B9" s="61"/>
-      <c r="C9" s="186" t="s">
+      <c r="C9" s="198" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186" t="s">
+      <c r="D9" s="198"/>
+      <c r="E9" s="198" t="s">
         <v>273</v>
       </c>
-      <c r="F9" s="186"/>
+      <c r="F9" s="198"/>
       <c r="H9" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="J9" s="186" t="s">
+      <c r="J9" s="198" t="s">
         <v>272</v>
       </c>
-      <c r="K9" s="186"/>
-      <c r="L9" s="186" t="s">
+      <c r="K9" s="198"/>
+      <c r="L9" s="198" t="s">
         <v>273</v>
       </c>
-      <c r="M9" s="186"/>
+      <c r="M9" s="198"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
       <c r="I10" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="J10" s="184"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="199"/>
+      <c r="M10" s="199"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
       <c r="I11" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="185"/>
-      <c r="M11" s="185"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="199"/>
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
       <c r="I12" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="185"/>
-      <c r="M12" s="185"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
     </row>
     <row r="13" spans="1:14" ht="16.95" customHeight="1">
       <c r="B13" s="61"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
       <c r="I13" s="61"/>
-      <c r="J13" s="187"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="188"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="208"/>
+      <c r="L13" s="209"/>
+      <c r="M13" s="209"/>
     </row>
     <row r="14" spans="1:14" ht="16.95" customHeight="1">
       <c r="B14" s="61"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
       <c r="I14" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="J14" s="189"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="201"/>
     </row>
     <row r="15" spans="1:14" ht="16.95" customHeight="1">
       <c r="B15" s="61"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
       <c r="I15" s="61"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="190"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
     </row>
     <row r="16" spans="1:14" ht="16.95" customHeight="1">
       <c r="B16" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="C16" s="189"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
       <c r="I16" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="J16" s="184"/>
-      <c r="K16" s="184"/>
-      <c r="L16" s="185"/>
-      <c r="M16" s="185"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="199"/>
+      <c r="M16" s="199"/>
     </row>
     <row r="17" spans="1:13" ht="16.95" customHeight="1">
       <c r="B17" s="61"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
       <c r="I17" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="J17" s="184"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="185"/>
-      <c r="M17" s="185"/>
+      <c r="J17" s="202"/>
+      <c r="K17" s="202"/>
+      <c r="L17" s="199"/>
+      <c r="M17" s="199"/>
     </row>
     <row r="18" spans="1:13" ht="16.95" customHeight="1">
       <c r="B18" s="61"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="207"/>
       <c r="I18" s="61"/>
       <c r="J18" s="62"/>
       <c r="K18" s="62"/>
@@ -10149,19 +10155,19 @@
       <c r="B19" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
     </row>
     <row r="20" spans="1:13">
       <c r="B20" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="185"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
     </row>
     <row r="21" spans="1:13" ht="13.2">
       <c r="B21" s="61"/>
@@ -10174,13 +10180,13 @@
         <v>286</v>
       </c>
       <c r="B23" s="61"/>
-      <c r="I23" s="162" t="s">
+      <c r="I23" s="180" t="s">
         <v>287</v>
       </c>
-      <c r="J23" s="162"/>
-      <c r="K23" s="162"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="162"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
     </row>
     <row r="24" spans="1:13" ht="16.95" customHeight="1">
       <c r="B24" s="61"/>
@@ -10191,17 +10197,17 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="I24" s="204" t="s">
+      <c r="I24" s="188" t="s">
         <v>288</v>
       </c>
       <c r="J24" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="K24" s="205" t="s">
+      <c r="K24" s="189" t="s">
         <v>290</v>
       </c>
-      <c r="L24" s="205"/>
-      <c r="M24" s="205"/>
+      <c r="L24" s="189"/>
+      <c r="M24" s="189"/>
     </row>
     <row r="25" spans="1:13" ht="16.95" customHeight="1">
       <c r="B25" s="6" t="s">
@@ -10211,15 +10217,15 @@
       <c r="D25" s="65"/>
       <c r="E25" s="65"/>
       <c r="F25" s="21"/>
-      <c r="I25" s="204"/>
+      <c r="I25" s="188"/>
       <c r="J25" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="K25" s="205" t="s">
+      <c r="K25" s="189" t="s">
         <v>293</v>
       </c>
-      <c r="L25" s="205"/>
-      <c r="M25" s="205"/>
+      <c r="L25" s="189"/>
+      <c r="M25" s="189"/>
     </row>
     <row r="26" spans="1:13">
       <c r="B26" s="6" t="s">
@@ -10229,15 +10235,15 @@
       <c r="D26" s="65"/>
       <c r="E26" s="65"/>
       <c r="F26" s="21"/>
-      <c r="I26" s="204"/>
+      <c r="I26" s="188"/>
       <c r="J26" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="K26" s="198" t="s">
+      <c r="K26" s="190" t="s">
         <v>296</v>
       </c>
-      <c r="L26" s="198"/>
-      <c r="M26" s="198"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="190"/>
     </row>
     <row r="27" spans="1:13">
       <c r="B27" s="6" t="s">
@@ -10247,15 +10253,15 @@
       <c r="D27" s="65"/>
       <c r="E27" s="65"/>
       <c r="F27" s="21"/>
-      <c r="I27" s="204"/>
+      <c r="I27" s="188"/>
       <c r="J27" s="66" t="s">
         <v>298</v>
       </c>
-      <c r="K27" s="198" t="s">
+      <c r="K27" s="190" t="s">
         <v>299</v>
       </c>
-      <c r="L27" s="198"/>
-      <c r="M27" s="198"/>
+      <c r="L27" s="190"/>
+      <c r="M27" s="190"/>
     </row>
     <row r="28" spans="1:13">
       <c r="B28" s="6" t="s">
@@ -10265,7 +10271,7 @@
       <c r="D28" s="65"/>
       <c r="E28" s="65"/>
       <c r="F28" s="21"/>
-      <c r="I28" s="206" t="s">
+      <c r="I28" s="192" t="s">
         <v>301</v>
       </c>
       <c r="J28" s="67" t="s">
@@ -10285,15 +10291,15 @@
       <c r="D29" s="65"/>
       <c r="E29" s="65"/>
       <c r="F29" s="21"/>
-      <c r="I29" s="207"/>
-      <c r="J29" s="206" t="s">
+      <c r="I29" s="193"/>
+      <c r="J29" s="192" t="s">
         <v>305</v>
       </c>
-      <c r="K29" s="199" t="s">
+      <c r="K29" s="196" t="s">
         <v>306</v>
       </c>
-      <c r="L29" s="199"/>
-      <c r="M29" s="199"/>
+      <c r="L29" s="196"/>
+      <c r="M29" s="196"/>
     </row>
     <row r="30" spans="1:13">
       <c r="B30" s="6" t="s">
@@ -10303,15 +10309,15 @@
       <c r="D30" s="65"/>
       <c r="E30" s="65"/>
       <c r="F30" s="21"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="207"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="193"/>
       <c r="K30" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="L30" s="194" t="s">
+      <c r="L30" s="191" t="s">
         <v>309</v>
       </c>
-      <c r="M30" s="194"/>
+      <c r="M30" s="191"/>
     </row>
     <row r="31" spans="1:13">
       <c r="B31" s="6" t="s">
@@ -10321,15 +10327,15 @@
       <c r="D31" s="65"/>
       <c r="E31" s="65"/>
       <c r="F31" s="21"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="207"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="193"/>
       <c r="K31" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="L31" s="194" t="s">
+      <c r="L31" s="191" t="s">
         <v>312</v>
       </c>
-      <c r="M31" s="194"/>
+      <c r="M31" s="191"/>
     </row>
     <row r="32" spans="1:13">
       <c r="B32" s="6" t="s">
@@ -10339,15 +10345,15 @@
       <c r="D32" s="65"/>
       <c r="E32" s="65"/>
       <c r="F32" s="21"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="207"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="193"/>
       <c r="K32" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="L32" s="192" t="s">
+      <c r="L32" s="204" t="s">
         <v>315</v>
       </c>
-      <c r="M32" s="192"/>
+      <c r="M32" s="204"/>
     </row>
     <row r="33" spans="1:15">
       <c r="B33" s="6" t="s">
@@ -10357,15 +10363,15 @@
       <c r="D33" s="65"/>
       <c r="E33" s="65"/>
       <c r="F33" s="21"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="207"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="193"/>
       <c r="K33" s="22" t="s">
         <v>788</v>
       </c>
-      <c r="L33" s="193" t="s">
+      <c r="L33" s="205" t="s">
         <v>779</v>
       </c>
-      <c r="M33" s="194"/>
+      <c r="M33" s="191"/>
     </row>
     <row r="34" spans="1:15">
       <c r="B34" s="6" t="s">
@@ -10375,15 +10381,15 @@
       <c r="D34" s="65"/>
       <c r="E34" s="65"/>
       <c r="F34" s="21"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="207"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="193"/>
       <c r="K34" s="22" t="s">
         <v>789</v>
       </c>
-      <c r="L34" s="194" t="s">
+      <c r="L34" s="191" t="s">
         <v>317</v>
       </c>
-      <c r="M34" s="194"/>
+      <c r="M34" s="191"/>
       <c r="O34" s="60"/>
     </row>
     <row r="35" spans="1:15">
@@ -10394,8 +10400,8 @@
       <c r="D35" s="65"/>
       <c r="E35" s="65"/>
       <c r="F35" s="21"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="207"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="193"/>
       <c r="K35" s="22" t="s">
         <v>790</v>
       </c>
@@ -10412,15 +10418,15 @@
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="21"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="207"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="193"/>
       <c r="K36" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="L36" s="209" t="s">
+      <c r="L36" s="195" t="s">
         <v>322</v>
       </c>
-      <c r="M36" s="199"/>
+      <c r="M36" s="196"/>
     </row>
     <row r="37" spans="1:15">
       <c r="B37" s="6" t="s">
@@ -10430,21 +10436,21 @@
       <c r="D37" s="65"/>
       <c r="E37" s="65"/>
       <c r="F37" s="21"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="208"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
       <c r="K37" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="L37" s="209" t="s">
+      <c r="L37" s="195" t="s">
         <v>325</v>
       </c>
-      <c r="M37" s="199"/>
+      <c r="M37" s="196"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="191" t="s">
+      <c r="A38" s="203" t="s">
         <v>786</v>
       </c>
-      <c r="B38" s="191"/>
+      <c r="B38" s="203"/>
       <c r="C38" s="64"/>
       <c r="D38" s="65"/>
       <c r="E38" s="65"/>
@@ -10467,16 +10473,16 @@
       <c r="I39" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="J39" s="162"/>
-      <c r="K39" s="162"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="162"/>
+      <c r="J39" s="180"/>
+      <c r="K39" s="180"/>
+      <c r="L39" s="180"/>
+      <c r="M39" s="180"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="200" t="s">
+      <c r="A40" s="184" t="s">
         <v>787</v>
       </c>
-      <c r="B40" s="201"/>
+      <c r="B40" s="185"/>
       <c r="C40" s="132"/>
       <c r="D40" s="133"/>
       <c r="E40" s="133"/>
@@ -10499,18 +10505,18 @@
     </row>
     <row r="41" spans="1:15">
       <c r="B41" s="61"/>
-      <c r="C41" s="202" t="s">
+      <c r="C41" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="D41" s="202"/>
-      <c r="E41" s="202"/>
-      <c r="F41" s="202"/>
-      <c r="J41" s="203" t="s">
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="186"/>
+      <c r="J41" s="187" t="s">
         <v>301</v>
       </c>
-      <c r="K41" s="203"/>
-      <c r="L41" s="203"/>
-      <c r="M41" s="203"/>
+      <c r="K41" s="187"/>
+      <c r="L41" s="187"/>
+      <c r="M41" s="187"/>
     </row>
     <row r="42" spans="1:15">
       <c r="B42" s="61"/>
@@ -13533,6 +13539,59 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="67">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="J39:M39"/>
@@ -13547,59 +13606,6 @@
     <mergeCell ref="J29:J37"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="L37:M37"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.79027777777777775" right="0.79027777777777775" top="0.79027777777777775" bottom="0.79027777777777775" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -13646,11 +13652,11 @@
       <c r="R1" s="100"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="M2" s="210">
+      <c r="M2" s="217">
         <f>命令表!P2</f>
         <v>45156</v>
       </c>
-      <c r="N2" s="210"/>
+      <c r="N2" s="217"/>
       <c r="O2" s="100"/>
       <c r="Q2" s="101"/>
       <c r="R2" s="101"/>
@@ -13672,26 +13678,26 @@
       <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="210" t="s">
         <v>329</v>
       </c>
-      <c r="B4" s="211"/>
+      <c r="B4" s="210"/>
       <c r="C4" s="78" t="s">
         <v>163</v>
       </c>
       <c r="D4" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="E4" s="211" t="s">
+      <c r="E4" s="210" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="J4" s="211" t="s">
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+      <c r="J4" s="210" t="s">
         <v>329</v>
       </c>
-      <c r="K4" s="211"/>
+      <c r="K4" s="210"/>
       <c r="L4" s="78" t="s">
         <v>163</v>
       </c>
@@ -13716,26 +13722,26 @@
       <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="210" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="211"/>
+      <c r="B7" s="210"/>
       <c r="C7" s="78" t="s">
         <v>163</v>
       </c>
       <c r="D7" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="E7" s="211" t="s">
+      <c r="E7" s="210" t="s">
         <v>199</v>
       </c>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="J7" s="211" t="s">
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="210"/>
+      <c r="J7" s="210" t="s">
         <v>329</v>
       </c>
-      <c r="K7" s="211"/>
+      <c r="K7" s="210"/>
       <c r="L7" s="78" t="s">
         <v>163</v>
       </c>
@@ -13763,26 +13769,26 @@
       <c r="M9" s="77"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="211" t="s">
+      <c r="A10" s="210" t="s">
         <v>329</v>
       </c>
-      <c r="B10" s="211"/>
+      <c r="B10" s="210"/>
       <c r="C10" s="78" t="s">
         <v>163</v>
       </c>
       <c r="D10" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="E10" s="211" t="s">
+      <c r="E10" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="J10" s="211" t="s">
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210"/>
+      <c r="J10" s="210" t="s">
         <v>329</v>
       </c>
-      <c r="K10" s="211"/>
+      <c r="K10" s="210"/>
       <c r="L10" s="78" t="s">
         <v>163</v>
       </c>
@@ -13815,10 +13821,10 @@
       <c r="M12" s="77"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="211" t="s">
+      <c r="A13" s="210" t="s">
         <v>329</v>
       </c>
-      <c r="B13" s="211"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="78" t="s">
         <v>163</v>
       </c>
@@ -13829,10 +13835,10 @@
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
       <c r="H13" s="77"/>
-      <c r="J13" s="211" t="s">
+      <c r="J13" s="210" t="s">
         <v>329</v>
       </c>
-      <c r="K13" s="211"/>
+      <c r="K13" s="210"/>
       <c r="L13" s="78" t="s">
         <v>163</v>
       </c>
@@ -13869,10 +13875,10 @@
       <c r="M15" s="77"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="211" t="s">
+      <c r="A16" s="210" t="s">
         <v>329</v>
       </c>
-      <c r="B16" s="211"/>
+      <c r="B16" s="210"/>
       <c r="C16" s="78" t="s">
         <v>163</v>
       </c>
@@ -13883,14 +13889,14 @@
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
       <c r="H16" s="77"/>
-      <c r="J16" s="211" t="s">
+      <c r="J16" s="210" t="s">
         <v>329</v>
       </c>
-      <c r="K16" s="211"/>
-      <c r="L16" s="211" t="s">
+      <c r="K16" s="210"/>
+      <c r="L16" s="210" t="s">
         <v>276</v>
       </c>
-      <c r="M16" s="211"/>
+      <c r="M16" s="210"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="77"/>
@@ -13907,27 +13913,27 @@
       <c r="C18" s="77"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="213"/>
-      <c r="B19" s="213"/>
-      <c r="C19" s="211" t="s">
+      <c r="A19" s="215"/>
+      <c r="B19" s="215"/>
+      <c r="C19" s="210" t="s">
         <v>755</v>
       </c>
-      <c r="D19" s="211"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="211"/>
-      <c r="L19" s="211" t="s">
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="210"/>
+      <c r="L19" s="210" t="s">
         <v>332</v>
       </c>
-      <c r="M19" s="211"/>
-      <c r="N19" s="211"/>
+      <c r="M19" s="210"/>
+      <c r="N19" s="210"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="213"/>
-      <c r="B20" s="213"/>
+      <c r="A20" s="215"/>
+      <c r="B20" s="215"/>
       <c r="C20" s="159" t="s">
         <v>811</v>
       </c>
@@ -13956,14 +13962,14 @@
       <c r="L20" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="M20" s="211" t="s">
+      <c r="M20" s="210" t="s">
         <v>334</v>
       </c>
-      <c r="N20" s="211"/>
+      <c r="N20" s="210"/>
       <c r="P20" s="76"/>
     </row>
     <row r="21" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A21" s="212" t="s">
+      <c r="A21" s="216" t="s">
         <v>756</v>
       </c>
       <c r="B21" s="135" t="s">
@@ -13983,14 +13989,14 @@
       <c r="L21" s="78">
         <v>0</v>
       </c>
-      <c r="M21" s="211" t="s">
+      <c r="M21" s="210" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="211"/>
+      <c r="N21" s="210"/>
       <c r="P21" s="139"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="212"/>
+      <c r="A22" s="216"/>
       <c r="B22" s="135" t="s">
         <v>337</v>
       </c>
@@ -14022,14 +14028,14 @@
       <c r="L22" s="78">
         <v>1</v>
       </c>
-      <c r="M22" s="211" t="s">
+      <c r="M22" s="210" t="s">
         <v>294</v>
       </c>
-      <c r="N22" s="211"/>
+      <c r="N22" s="210"/>
       <c r="P22" s="139"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="212"/>
+      <c r="A23" s="216"/>
       <c r="B23" s="135" t="s">
         <v>346</v>
       </c>
@@ -14055,14 +14061,14 @@
       <c r="L23" s="78">
         <v>2</v>
       </c>
-      <c r="M23" s="211" t="s">
+      <c r="M23" s="210" t="s">
         <v>297</v>
       </c>
-      <c r="N23" s="211"/>
+      <c r="N23" s="210"/>
       <c r="P23" s="139"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="212"/>
+      <c r="A24" s="216"/>
       <c r="B24" s="135" t="s">
         <v>352</v>
       </c>
@@ -14094,14 +14100,14 @@
       <c r="L24" s="78">
         <v>3</v>
       </c>
-      <c r="M24" s="211" t="s">
+      <c r="M24" s="210" t="s">
         <v>300</v>
       </c>
-      <c r="N24" s="211"/>
+      <c r="N24" s="210"/>
       <c r="P24" s="139"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="212"/>
+      <c r="A25" s="216"/>
       <c r="B25" s="135" t="s">
         <v>361</v>
       </c>
@@ -14133,14 +14139,14 @@
       <c r="L25" s="78">
         <v>4</v>
       </c>
-      <c r="M25" s="211" t="s">
+      <c r="M25" s="210" t="s">
         <v>304</v>
       </c>
-      <c r="N25" s="211"/>
+      <c r="N25" s="210"/>
       <c r="P25" s="139"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="212"/>
+      <c r="A26" s="216"/>
       <c r="B26" s="135" t="s">
         <v>370</v>
       </c>
@@ -14172,14 +14178,14 @@
       <c r="L26" s="78">
         <v>5</v>
       </c>
-      <c r="M26" s="211" t="s">
+      <c r="M26" s="210" t="s">
         <v>307</v>
       </c>
-      <c r="N26" s="211"/>
+      <c r="N26" s="210"/>
       <c r="P26" s="139"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="212"/>
+      <c r="A27" s="216"/>
       <c r="B27" s="135" t="s">
         <v>379</v>
       </c>
@@ -14211,14 +14217,14 @@
       <c r="L27" s="78">
         <v>6</v>
       </c>
-      <c r="M27" s="211" t="s">
+      <c r="M27" s="210" t="s">
         <v>310</v>
       </c>
-      <c r="N27" s="211"/>
+      <c r="N27" s="210"/>
       <c r="P27" s="139"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="212"/>
+      <c r="A28" s="216"/>
       <c r="B28" s="135" t="s">
         <v>388</v>
       </c>
@@ -14250,14 +14256,14 @@
       <c r="L28" s="78">
         <v>7</v>
       </c>
-      <c r="M28" s="211" t="s">
+      <c r="M28" s="210" t="s">
         <v>313</v>
       </c>
-      <c r="N28" s="211"/>
+      <c r="N28" s="210"/>
       <c r="P28" s="139"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="212"/>
+      <c r="A29" s="216"/>
       <c r="B29" s="135" t="s">
         <v>397</v>
       </c>
@@ -14289,14 +14295,14 @@
       <c r="L29" s="78">
         <v>8</v>
       </c>
-      <c r="M29" s="211" t="s">
+      <c r="M29" s="210" t="s">
         <v>316</v>
       </c>
-      <c r="N29" s="211"/>
+      <c r="N29" s="210"/>
       <c r="P29" s="139"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="212"/>
+      <c r="A30" s="216"/>
       <c r="B30" s="135" t="s">
         <v>406</v>
       </c>
@@ -14328,14 +14334,14 @@
       <c r="L30" s="78">
         <v>9</v>
       </c>
-      <c r="M30" s="211" t="s">
+      <c r="M30" s="210" t="s">
         <v>318</v>
       </c>
-      <c r="N30" s="211"/>
+      <c r="N30" s="210"/>
       <c r="P30" s="140"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="212"/>
+      <c r="A31" s="216"/>
       <c r="B31" s="135" t="s">
         <v>415</v>
       </c>
@@ -14367,14 +14373,14 @@
       <c r="L31" s="78" t="s">
         <v>424</v>
       </c>
-      <c r="M31" s="211" t="s">
+      <c r="M31" s="210" t="s">
         <v>320</v>
       </c>
-      <c r="N31" s="211"/>
+      <c r="N31" s="210"/>
       <c r="P31" s="140"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="212"/>
+      <c r="A32" s="216"/>
       <c r="B32" s="135" t="s">
         <v>425</v>
       </c>
@@ -14406,14 +14412,14 @@
       <c r="L32" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="M32" s="211" t="s">
+      <c r="M32" s="210" t="s">
         <v>323</v>
       </c>
-      <c r="N32" s="211"/>
+      <c r="N32" s="210"/>
       <c r="P32" s="139"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="212"/>
+      <c r="A33" s="216"/>
       <c r="B33" s="135" t="s">
         <v>435</v>
       </c>
@@ -14445,14 +14451,14 @@
       <c r="L33" s="78" t="s">
         <v>444</v>
       </c>
-      <c r="M33" s="211" t="s">
+      <c r="M33" s="210" t="s">
         <v>445</v>
       </c>
-      <c r="N33" s="211"/>
+      <c r="N33" s="210"/>
       <c r="P33" s="139"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="212"/>
+      <c r="A34" s="216"/>
       <c r="B34" s="135" t="s">
         <v>446</v>
       </c>
@@ -14468,14 +14474,14 @@
       <c r="L34" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="M34" s="211" t="s">
+      <c r="M34" s="210" t="s">
         <v>326</v>
       </c>
-      <c r="N34" s="211"/>
+      <c r="N34" s="210"/>
       <c r="P34" s="140"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="212"/>
+      <c r="A35" s="216"/>
       <c r="B35" s="135" t="s">
         <v>448</v>
       </c>
@@ -14491,14 +14497,14 @@
       <c r="L35" s="78" t="s">
         <v>449</v>
       </c>
-      <c r="M35" s="211" t="s">
+      <c r="M35" s="210" t="s">
         <v>298</v>
       </c>
-      <c r="N35" s="211"/>
+      <c r="N35" s="210"/>
       <c r="P35" s="140"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="212"/>
+      <c r="A36" s="216"/>
       <c r="B36" s="135" t="s">
         <v>450</v>
       </c>
@@ -14514,14 +14520,14 @@
       <c r="L36" s="78" t="s">
         <v>451</v>
       </c>
-      <c r="M36" s="211" t="s">
+      <c r="M36" s="210" t="s">
         <v>305</v>
       </c>
-      <c r="N36" s="211"/>
+      <c r="N36" s="210"/>
       <c r="P36" s="140"/>
     </row>
     <row r="37" spans="1:16" ht="18" customHeight="1">
-      <c r="A37" s="212"/>
+      <c r="A37" s="216"/>
       <c r="B37" s="78" t="s">
         <v>452</v>
       </c>
@@ -14550,14 +14556,14 @@
         <v>460</v>
       </c>
       <c r="K37" s="141"/>
-      <c r="L37" s="216" t="s">
+      <c r="L37" s="213" t="s">
         <v>793</v>
       </c>
-      <c r="M37" s="217"/>
-      <c r="N37" s="217"/>
+      <c r="M37" s="214"/>
+      <c r="N37" s="214"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="212"/>
+      <c r="A38" s="216"/>
       <c r="B38" s="78" t="s">
         <v>461</v>
       </c>
@@ -14586,12 +14592,12 @@
         <v>469</v>
       </c>
       <c r="K38" s="141"/>
-      <c r="L38" s="217"/>
-      <c r="M38" s="217"/>
-      <c r="N38" s="217"/>
+      <c r="L38" s="214"/>
+      <c r="M38" s="214"/>
+      <c r="N38" s="214"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="212"/>
+      <c r="A39" s="216"/>
       <c r="B39" s="78" t="s">
         <v>470</v>
       </c>
@@ -14622,7 +14628,7 @@
       <c r="K39" s="141"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="212"/>
+      <c r="A40" s="216"/>
       <c r="B40" s="78" t="s">
         <v>479</v>
       </c>
@@ -14651,14 +14657,14 @@
         <v>487</v>
       </c>
       <c r="K40" s="141"/>
-      <c r="L40" s="211" t="s">
+      <c r="L40" s="210" t="s">
         <v>757</v>
       </c>
-      <c r="M40" s="211"/>
-      <c r="N40" s="211"/>
+      <c r="M40" s="210"/>
+      <c r="N40" s="210"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="212"/>
+      <c r="A41" s="216"/>
       <c r="B41" s="78" t="s">
         <v>488</v>
       </c>
@@ -14678,13 +14684,13 @@
       <c r="L41" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="M41" s="211" t="s">
+      <c r="M41" s="210" t="s">
         <v>334</v>
       </c>
-      <c r="N41" s="211"/>
+      <c r="N41" s="210"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="212"/>
+      <c r="A42" s="216"/>
       <c r="B42" s="78" t="s">
         <v>491</v>
       </c>
@@ -14704,13 +14710,13 @@
       <c r="L42" s="78">
         <v>0</v>
       </c>
-      <c r="M42" s="211" t="s">
+      <c r="M42" s="210" t="s">
         <v>95</v>
       </c>
-      <c r="N42" s="211"/>
+      <c r="N42" s="210"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="212"/>
+      <c r="A43" s="216"/>
       <c r="B43" s="78" t="s">
         <v>494</v>
       </c>
@@ -14730,13 +14736,13 @@
       <c r="L43" s="78">
         <v>1</v>
       </c>
-      <c r="M43" s="211" t="s">
+      <c r="M43" s="210" t="s">
         <v>100</v>
       </c>
-      <c r="N43" s="211"/>
+      <c r="N43" s="210"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="212"/>
+      <c r="A44" s="216"/>
       <c r="B44" s="78" t="s">
         <v>497</v>
       </c>
@@ -14756,13 +14762,13 @@
       <c r="L44" s="78">
         <v>2</v>
       </c>
-      <c r="M44" s="211" t="s">
+      <c r="M44" s="210" t="s">
         <v>104</v>
       </c>
-      <c r="N44" s="211"/>
+      <c r="N44" s="210"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="212"/>
+      <c r="A45" s="216"/>
       <c r="B45" s="78" t="s">
         <v>500</v>
       </c>
@@ -14782,13 +14788,13 @@
       <c r="L45" s="78">
         <v>3</v>
       </c>
-      <c r="M45" s="211" t="s">
+      <c r="M45" s="210" t="s">
         <v>108</v>
       </c>
-      <c r="N45" s="211"/>
+      <c r="N45" s="210"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="212"/>
+      <c r="A46" s="216"/>
       <c r="B46" s="78" t="s">
         <v>503</v>
       </c>
@@ -14804,13 +14810,13 @@
       <c r="L46" s="78">
         <v>4</v>
       </c>
-      <c r="M46" s="211" t="s">
+      <c r="M46" s="210" t="s">
         <v>111</v>
       </c>
-      <c r="N46" s="211"/>
+      <c r="N46" s="210"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="212"/>
+      <c r="A47" s="216"/>
       <c r="B47" s="78" t="s">
         <v>504</v>
       </c>
@@ -14830,13 +14836,13 @@
       <c r="L47" s="78">
         <v>5</v>
       </c>
-      <c r="M47" s="211" t="s">
+      <c r="M47" s="210" t="s">
         <v>114</v>
       </c>
-      <c r="N47" s="211"/>
+      <c r="N47" s="210"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="212"/>
+      <c r="A48" s="216"/>
       <c r="B48" s="78" t="s">
         <v>506</v>
       </c>
@@ -14852,13 +14858,13 @@
       <c r="L48" s="78">
         <v>6</v>
       </c>
-      <c r="M48" s="211" t="s">
+      <c r="M48" s="210" t="s">
         <v>117</v>
       </c>
-      <c r="N48" s="211"/>
+      <c r="N48" s="210"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="212"/>
+      <c r="A49" s="216"/>
       <c r="B49" s="78" t="s">
         <v>507</v>
       </c>
@@ -14874,13 +14880,13 @@
       <c r="L49" s="78">
         <v>7</v>
       </c>
-      <c r="M49" s="211" t="s">
+      <c r="M49" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="N49" s="211"/>
+      <c r="N49" s="210"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="212"/>
+      <c r="A50" s="216"/>
       <c r="B50" s="78" t="s">
         <v>508</v>
       </c>
@@ -14896,13 +14902,13 @@
       <c r="L50" s="78">
         <v>8</v>
       </c>
-      <c r="M50" s="211" t="s">
+      <c r="M50" s="210" t="s">
         <v>124</v>
       </c>
-      <c r="N50" s="211"/>
+      <c r="N50" s="210"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="212"/>
+      <c r="A51" s="216"/>
       <c r="B51" s="78" t="s">
         <v>509</v>
       </c>
@@ -14920,13 +14926,13 @@
       <c r="L51" s="78">
         <v>9</v>
       </c>
-      <c r="M51" s="211" t="s">
+      <c r="M51" s="210" t="s">
         <v>128</v>
       </c>
-      <c r="N51" s="211"/>
+      <c r="N51" s="210"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="212"/>
+      <c r="A52" s="216"/>
       <c r="B52" s="78" t="s">
         <v>511</v>
       </c>
@@ -14944,10 +14950,10 @@
       <c r="L52" s="78" t="s">
         <v>424</v>
       </c>
-      <c r="M52" s="211" t="s">
+      <c r="M52" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="N52" s="211"/>
+      <c r="N52" s="210"/>
     </row>
     <row r="53" spans="1:14">
       <c r="C53" s="143" t="s">
@@ -14959,19 +14965,19 @@
       <c r="L53" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="M53" s="211" t="s">
+      <c r="M53" s="210" t="s">
         <v>136</v>
       </c>
-      <c r="N53" s="211"/>
+      <c r="N53" s="210"/>
     </row>
     <row r="54" spans="1:14">
       <c r="L54" s="78" t="s">
         <v>444</v>
       </c>
-      <c r="M54" s="211" t="s">
+      <c r="M54" s="210" t="s">
         <v>139</v>
       </c>
-      <c r="N54" s="211"/>
+      <c r="N54" s="210"/>
     </row>
     <row r="55" spans="1:14" ht="18" customHeight="1">
       <c r="A55" s="144"/>
@@ -14993,16 +14999,16 @@
       <c r="G55" s="144" t="s">
         <v>520</v>
       </c>
-      <c r="H55" s="214" t="s">
+      <c r="H55" s="211" t="s">
         <v>792</v>
       </c>
-      <c r="I55" s="215"/>
-      <c r="J55" s="215"/>
+      <c r="I55" s="212"/>
+      <c r="J55" s="212"/>
       <c r="L55" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="M55" s="211"/>
-      <c r="N55" s="211"/>
+      <c r="M55" s="210"/>
+      <c r="N55" s="210"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="144" t="s">
@@ -15026,17 +15032,17 @@
       <c r="G56" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="215"/>
-      <c r="I56" s="215"/>
-      <c r="J56" s="215"/>
+      <c r="H56" s="212"/>
+      <c r="I56" s="212"/>
+      <c r="J56" s="212"/>
       <c r="K56" s="76"/>
       <c r="L56" s="78" t="s">
         <v>449</v>
       </c>
-      <c r="M56" s="211" t="s">
+      <c r="M56" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="N56" s="211"/>
+      <c r="N56" s="210"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="144" t="s">
@@ -15063,19 +15069,49 @@
       <c r="L57" s="78" t="s">
         <v>451</v>
       </c>
-      <c r="M57" s="211" t="s">
+      <c r="M57" s="210" t="s">
         <v>146</v>
       </c>
-      <c r="N57" s="211"/>
+      <c r="N57" s="210"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="56">
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A21:A52"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="H55:J56"/>
@@ -15092,41 +15128,11 @@
     <mergeCell ref="L40:N40"/>
     <mergeCell ref="M41:N41"/>
     <mergeCell ref="M42:N42"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A21:A52"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -15142,8 +15148,8 @@
   </sheetPr>
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -15165,19 +15171,19 @@
       <c r="A1" s="157" t="s">
         <v>808</v>
       </c>
-      <c r="H1" s="210" t="str">
+      <c r="H1" s="217" t="str">
         <f>命令表!P1</f>
         <v>Ver.10.2.0(TeC7a,b,c,d対応)</v>
       </c>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1">
-      <c r="I2" s="210">
+      <c r="I2" s="217">
         <f>命令表!P2</f>
         <v>45156</v>
       </c>
-      <c r="J2" s="210"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="79" t="s">
@@ -15209,22 +15215,22 @@
       <c r="A5" s="78" t="s">
         <v>525</v>
       </c>
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="264" t="s">
         <v>526</v>
       </c>
-      <c r="C5" s="222"/>
-      <c r="D5" s="227" t="s">
+      <c r="C5" s="265"/>
+      <c r="D5" s="270" t="s">
         <v>527</v>
       </c>
       <c r="E5" s="102"/>
       <c r="G5" s="103" t="s">
         <v>528</v>
       </c>
-      <c r="H5" s="238" t="s">
+      <c r="H5" s="245" t="s">
         <v>716</v>
       </c>
-      <c r="I5" s="239"/>
-      <c r="J5" s="236" t="s">
+      <c r="I5" s="258"/>
+      <c r="J5" s="256" t="s">
         <v>529</v>
       </c>
     </row>
@@ -15232,58 +15238,58 @@
       <c r="A6" s="78" t="s">
         <v>530</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="228"/>
+      <c r="B6" s="266"/>
+      <c r="C6" s="267"/>
+      <c r="D6" s="271"/>
       <c r="E6" s="102"/>
       <c r="G6" s="104" t="s">
         <v>531</v>
       </c>
-      <c r="H6" s="240" t="s">
+      <c r="H6" s="259" t="s">
         <v>717</v>
       </c>
-      <c r="I6" s="241"/>
-      <c r="J6" s="236"/>
+      <c r="I6" s="260"/>
+      <c r="J6" s="256"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="78" t="s">
         <v>532</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="228"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="271"/>
       <c r="E7" s="102"/>
       <c r="G7" s="105" t="s">
         <v>533</v>
       </c>
-      <c r="H7" s="238" t="s">
+      <c r="H7" s="245" t="s">
         <v>718</v>
       </c>
-      <c r="I7" s="239"/>
-      <c r="J7" s="236"/>
+      <c r="I7" s="258"/>
+      <c r="J7" s="256"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="A8" s="218" t="s">
+      <c r="A8" s="261" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="223"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="228"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="271"/>
       <c r="E8" s="102"/>
       <c r="G8" s="104" t="s">
         <v>534</v>
       </c>
-      <c r="H8" s="240" t="s">
+      <c r="H8" s="259" t="s">
         <v>719</v>
       </c>
-      <c r="I8" s="241"/>
-      <c r="J8" s="236"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="256"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="219"/>
-      <c r="B9" s="223"/>
-      <c r="C9" s="224"/>
-      <c r="D9" s="228"/>
+      <c r="A9" s="262"/>
+      <c r="B9" s="266"/>
+      <c r="C9" s="267"/>
+      <c r="D9" s="271"/>
       <c r="E9" s="102"/>
       <c r="G9" s="103" t="s">
         <v>535</v>
@@ -15294,15 +15300,15 @@
       <c r="I9" s="109" t="s">
         <v>536</v>
       </c>
-      <c r="J9" s="237" t="s">
+      <c r="J9" s="257" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1">
-      <c r="A10" s="219"/>
-      <c r="B10" s="223"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="228"/>
+      <c r="A10" s="262"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="267"/>
+      <c r="D10" s="271"/>
       <c r="E10" s="102"/>
       <c r="G10" s="104" t="s">
         <v>538</v>
@@ -15313,13 +15319,13 @@
       <c r="I10" s="111" t="s">
         <v>539</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="257"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
-      <c r="A11" s="219"/>
-      <c r="B11" s="223"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="228"/>
+      <c r="A11" s="262"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="271"/>
       <c r="E11" s="102"/>
       <c r="G11" s="103" t="s">
         <v>540</v>
@@ -15330,15 +15336,15 @@
       <c r="I11" s="109" t="s">
         <v>541</v>
       </c>
-      <c r="J11" s="236" t="s">
+      <c r="J11" s="256" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
-      <c r="A12" s="219"/>
-      <c r="B12" s="223"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="228"/>
+      <c r="A12" s="262"/>
+      <c r="B12" s="266"/>
+      <c r="C12" s="267"/>
+      <c r="D12" s="271"/>
       <c r="E12" s="102"/>
       <c r="G12" s="104" t="s">
         <v>543</v>
@@ -15349,13 +15355,13 @@
       <c r="I12" s="111" t="s">
         <v>544</v>
       </c>
-      <c r="J12" s="236"/>
+      <c r="J12" s="256"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="219"/>
-      <c r="B13" s="223"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="228"/>
+      <c r="A13" s="262"/>
+      <c r="B13" s="266"/>
+      <c r="C13" s="267"/>
+      <c r="D13" s="271"/>
       <c r="E13" s="102"/>
       <c r="G13" s="103" t="s">
         <v>545</v>
@@ -15366,61 +15372,61 @@
       <c r="I13" s="109" t="s">
         <v>546</v>
       </c>
-      <c r="J13" s="244" t="s">
+      <c r="J13" s="281" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="A14" s="219"/>
-      <c r="B14" s="223"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="228"/>
+      <c r="A14" s="262"/>
+      <c r="B14" s="266"/>
+      <c r="C14" s="267"/>
+      <c r="D14" s="271"/>
       <c r="E14" s="102"/>
       <c r="G14" s="112" t="s">
         <v>547</v>
       </c>
-      <c r="H14" s="245" t="s">
+      <c r="H14" s="242" t="s">
         <v>548</v>
       </c>
-      <c r="I14" s="245"/>
-      <c r="J14" s="237"/>
+      <c r="I14" s="242"/>
+      <c r="J14" s="257"/>
       <c r="N14" s="77"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
-      <c r="A15" s="219"/>
-      <c r="B15" s="223"/>
-      <c r="C15" s="224"/>
-      <c r="D15" s="228"/>
+      <c r="A15" s="262"/>
+      <c r="B15" s="266"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="271"/>
       <c r="E15" s="102"/>
       <c r="G15" s="112" t="s">
         <v>549</v>
       </c>
-      <c r="H15" s="245" t="s">
+      <c r="H15" s="242" t="s">
         <v>550</v>
       </c>
-      <c r="I15" s="245"/>
-      <c r="J15" s="237"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="257"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1">
-      <c r="A16" s="219"/>
-      <c r="B16" s="223"/>
-      <c r="C16" s="224"/>
-      <c r="D16" s="228"/>
+      <c r="A16" s="262"/>
+      <c r="B16" s="266"/>
+      <c r="C16" s="267"/>
+      <c r="D16" s="271"/>
       <c r="E16" s="102"/>
       <c r="G16" s="104" t="s">
         <v>551</v>
       </c>
-      <c r="H16" s="243" t="s">
+      <c r="H16" s="280" t="s">
         <v>552</v>
       </c>
-      <c r="I16" s="243"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="280"/>
+      <c r="J16" s="257"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="A17" s="219"/>
-      <c r="B17" s="223"/>
-      <c r="C17" s="224"/>
-      <c r="D17" s="228"/>
+      <c r="A17" s="262"/>
+      <c r="B17" s="266"/>
+      <c r="C17" s="267"/>
+      <c r="D17" s="271"/>
       <c r="E17" s="102"/>
       <c r="G17" s="103" t="s">
         <v>553</v>
@@ -15431,7 +15437,7 @@
       <c r="I17" s="114" t="s">
         <v>721</v>
       </c>
-      <c r="J17" s="237" t="s">
+      <c r="J17" s="257" t="s">
         <v>554</v>
       </c>
       <c r="M17"/>
@@ -15441,10 +15447,10 @@
       <c r="Q17"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1">
-      <c r="A18" s="219"/>
-      <c r="B18" s="223"/>
-      <c r="C18" s="224"/>
-      <c r="D18" s="228"/>
+      <c r="A18" s="262"/>
+      <c r="B18" s="266"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="271"/>
       <c r="E18" s="102"/>
       <c r="G18" s="112" t="s">
         <v>555</v>
@@ -15455,7 +15461,7 @@
       <c r="I18" s="116" t="s">
         <v>722</v>
       </c>
-      <c r="J18" s="237"/>
+      <c r="J18" s="257"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
@@ -15463,10 +15469,10 @@
       <c r="Q18"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1">
-      <c r="A19" s="219"/>
-      <c r="B19" s="223"/>
-      <c r="C19" s="224"/>
-      <c r="D19" s="228"/>
+      <c r="A19" s="262"/>
+      <c r="B19" s="266"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="271"/>
       <c r="E19" s="102"/>
       <c r="G19" s="112" t="s">
         <v>556</v>
@@ -15477,7 +15483,7 @@
       <c r="I19" s="116" t="s">
         <v>723</v>
       </c>
-      <c r="J19" s="237"/>
+      <c r="J19" s="257"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
@@ -15485,10 +15491,10 @@
       <c r="Q19"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1">
-      <c r="A20" s="219"/>
-      <c r="B20" s="223"/>
-      <c r="C20" s="224"/>
-      <c r="D20" s="228"/>
+      <c r="A20" s="262"/>
+      <c r="B20" s="266"/>
+      <c r="C20" s="267"/>
+      <c r="D20" s="271"/>
       <c r="E20" s="102"/>
       <c r="G20" s="104" t="s">
         <v>557</v>
@@ -15499,7 +15505,7 @@
       <c r="I20" s="111" t="s">
         <v>724</v>
       </c>
-      <c r="J20" s="237"/>
+      <c r="J20" s="257"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
@@ -15507,10 +15513,10 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1">
-      <c r="A21" s="219"/>
-      <c r="B21" s="223"/>
-      <c r="C21" s="224"/>
-      <c r="D21" s="228"/>
+      <c r="A21" s="262"/>
+      <c r="B21" s="266"/>
+      <c r="C21" s="267"/>
+      <c r="D21" s="271"/>
       <c r="E21" s="102"/>
       <c r="G21" s="103" t="s">
         <v>558</v>
@@ -15521,7 +15527,7 @@
       <c r="I21" s="109" t="s">
         <v>559</v>
       </c>
-      <c r="J21" s="237"/>
+      <c r="J21" s="257"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
@@ -15529,10 +15535,10 @@
       <c r="Q21"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1">
-      <c r="A22" s="219"/>
-      <c r="B22" s="223"/>
-      <c r="C22" s="224"/>
-      <c r="D22" s="228"/>
+      <c r="A22" s="262"/>
+      <c r="B22" s="266"/>
+      <c r="C22" s="267"/>
+      <c r="D22" s="271"/>
       <c r="E22" s="102"/>
       <c r="G22" s="104" t="s">
         <v>560</v>
@@ -15543,7 +15549,7 @@
       <c r="I22" s="111" t="s">
         <v>561</v>
       </c>
-      <c r="J22" s="237"/>
+      <c r="J22" s="257"/>
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
@@ -15551,10 +15557,10 @@
       <c r="Q22"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1">
-      <c r="A23" s="219"/>
-      <c r="B23" s="223"/>
-      <c r="C23" s="224"/>
-      <c r="D23" s="228"/>
+      <c r="A23" s="262"/>
+      <c r="B23" s="266"/>
+      <c r="C23" s="267"/>
+      <c r="D23" s="271"/>
       <c r="E23" s="102"/>
       <c r="G23" s="103" t="s">
         <v>563</v>
@@ -15565,7 +15571,7 @@
       <c r="I23" s="109" t="s">
         <v>564</v>
       </c>
-      <c r="J23" s="237"/>
+      <c r="J23" s="257"/>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
@@ -15573,10 +15579,10 @@
       <c r="Q23"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1">
-      <c r="A24" s="220"/>
-      <c r="B24" s="223"/>
-      <c r="C24" s="224"/>
-      <c r="D24" s="228"/>
+      <c r="A24" s="263"/>
+      <c r="B24" s="266"/>
+      <c r="C24" s="267"/>
+      <c r="D24" s="271"/>
       <c r="E24" s="118"/>
       <c r="G24" s="112" t="s">
         <v>567</v>
@@ -15587,7 +15593,7 @@
       <c r="I24" s="116" t="s">
         <v>568</v>
       </c>
-      <c r="J24" s="237"/>
+      <c r="J24" s="257"/>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
@@ -15598,9 +15604,9 @@
       <c r="A25" s="78" t="s">
         <v>562</v>
       </c>
-      <c r="B25" s="225"/>
-      <c r="C25" s="226"/>
-      <c r="D25" s="229"/>
+      <c r="B25" s="268"/>
+      <c r="C25" s="269"/>
+      <c r="D25" s="272"/>
       <c r="E25" s="148"/>
       <c r="G25" s="103" t="s">
         <v>569</v>
@@ -15611,7 +15617,7 @@
       <c r="I25" s="109" t="s">
         <v>570</v>
       </c>
-      <c r="J25" s="236" t="s">
+      <c r="J25" s="256" t="s">
         <v>571</v>
       </c>
       <c r="M25"/>
@@ -15624,14 +15630,14 @@
       <c r="A26" s="106" t="s">
         <v>565</v>
       </c>
-      <c r="B26" s="221" t="s">
+      <c r="B26" s="264" t="s">
         <v>566</v>
       </c>
-      <c r="C26" s="222"/>
-      <c r="D26" s="227" t="s">
+      <c r="C26" s="265"/>
+      <c r="D26" s="270" t="s">
         <v>527</v>
       </c>
-      <c r="E26" s="227" t="s">
+      <c r="E26" s="270" t="s">
         <v>725</v>
       </c>
       <c r="G26" s="112" t="s">
@@ -15643,7 +15649,7 @@
       <c r="I26" s="119" t="s">
         <v>574</v>
       </c>
-      <c r="J26" s="236"/>
+      <c r="J26" s="256"/>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
@@ -15654,10 +15660,10 @@
       <c r="A27" s="107" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="223"/>
-      <c r="C27" s="224"/>
-      <c r="D27" s="228"/>
-      <c r="E27" s="228"/>
+      <c r="B27" s="266"/>
+      <c r="C27" s="267"/>
+      <c r="D27" s="271"/>
+      <c r="E27" s="271"/>
       <c r="G27" s="112" t="s">
         <v>578</v>
       </c>
@@ -15667,7 +15673,7 @@
       <c r="I27" s="119" t="s">
         <v>579</v>
       </c>
-      <c r="J27" s="236"/>
+      <c r="J27" s="256"/>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
@@ -15678,10 +15684,10 @@
       <c r="A28" s="121" t="s">
         <v>572</v>
       </c>
-      <c r="B28" s="225"/>
-      <c r="C28" s="226"/>
-      <c r="D28" s="229"/>
-      <c r="E28" s="228"/>
+      <c r="B28" s="268"/>
+      <c r="C28" s="269"/>
+      <c r="D28" s="272"/>
+      <c r="E28" s="271"/>
       <c r="G28" s="104" t="s">
         <v>581</v>
       </c>
@@ -15691,7 +15697,7 @@
       <c r="I28" s="120" t="s">
         <v>582</v>
       </c>
-      <c r="J28" s="236"/>
+      <c r="J28" s="256"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
@@ -15702,14 +15708,14 @@
       <c r="A29" s="106" t="s">
         <v>575</v>
       </c>
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="245" t="s">
         <v>602</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="227" t="s">
+      <c r="C29" s="258"/>
+      <c r="D29" s="270" t="s">
         <v>577</v>
       </c>
-      <c r="E29" s="228"/>
+      <c r="E29" s="271"/>
       <c r="G29" s="108" t="s">
         <v>584</v>
       </c>
@@ -15732,12 +15738,12 @@
       <c r="A30" s="107" t="s">
         <v>580</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="249" t="s">
         <v>599</v>
       </c>
-      <c r="C30" s="112"/>
-      <c r="D30" s="228"/>
-      <c r="E30" s="228"/>
+      <c r="C30" s="295"/>
+      <c r="D30" s="271"/>
+      <c r="E30" s="271"/>
       <c r="G30" s="112" t="s">
         <v>587</v>
       </c>
@@ -15758,12 +15764,12 @@
       <c r="A31" s="107" t="s">
         <v>583</v>
       </c>
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="249" t="s">
         <v>730</v>
       </c>
-      <c r="C31" s="112"/>
-      <c r="D31" s="228"/>
-      <c r="E31" s="228"/>
+      <c r="C31" s="295"/>
+      <c r="D31" s="271"/>
+      <c r="E31" s="271"/>
       <c r="G31" s="112" t="s">
         <v>590</v>
       </c>
@@ -15784,12 +15790,12 @@
       <c r="A32" s="107" t="s">
         <v>586</v>
       </c>
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="249" t="s">
         <v>729</v>
       </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="228"/>
-      <c r="E32" s="228"/>
+      <c r="C32" s="295"/>
+      <c r="D32" s="271"/>
+      <c r="E32" s="271"/>
       <c r="G32" s="104" t="s">
         <v>593</v>
       </c>
@@ -15810,12 +15816,12 @@
       <c r="A33" s="107" t="s">
         <v>589</v>
       </c>
-      <c r="B33" s="154" t="s">
+      <c r="B33" s="255" t="s">
         <v>800</v>
       </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="228"/>
+      <c r="C33" s="296"/>
+      <c r="D33" s="271"/>
+      <c r="E33" s="271"/>
       <c r="G33" s="103" t="s">
         <v>596</v>
       </c>
@@ -15825,7 +15831,7 @@
       <c r="I33" s="150" t="s">
         <v>276</v>
       </c>
-      <c r="J33" s="233"/>
+      <c r="J33" s="276"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -15836,20 +15842,20 @@
       <c r="A34" s="107" t="s">
         <v>592</v>
       </c>
-      <c r="B34" s="112" t="s">
+      <c r="B34" s="249" t="s">
         <v>728</v>
       </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="228"/>
-      <c r="E34" s="228"/>
+      <c r="C34" s="295"/>
+      <c r="D34" s="271"/>
+      <c r="E34" s="271"/>
       <c r="G34" s="104" t="s">
         <v>281</v>
       </c>
-      <c r="H34" s="240" t="s">
+      <c r="H34" s="259" t="s">
         <v>281</v>
       </c>
-      <c r="I34" s="242"/>
-      <c r="J34" s="235"/>
+      <c r="I34" s="279"/>
+      <c r="J34" s="278"/>
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
@@ -15861,20 +15867,20 @@
       <c r="A35" s="107" t="s">
         <v>595</v>
       </c>
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="249" t="s">
         <v>727</v>
       </c>
-      <c r="C35" s="112"/>
-      <c r="D35" s="228"/>
-      <c r="E35" s="228"/>
+      <c r="C35" s="295"/>
+      <c r="D35" s="271"/>
+      <c r="E35" s="271"/>
       <c r="G35" s="154" t="s">
         <v>763</v>
       </c>
-      <c r="H35" s="253" t="s">
+      <c r="H35" s="255" t="s">
         <v>796</v>
       </c>
-      <c r="I35" s="252"/>
-      <c r="J35" s="233" t="s">
+      <c r="I35" s="250"/>
+      <c r="J35" s="276" t="s">
         <v>600</v>
       </c>
       <c r="L35"/>
@@ -15888,20 +15894,20 @@
       <c r="A36" s="107" t="s">
         <v>597</v>
       </c>
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="249" t="s">
         <v>726</v>
       </c>
-      <c r="C36" s="112"/>
-      <c r="D36" s="228"/>
-      <c r="E36" s="228"/>
+      <c r="C36" s="295"/>
+      <c r="D36" s="271"/>
+      <c r="E36" s="271"/>
       <c r="G36" s="154" t="s">
         <v>764</v>
       </c>
-      <c r="H36" s="246" t="s">
+      <c r="H36" s="251" t="s">
         <v>797</v>
       </c>
-      <c r="I36" s="247"/>
-      <c r="J36" s="234"/>
+      <c r="I36" s="252"/>
+      <c r="J36" s="277"/>
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
@@ -15913,20 +15919,20 @@
       <c r="A37" s="107" t="s">
         <v>598</v>
       </c>
-      <c r="B37" s="112" t="s">
+      <c r="B37" s="249" t="s">
         <v>720</v>
       </c>
-      <c r="C37" s="112"/>
-      <c r="D37" s="228"/>
-      <c r="E37" s="228"/>
+      <c r="C37" s="295"/>
+      <c r="D37" s="271"/>
+      <c r="E37" s="271"/>
       <c r="G37" s="154" t="s">
         <v>765</v>
       </c>
-      <c r="H37" s="246" t="s">
+      <c r="H37" s="251" t="s">
         <v>798</v>
       </c>
-      <c r="I37" s="250"/>
-      <c r="J37" s="234"/>
+      <c r="I37" s="253"/>
+      <c r="J37" s="277"/>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
@@ -15938,20 +15944,20 @@
       <c r="A38" s="107" t="s">
         <v>601</v>
       </c>
-      <c r="B38" s="112" t="s">
+      <c r="B38" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="C38" s="112"/>
-      <c r="D38" s="228"/>
-      <c r="E38" s="228"/>
+      <c r="C38" s="295"/>
+      <c r="D38" s="271"/>
+      <c r="E38" s="271"/>
       <c r="G38" s="155" t="s">
         <v>766</v>
       </c>
-      <c r="H38" s="258" t="s">
+      <c r="H38" s="243" t="s">
         <v>778</v>
       </c>
-      <c r="I38" s="259"/>
-      <c r="J38" s="234"/>
+      <c r="I38" s="244"/>
+      <c r="J38" s="277"/>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -15963,20 +15969,20 @@
       <c r="A39" s="107" t="s">
         <v>603</v>
       </c>
-      <c r="B39" s="248" t="s">
+      <c r="B39" s="233" t="s">
         <v>831</v>
       </c>
-      <c r="C39" s="249"/>
-      <c r="D39" s="228"/>
-      <c r="E39" s="228"/>
+      <c r="C39" s="234"/>
+      <c r="D39" s="271"/>
+      <c r="E39" s="271"/>
       <c r="G39" s="160" t="s">
         <v>829</v>
       </c>
-      <c r="H39" s="251" t="s">
+      <c r="H39" s="254" t="s">
         <v>830</v>
       </c>
-      <c r="I39" s="252"/>
-      <c r="J39" s="235"/>
+      <c r="I39" s="250"/>
+      <c r="J39" s="278"/>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
@@ -15988,19 +15994,19 @@
       <c r="A40" s="107" t="s">
         <v>604</v>
       </c>
-      <c r="B40" s="248" t="s">
+      <c r="B40" s="233" t="s">
         <v>801</v>
       </c>
-      <c r="C40" s="249"/>
-      <c r="D40" s="228"/>
-      <c r="E40" s="228"/>
+      <c r="C40" s="234"/>
+      <c r="D40" s="271"/>
+      <c r="E40" s="271"/>
       <c r="G40" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="H40" s="261" t="s">
+      <c r="H40" s="247" t="s">
         <v>707</v>
       </c>
-      <c r="I40" s="262"/>
+      <c r="I40" s="248"/>
       <c r="J40" s="149"/>
       <c r="L40"/>
       <c r="M40"/>
@@ -16013,20 +16019,20 @@
       <c r="A41" s="107" t="s">
         <v>605</v>
       </c>
-      <c r="B41" s="254" t="s">
+      <c r="B41" s="238" t="s">
         <v>802</v>
       </c>
-      <c r="C41" s="255"/>
-      <c r="D41" s="228"/>
-      <c r="E41" s="228"/>
+      <c r="C41" s="239"/>
+      <c r="D41" s="271"/>
+      <c r="E41" s="271"/>
       <c r="G41" s="103" t="s">
         <v>609</v>
       </c>
-      <c r="H41" s="238" t="s">
+      <c r="H41" s="245" t="s">
         <v>731</v>
       </c>
-      <c r="I41" s="260"/>
-      <c r="J41" s="230" t="s">
+      <c r="I41" s="246"/>
+      <c r="J41" s="273" t="s">
         <v>610</v>
       </c>
       <c r="L41"/>
@@ -16040,20 +16046,20 @@
       <c r="A42" s="107" t="s">
         <v>606</v>
       </c>
-      <c r="B42" s="254" t="s">
+      <c r="B42" s="238" t="s">
         <v>803</v>
       </c>
-      <c r="C42" s="255"/>
-      <c r="D42" s="228"/>
-      <c r="E42" s="228"/>
+      <c r="C42" s="239"/>
+      <c r="D42" s="271"/>
+      <c r="E42" s="271"/>
       <c r="G42" s="112" t="s">
         <v>611</v>
       </c>
-      <c r="H42" s="263" t="s">
+      <c r="H42" s="249" t="s">
         <v>732</v>
       </c>
-      <c r="I42" s="252"/>
-      <c r="J42" s="231"/>
+      <c r="I42" s="250"/>
+      <c r="J42" s="274"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -16065,12 +16071,12 @@
       <c r="A43" s="107" t="s">
         <v>607</v>
       </c>
-      <c r="B43" s="254" t="s">
+      <c r="B43" s="238" t="s">
         <v>804</v>
       </c>
-      <c r="C43" s="255"/>
-      <c r="D43" s="228"/>
-      <c r="E43" s="228"/>
+      <c r="C43" s="239"/>
+      <c r="D43" s="271"/>
+      <c r="E43" s="271"/>
       <c r="G43" s="112" t="s">
         <v>612</v>
       </c>
@@ -16080,7 +16086,7 @@
       <c r="I43" s="122" t="s">
         <v>733</v>
       </c>
-      <c r="J43" s="231"/>
+      <c r="J43" s="274"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -16092,12 +16098,12 @@
       <c r="A44" s="121" t="s">
         <v>608</v>
       </c>
-      <c r="B44" s="256" t="s">
+      <c r="B44" s="240" t="s">
         <v>805</v>
       </c>
-      <c r="C44" s="257"/>
-      <c r="D44" s="229"/>
-      <c r="E44" s="229"/>
+      <c r="C44" s="241"/>
+      <c r="D44" s="272"/>
+      <c r="E44" s="272"/>
       <c r="G44" s="104" t="s">
         <v>613</v>
       </c>
@@ -16107,7 +16113,7 @@
       <c r="I44" s="123" t="s">
         <v>734</v>
       </c>
-      <c r="J44" s="232"/>
+      <c r="J44" s="275"/>
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
@@ -16161,15 +16167,15 @@
       <c r="C49" s="78" t="s">
         <v>615</v>
       </c>
-      <c r="D49" s="267" t="s">
+      <c r="D49" s="235" t="s">
         <v>334</v>
       </c>
-      <c r="E49" s="268"/>
-      <c r="F49" s="268"/>
-      <c r="G49" s="268"/>
-      <c r="H49" s="268"/>
-      <c r="I49" s="268"/>
-      <c r="J49" s="269"/>
+      <c r="E49" s="236"/>
+      <c r="F49" s="236"/>
+      <c r="G49" s="236"/>
+      <c r="H49" s="236"/>
+      <c r="I49" s="236"/>
+      <c r="J49" s="237"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1">
       <c r="A50" s="128"/>
@@ -16179,15 +16185,15 @@
       <c r="C50" s="78" t="s">
         <v>617</v>
       </c>
-      <c r="D50" s="264" t="s">
+      <c r="D50" s="230" t="s">
         <v>618</v>
       </c>
-      <c r="E50" s="265"/>
-      <c r="F50" s="265"/>
-      <c r="G50" s="265"/>
-      <c r="H50" s="265"/>
-      <c r="I50" s="265"/>
-      <c r="J50" s="266"/>
+      <c r="E50" s="231"/>
+      <c r="F50" s="231"/>
+      <c r="G50" s="231"/>
+      <c r="H50" s="231"/>
+      <c r="I50" s="231"/>
+      <c r="J50" s="232"/>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1">
       <c r="A51" s="128"/>
@@ -16197,15 +16203,15 @@
       <c r="C51" s="78" t="s">
         <v>617</v>
       </c>
-      <c r="D51" s="264" t="s">
+      <c r="D51" s="230" t="s">
         <v>620</v>
       </c>
-      <c r="E51" s="265"/>
-      <c r="F51" s="265"/>
-      <c r="G51" s="265"/>
-      <c r="H51" s="265"/>
-      <c r="I51" s="265"/>
-      <c r="J51" s="266"/>
+      <c r="E51" s="231"/>
+      <c r="F51" s="231"/>
+      <c r="G51" s="231"/>
+      <c r="H51" s="231"/>
+      <c r="I51" s="231"/>
+      <c r="J51" s="232"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" s="78" t="s">
@@ -16217,15 +16223,15 @@
       <c r="C52" s="78" t="s">
         <v>621</v>
       </c>
-      <c r="D52" s="264" t="s">
+      <c r="D52" s="230" t="s">
         <v>622</v>
       </c>
-      <c r="E52" s="265"/>
-      <c r="F52" s="265"/>
-      <c r="G52" s="265"/>
-      <c r="H52" s="265"/>
-      <c r="I52" s="265"/>
-      <c r="J52" s="266"/>
+      <c r="E52" s="231"/>
+      <c r="F52" s="231"/>
+      <c r="G52" s="231"/>
+      <c r="H52" s="231"/>
+      <c r="I52" s="231"/>
+      <c r="J52" s="232"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1">
       <c r="A53" s="78" t="s">
@@ -16237,15 +16243,15 @@
       <c r="C53" s="78" t="s">
         <v>621</v>
       </c>
-      <c r="D53" s="264" t="s">
+      <c r="D53" s="230" t="s">
         <v>622</v>
       </c>
-      <c r="E53" s="265"/>
-      <c r="F53" s="265"/>
-      <c r="G53" s="265"/>
-      <c r="H53" s="265"/>
-      <c r="I53" s="265"/>
-      <c r="J53" s="266"/>
+      <c r="E53" s="231"/>
+      <c r="F53" s="231"/>
+      <c r="G53" s="231"/>
+      <c r="H53" s="231"/>
+      <c r="I53" s="231"/>
+      <c r="J53" s="232"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1">
       <c r="A54" s="78" t="s">
@@ -16257,15 +16263,15 @@
       <c r="C54" s="78" t="s">
         <v>625</v>
       </c>
-      <c r="D54" s="264" t="s">
+      <c r="D54" s="230" t="s">
         <v>626</v>
       </c>
-      <c r="E54" s="265"/>
-      <c r="F54" s="265"/>
-      <c r="G54" s="265"/>
-      <c r="H54" s="265"/>
-      <c r="I54" s="265"/>
-      <c r="J54" s="266"/>
+      <c r="E54" s="231"/>
+      <c r="F54" s="231"/>
+      <c r="G54" s="231"/>
+      <c r="H54" s="231"/>
+      <c r="I54" s="231"/>
+      <c r="J54" s="232"/>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1">
       <c r="A55" s="78" t="s">
@@ -16277,15 +16283,15 @@
       <c r="C55" s="78" t="s">
         <v>628</v>
       </c>
-      <c r="D55" s="264" t="s">
+      <c r="D55" s="230" t="s">
         <v>629</v>
       </c>
-      <c r="E55" s="265"/>
-      <c r="F55" s="265"/>
-      <c r="G55" s="265"/>
-      <c r="H55" s="265"/>
-      <c r="I55" s="265"/>
-      <c r="J55" s="266"/>
+      <c r="E55" s="231"/>
+      <c r="F55" s="231"/>
+      <c r="G55" s="231"/>
+      <c r="H55" s="231"/>
+      <c r="I55" s="231"/>
+      <c r="J55" s="232"/>
     </row>
     <row r="56" spans="1:10" s="77" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="78" t="s">
@@ -16297,15 +16303,15 @@
       <c r="C56" s="78" t="s">
         <v>632</v>
       </c>
-      <c r="D56" s="276" t="s">
+      <c r="D56" s="224" t="s">
         <v>741</v>
       </c>
-      <c r="E56" s="277"/>
-      <c r="F56" s="277"/>
-      <c r="G56" s="277"/>
-      <c r="H56" s="277"/>
-      <c r="I56" s="277"/>
-      <c r="J56" s="278"/>
+      <c r="E56" s="225"/>
+      <c r="F56" s="225"/>
+      <c r="G56" s="225"/>
+      <c r="H56" s="225"/>
+      <c r="I56" s="225"/>
+      <c r="J56" s="226"/>
     </row>
     <row r="57" spans="1:10" s="77" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="78" t="s">
@@ -16317,15 +16323,15 @@
       <c r="C57" s="78" t="s">
         <v>634</v>
       </c>
-      <c r="D57" s="270" t="s">
+      <c r="D57" s="218" t="s">
         <v>742</v>
       </c>
-      <c r="E57" s="271"/>
-      <c r="F57" s="271"/>
-      <c r="G57" s="271"/>
-      <c r="H57" s="271"/>
-      <c r="I57" s="271"/>
-      <c r="J57" s="272"/>
+      <c r="E57" s="219"/>
+      <c r="F57" s="219"/>
+      <c r="G57" s="219"/>
+      <c r="H57" s="219"/>
+      <c r="I57" s="219"/>
+      <c r="J57" s="220"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1">
       <c r="A58" s="78" t="s">
@@ -16337,15 +16343,15 @@
       <c r="C58" s="78" t="s">
         <v>646</v>
       </c>
-      <c r="D58" s="270" t="s">
+      <c r="D58" s="218" t="s">
         <v>642</v>
       </c>
-      <c r="E58" s="271"/>
-      <c r="F58" s="271"/>
-      <c r="G58" s="271"/>
-      <c r="H58" s="271"/>
-      <c r="I58" s="271"/>
-      <c r="J58" s="272"/>
+      <c r="E58" s="219"/>
+      <c r="F58" s="219"/>
+      <c r="G58" s="219"/>
+      <c r="H58" s="219"/>
+      <c r="I58" s="219"/>
+      <c r="J58" s="220"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1">
       <c r="A59" s="78" t="s">
@@ -16357,15 +16363,15 @@
       <c r="C59" s="78" t="s">
         <v>646</v>
       </c>
-      <c r="D59" s="270" t="s">
+      <c r="D59" s="218" t="s">
         <v>642</v>
       </c>
-      <c r="E59" s="271"/>
-      <c r="F59" s="271"/>
-      <c r="G59" s="271"/>
-      <c r="H59" s="271"/>
-      <c r="I59" s="271"/>
-      <c r="J59" s="272"/>
+      <c r="E59" s="219"/>
+      <c r="F59" s="219"/>
+      <c r="G59" s="219"/>
+      <c r="H59" s="219"/>
+      <c r="I59" s="219"/>
+      <c r="J59" s="220"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1">
       <c r="A60" s="78" t="s">
@@ -16377,15 +16383,15 @@
       <c r="C60" s="78" t="s">
         <v>636</v>
       </c>
-      <c r="D60" s="279" t="s">
+      <c r="D60" s="227" t="s">
         <v>767</v>
       </c>
-      <c r="E60" s="280"/>
-      <c r="F60" s="280"/>
-      <c r="G60" s="280"/>
-      <c r="H60" s="280"/>
-      <c r="I60" s="280"/>
-      <c r="J60" s="281"/>
+      <c r="E60" s="228"/>
+      <c r="F60" s="228"/>
+      <c r="G60" s="228"/>
+      <c r="H60" s="228"/>
+      <c r="I60" s="228"/>
+      <c r="J60" s="229"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1">
       <c r="A61" s="130" t="s">
@@ -16397,15 +16403,15 @@
       <c r="C61" s="130" t="s">
         <v>638</v>
       </c>
-      <c r="D61" s="273" t="s">
+      <c r="D61" s="221" t="s">
         <v>639</v>
       </c>
-      <c r="E61" s="274"/>
-      <c r="F61" s="274"/>
-      <c r="G61" s="274"/>
-      <c r="H61" s="274"/>
-      <c r="I61" s="274"/>
-      <c r="J61" s="275"/>
+      <c r="E61" s="222"/>
+      <c r="F61" s="222"/>
+      <c r="G61" s="222"/>
+      <c r="H61" s="222"/>
+      <c r="I61" s="222"/>
+      <c r="J61" s="223"/>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1">
       <c r="A63" s="74"/>
@@ -16514,44 +16520,11 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="53">
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
+  <mergeCells count="63">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="A8:A24"/>
     <mergeCell ref="B5:C25"/>
     <mergeCell ref="D5:D25"/>
@@ -16568,6 +16541,49 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J13:J16"/>
     <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="D60:J60"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -16596,29 +16612,29 @@
       <c r="A1" s="97" t="s">
         <v>713</v>
       </c>
-      <c r="Q1" s="210" t="str">
+      <c r="Q1" s="217" t="str">
         <f>命令表!P1</f>
         <v>Ver.10.2.0(TeC7a,b,c,d対応)</v>
       </c>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="210"/>
+      <c r="R1" s="217"/>
+      <c r="S1" s="217"/>
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="217"/>
     </row>
     <row r="2" spans="1:27" ht="19.8">
       <c r="A2" s="97"/>
-      <c r="W2" s="294">
+      <c r="W2" s="283">
         <f>命令表!P2</f>
         <v>45156</v>
       </c>
-      <c r="X2" s="294"/>
-      <c r="Y2" s="294"/>
-      <c r="Z2" s="294"/>
+      <c r="X2" s="283"/>
+      <c r="Y2" s="283"/>
+      <c r="Z2" s="283"/>
       <c r="AA2" s="7"/>
     </row>
     <row r="3" spans="1:27">
@@ -16661,27 +16677,27 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="83"/>
-      <c r="B6" s="290" t="s">
+      <c r="B6" s="282" t="s">
         <v>711</v>
       </c>
-      <c r="C6" s="290"/>
-      <c r="D6" s="290"/>
-      <c r="E6" s="290"/>
-      <c r="F6" s="290"/>
-      <c r="G6" s="290"/>
-      <c r="H6" s="290"/>
-      <c r="I6" s="290"/>
-      <c r="J6" s="290"/>
-      <c r="K6" s="290"/>
-      <c r="L6" s="290"/>
-      <c r="M6" s="290"/>
-      <c r="N6" s="290"/>
-      <c r="O6" s="290"/>
-      <c r="P6" s="290"/>
-      <c r="Q6" s="290"/>
-      <c r="R6" s="290"/>
-      <c r="S6" s="290"/>
-      <c r="T6" s="290"/>
+      <c r="C6" s="282"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="282"/>
+      <c r="K6" s="282"/>
+      <c r="L6" s="282"/>
+      <c r="M6" s="282"/>
+      <c r="N6" s="282"/>
+      <c r="O6" s="282"/>
+      <c r="P6" s="282"/>
+      <c r="Q6" s="282"/>
+      <c r="R6" s="282"/>
+      <c r="S6" s="282"/>
+      <c r="T6" s="282"/>
       <c r="U6" s="85"/>
       <c r="V6" s="85"/>
       <c r="W6" s="85"/>
@@ -16691,29 +16707,29 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="83"/>
-      <c r="B7" s="293"/>
-      <c r="C7" s="293"/>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
-      <c r="I7" s="290" t="s">
+      <c r="B7" s="287"/>
+      <c r="C7" s="287"/>
+      <c r="D7" s="287"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="287"/>
+      <c r="H7" s="287"/>
+      <c r="I7" s="282" t="s">
         <v>709</v>
       </c>
-      <c r="J7" s="290"/>
-      <c r="K7" s="290"/>
-      <c r="L7" s="290"/>
-      <c r="M7" s="290"/>
-      <c r="N7" s="290"/>
-      <c r="O7" s="290" t="s">
+      <c r="J7" s="282"/>
+      <c r="K7" s="282"/>
+      <c r="L7" s="282"/>
+      <c r="M7" s="282"/>
+      <c r="N7" s="282"/>
+      <c r="O7" s="282" t="s">
         <v>710</v>
       </c>
-      <c r="P7" s="290"/>
-      <c r="Q7" s="290"/>
-      <c r="R7" s="290"/>
-      <c r="S7" s="290"/>
-      <c r="T7" s="290"/>
+      <c r="P7" s="282"/>
+      <c r="Q7" s="282"/>
+      <c r="R7" s="282"/>
+      <c r="S7" s="282"/>
+      <c r="T7" s="282"/>
       <c r="U7" s="85"/>
       <c r="V7" s="85"/>
       <c r="W7" s="85"/>
@@ -16730,26 +16746,26 @@
       <c r="D8" s="289"/>
       <c r="E8" s="289"/>
       <c r="F8" s="289"/>
-      <c r="G8" s="285" t="s">
+      <c r="G8" s="284" t="s">
         <v>705</v>
       </c>
-      <c r="H8" s="286"/>
-      <c r="I8" s="290" t="s">
+      <c r="H8" s="285"/>
+      <c r="I8" s="282" t="s">
         <v>706</v>
       </c>
-      <c r="J8" s="290"/>
-      <c r="K8" s="290"/>
-      <c r="L8" s="290"/>
-      <c r="M8" s="290"/>
-      <c r="N8" s="290"/>
-      <c r="O8" s="290" t="s">
+      <c r="J8" s="282"/>
+      <c r="K8" s="282"/>
+      <c r="L8" s="282"/>
+      <c r="M8" s="282"/>
+      <c r="N8" s="282"/>
+      <c r="O8" s="282" t="s">
         <v>707</v>
       </c>
-      <c r="P8" s="290"/>
-      <c r="Q8" s="290"/>
-      <c r="R8" s="290"/>
-      <c r="S8" s="290"/>
-      <c r="T8" s="290"/>
+      <c r="P8" s="282"/>
+      <c r="Q8" s="282"/>
+      <c r="R8" s="282"/>
+      <c r="S8" s="282"/>
+      <c r="T8" s="282"/>
       <c r="U8" s="85"/>
       <c r="V8" s="85"/>
       <c r="W8" s="85"/>
@@ -16766,26 +16782,26 @@
       <c r="D9" s="289"/>
       <c r="E9" s="289"/>
       <c r="F9" s="289"/>
-      <c r="G9" s="285" t="s">
+      <c r="G9" s="284" t="s">
         <v>700</v>
       </c>
-      <c r="H9" s="286"/>
-      <c r="I9" s="290" t="s">
+      <c r="H9" s="285"/>
+      <c r="I9" s="282" t="s">
         <v>697</v>
       </c>
-      <c r="J9" s="290"/>
-      <c r="K9" s="290"/>
-      <c r="L9" s="290"/>
-      <c r="M9" s="290"/>
-      <c r="N9" s="290"/>
-      <c r="O9" s="290" t="s">
+      <c r="J9" s="282"/>
+      <c r="K9" s="282"/>
+      <c r="L9" s="282"/>
+      <c r="M9" s="282"/>
+      <c r="N9" s="282"/>
+      <c r="O9" s="282" t="s">
         <v>708</v>
       </c>
-      <c r="P9" s="290"/>
-      <c r="Q9" s="290"/>
-      <c r="R9" s="290"/>
-      <c r="S9" s="290"/>
-      <c r="T9" s="290"/>
+      <c r="P9" s="282"/>
+      <c r="Q9" s="282"/>
+      <c r="R9" s="282"/>
+      <c r="S9" s="282"/>
+      <c r="T9" s="282"/>
       <c r="U9" s="85"/>
       <c r="V9" s="85"/>
       <c r="W9" s="85"/>
@@ -16802,26 +16818,26 @@
       <c r="D10" s="289"/>
       <c r="E10" s="289"/>
       <c r="F10" s="289"/>
-      <c r="G10" s="285" t="s">
+      <c r="G10" s="284" t="s">
         <v>696</v>
       </c>
-      <c r="H10" s="286"/>
-      <c r="I10" s="290" t="s">
+      <c r="H10" s="285"/>
+      <c r="I10" s="282" t="s">
         <v>697</v>
       </c>
-      <c r="J10" s="290"/>
-      <c r="K10" s="290"/>
-      <c r="L10" s="290"/>
-      <c r="M10" s="290"/>
-      <c r="N10" s="290"/>
-      <c r="O10" s="282" t="s">
+      <c r="J10" s="282"/>
+      <c r="K10" s="282"/>
+      <c r="L10" s="282"/>
+      <c r="M10" s="282"/>
+      <c r="N10" s="282"/>
+      <c r="O10" s="286" t="s">
         <v>698</v>
       </c>
-      <c r="P10" s="282"/>
-      <c r="Q10" s="282"/>
-      <c r="R10" s="282"/>
-      <c r="S10" s="282"/>
-      <c r="T10" s="282"/>
+      <c r="P10" s="286"/>
+      <c r="Q10" s="286"/>
+      <c r="R10" s="286"/>
+      <c r="S10" s="286"/>
+      <c r="T10" s="286"/>
       <c r="U10" s="85"/>
       <c r="V10" s="85"/>
       <c r="W10" s="85"/>
@@ -16838,26 +16854,26 @@
       <c r="D11" s="289"/>
       <c r="E11" s="289"/>
       <c r="F11" s="289"/>
-      <c r="G11" s="285" t="s">
+      <c r="G11" s="284" t="s">
         <v>685</v>
       </c>
-      <c r="H11" s="286"/>
-      <c r="I11" s="287" t="s">
+      <c r="H11" s="285"/>
+      <c r="I11" s="294" t="s">
         <v>686</v>
       </c>
-      <c r="J11" s="287"/>
-      <c r="K11" s="287"/>
-      <c r="L11" s="287"/>
-      <c r="M11" s="287"/>
-      <c r="N11" s="287"/>
-      <c r="O11" s="282" t="s">
+      <c r="J11" s="294"/>
+      <c r="K11" s="294"/>
+      <c r="L11" s="294"/>
+      <c r="M11" s="294"/>
+      <c r="N11" s="294"/>
+      <c r="O11" s="286" t="s">
         <v>699</v>
       </c>
-      <c r="P11" s="282"/>
-      <c r="Q11" s="282"/>
-      <c r="R11" s="282"/>
-      <c r="S11" s="282"/>
-      <c r="T11" s="282"/>
+      <c r="P11" s="286"/>
+      <c r="Q11" s="286"/>
+      <c r="R11" s="286"/>
+      <c r="S11" s="286"/>
+      <c r="T11" s="286"/>
       <c r="U11" s="85"/>
       <c r="V11" s="85"/>
       <c r="W11" s="85"/>
@@ -16871,32 +16887,32 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="83"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="293" t="s">
         <v>681</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="285"/>
-      <c r="M13" s="285"/>
-      <c r="N13" s="285"/>
-      <c r="O13" s="285"/>
-      <c r="P13" s="285"/>
-      <c r="Q13" s="285"/>
-      <c r="R13" s="285"/>
-      <c r="S13" s="285"/>
-      <c r="T13" s="285"/>
-      <c r="U13" s="285"/>
-      <c r="V13" s="285"/>
-      <c r="W13" s="285"/>
-      <c r="X13" s="285"/>
-      <c r="Y13" s="286"/>
+      <c r="C13" s="284"/>
+      <c r="D13" s="284"/>
+      <c r="E13" s="284"/>
+      <c r="F13" s="284"/>
+      <c r="G13" s="284"/>
+      <c r="H13" s="284"/>
+      <c r="I13" s="284"/>
+      <c r="J13" s="284"/>
+      <c r="K13" s="284"/>
+      <c r="L13" s="284"/>
+      <c r="M13" s="284"/>
+      <c r="N13" s="284"/>
+      <c r="O13" s="284"/>
+      <c r="P13" s="284"/>
+      <c r="Q13" s="284"/>
+      <c r="R13" s="284"/>
+      <c r="S13" s="284"/>
+      <c r="T13" s="284"/>
+      <c r="U13" s="284"/>
+      <c r="V13" s="284"/>
+      <c r="W13" s="284"/>
+      <c r="X13" s="284"/>
+      <c r="Y13" s="285"/>
       <c r="Z13" s="84"/>
     </row>
     <row r="14" spans="1:27">
@@ -16904,43 +16920,43 @@
       <c r="B14" s="75" t="s">
         <v>658</v>
       </c>
-      <c r="C14" s="283" t="s">
+      <c r="C14" s="290" t="s">
         <v>659</v>
       </c>
-      <c r="D14" s="283"/>
-      <c r="E14" s="283"/>
-      <c r="F14" s="283"/>
-      <c r="G14" s="283"/>
+      <c r="D14" s="290"/>
+      <c r="E14" s="290"/>
+      <c r="F14" s="290"/>
+      <c r="G14" s="290"/>
       <c r="H14" s="75" t="s">
         <v>660</v>
       </c>
-      <c r="I14" s="283" t="s">
+      <c r="I14" s="290" t="s">
         <v>661</v>
       </c>
-      <c r="J14" s="283"/>
-      <c r="K14" s="283"/>
-      <c r="L14" s="283"/>
-      <c r="M14" s="283"/>
+      <c r="J14" s="290"/>
+      <c r="K14" s="290"/>
+      <c r="L14" s="290"/>
+      <c r="M14" s="290"/>
       <c r="N14" s="75" t="s">
         <v>662</v>
       </c>
-      <c r="O14" s="283" t="s">
+      <c r="O14" s="290" t="s">
         <v>663</v>
       </c>
-      <c r="P14" s="283"/>
-      <c r="Q14" s="283"/>
-      <c r="R14" s="283"/>
-      <c r="S14" s="283"/>
+      <c r="P14" s="290"/>
+      <c r="Q14" s="290"/>
+      <c r="R14" s="290"/>
+      <c r="S14" s="290"/>
       <c r="T14" s="75" t="s">
         <v>654</v>
       </c>
-      <c r="U14" s="283" t="s">
+      <c r="U14" s="290" t="s">
         <v>664</v>
       </c>
-      <c r="V14" s="283"/>
-      <c r="W14" s="283"/>
-      <c r="X14" s="283"/>
-      <c r="Y14" s="283"/>
+      <c r="V14" s="290"/>
+      <c r="W14" s="290"/>
+      <c r="X14" s="290"/>
+      <c r="Y14" s="290"/>
       <c r="Z14" s="84"/>
     </row>
     <row r="15" spans="1:27" ht="13.5" customHeight="1">
@@ -16948,43 +16964,43 @@
       <c r="B15" s="75" t="s">
         <v>665</v>
       </c>
-      <c r="C15" s="283" t="s">
+      <c r="C15" s="290" t="s">
         <v>666</v>
       </c>
-      <c r="D15" s="283"/>
-      <c r="E15" s="283"/>
-      <c r="F15" s="283"/>
-      <c r="G15" s="283"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
       <c r="H15" s="75" t="s">
         <v>667</v>
       </c>
-      <c r="I15" s="283" t="s">
+      <c r="I15" s="290" t="s">
         <v>668</v>
       </c>
-      <c r="J15" s="283"/>
-      <c r="K15" s="283"/>
-      <c r="L15" s="283"/>
-      <c r="M15" s="283"/>
+      <c r="J15" s="290"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
+      <c r="M15" s="290"/>
       <c r="N15" s="75" t="s">
         <v>669</v>
       </c>
-      <c r="O15" s="283" t="s">
+      <c r="O15" s="290" t="s">
         <v>670</v>
       </c>
-      <c r="P15" s="283"/>
-      <c r="Q15" s="283"/>
-      <c r="R15" s="283"/>
-      <c r="S15" s="283"/>
+      <c r="P15" s="290"/>
+      <c r="Q15" s="290"/>
+      <c r="R15" s="290"/>
+      <c r="S15" s="290"/>
       <c r="T15" s="75" t="s">
         <v>671</v>
       </c>
-      <c r="U15" s="283" t="s">
+      <c r="U15" s="290" t="s">
         <v>672</v>
       </c>
-      <c r="V15" s="283"/>
-      <c r="W15" s="283"/>
-      <c r="X15" s="283"/>
-      <c r="Y15" s="283"/>
+      <c r="V15" s="290"/>
+      <c r="W15" s="290"/>
+      <c r="X15" s="290"/>
+      <c r="Y15" s="290"/>
       <c r="Z15" s="84"/>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1">
@@ -16992,43 +17008,43 @@
       <c r="B16" s="75" t="s">
         <v>673</v>
       </c>
-      <c r="C16" s="283" t="s">
+      <c r="C16" s="290" t="s">
         <v>674</v>
       </c>
-      <c r="D16" s="283"/>
-      <c r="E16" s="283"/>
-      <c r="F16" s="283"/>
-      <c r="G16" s="283"/>
+      <c r="D16" s="290"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
       <c r="H16" s="75" t="s">
         <v>675</v>
       </c>
-      <c r="I16" s="283" t="s">
+      <c r="I16" s="290" t="s">
         <v>676</v>
       </c>
-      <c r="J16" s="283"/>
-      <c r="K16" s="283"/>
-      <c r="L16" s="283"/>
-      <c r="M16" s="283"/>
+      <c r="J16" s="290"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
+      <c r="M16" s="290"/>
       <c r="N16" s="75" t="s">
         <v>677</v>
       </c>
-      <c r="O16" s="283" t="s">
+      <c r="O16" s="290" t="s">
         <v>678</v>
       </c>
-      <c r="P16" s="283"/>
-      <c r="Q16" s="283"/>
-      <c r="R16" s="283"/>
-      <c r="S16" s="283"/>
+      <c r="P16" s="290"/>
+      <c r="Q16" s="290"/>
+      <c r="R16" s="290"/>
+      <c r="S16" s="290"/>
       <c r="T16" s="75" t="s">
         <v>679</v>
       </c>
-      <c r="U16" s="283" t="s">
+      <c r="U16" s="290" t="s">
         <v>680</v>
       </c>
-      <c r="V16" s="283"/>
-      <c r="W16" s="283"/>
-      <c r="X16" s="283"/>
-      <c r="Y16" s="283"/>
+      <c r="V16" s="290"/>
+      <c r="W16" s="290"/>
+      <c r="X16" s="290"/>
+      <c r="Y16" s="290"/>
       <c r="Z16" s="84"/>
     </row>
     <row r="17" spans="1:26" ht="13.5" customHeight="1">
@@ -17061,32 +17077,32 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="83"/>
-      <c r="B18" s="284" t="s">
+      <c r="B18" s="293" t="s">
         <v>684</v>
       </c>
-      <c r="C18" s="285"/>
-      <c r="D18" s="285"/>
-      <c r="E18" s="285"/>
-      <c r="F18" s="285"/>
-      <c r="G18" s="285"/>
-      <c r="H18" s="285"/>
-      <c r="I18" s="285"/>
-      <c r="J18" s="285"/>
-      <c r="K18" s="285"/>
-      <c r="L18" s="285"/>
-      <c r="M18" s="285"/>
-      <c r="N18" s="285"/>
-      <c r="O18" s="285"/>
-      <c r="P18" s="285"/>
-      <c r="Q18" s="285"/>
-      <c r="R18" s="285"/>
-      <c r="S18" s="285"/>
-      <c r="T18" s="285"/>
-      <c r="U18" s="285"/>
-      <c r="V18" s="285"/>
-      <c r="W18" s="285"/>
-      <c r="X18" s="285"/>
-      <c r="Y18" s="286"/>
+      <c r="C18" s="284"/>
+      <c r="D18" s="284"/>
+      <c r="E18" s="284"/>
+      <c r="F18" s="284"/>
+      <c r="G18" s="284"/>
+      <c r="H18" s="284"/>
+      <c r="I18" s="284"/>
+      <c r="J18" s="284"/>
+      <c r="K18" s="284"/>
+      <c r="L18" s="284"/>
+      <c r="M18" s="284"/>
+      <c r="N18" s="284"/>
+      <c r="O18" s="284"/>
+      <c r="P18" s="284"/>
+      <c r="Q18" s="284"/>
+      <c r="R18" s="284"/>
+      <c r="S18" s="284"/>
+      <c r="T18" s="284"/>
+      <c r="U18" s="284"/>
+      <c r="V18" s="284"/>
+      <c r="W18" s="284"/>
+      <c r="X18" s="284"/>
+      <c r="Y18" s="285"/>
       <c r="Z18" s="84"/>
     </row>
     <row r="19" spans="1:26" ht="13.5" customHeight="1">
@@ -17094,35 +17110,35 @@
       <c r="B19" s="75" t="s">
         <v>653</v>
       </c>
-      <c r="C19" s="283" t="s">
+      <c r="C19" s="290" t="s">
         <v>682</v>
       </c>
-      <c r="D19" s="283"/>
-      <c r="E19" s="283"/>
-      <c r="F19" s="283"/>
-      <c r="G19" s="283"/>
+      <c r="D19" s="290"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="290"/>
       <c r="H19" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="I19" s="283" t="s">
+      <c r="I19" s="290" t="s">
         <v>666</v>
       </c>
-      <c r="J19" s="283"/>
-      <c r="K19" s="283"/>
-      <c r="L19" s="283"/>
-      <c r="M19" s="283"/>
+      <c r="J19" s="290"/>
+      <c r="K19" s="290"/>
+      <c r="L19" s="290"/>
+      <c r="M19" s="290"/>
       <c r="N19" s="75"/>
-      <c r="O19" s="283"/>
-      <c r="P19" s="283"/>
-      <c r="Q19" s="283"/>
-      <c r="R19" s="283"/>
-      <c r="S19" s="283"/>
+      <c r="O19" s="290"/>
+      <c r="P19" s="290"/>
+      <c r="Q19" s="290"/>
+      <c r="R19" s="290"/>
+      <c r="S19" s="290"/>
       <c r="T19" s="75"/>
-      <c r="U19" s="283"/>
-      <c r="V19" s="283"/>
-      <c r="W19" s="283"/>
-      <c r="X19" s="283"/>
-      <c r="Y19" s="283"/>
+      <c r="U19" s="290"/>
+      <c r="V19" s="290"/>
+      <c r="W19" s="290"/>
+      <c r="X19" s="290"/>
+      <c r="Y19" s="290"/>
       <c r="Z19" s="84"/>
     </row>
     <row r="20" spans="1:26" ht="13.5" customHeight="1">
@@ -17247,64 +17263,64 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="83"/>
-      <c r="B26" s="290" t="s">
+      <c r="B26" s="282" t="s">
         <v>657</v>
       </c>
-      <c r="C26" s="290"/>
-      <c r="D26" s="290"/>
-      <c r="E26" s="290"/>
-      <c r="F26" s="290"/>
-      <c r="G26" s="290"/>
-      <c r="H26" s="290"/>
-      <c r="I26" s="290"/>
-      <c r="J26" s="290"/>
-      <c r="K26" s="290"/>
-      <c r="L26" s="290"/>
-      <c r="M26" s="290"/>
-      <c r="N26" s="290"/>
-      <c r="O26" s="290"/>
-      <c r="P26" s="290"/>
-      <c r="Q26" s="290"/>
-      <c r="R26" s="290"/>
-      <c r="S26" s="290"/>
-      <c r="T26" s="290"/>
-      <c r="U26" s="290"/>
-      <c r="V26" s="290"/>
-      <c r="W26" s="290"/>
-      <c r="X26" s="290"/>
-      <c r="Y26" s="290"/>
+      <c r="C26" s="282"/>
+      <c r="D26" s="282"/>
+      <c r="E26" s="282"/>
+      <c r="F26" s="282"/>
+      <c r="G26" s="282"/>
+      <c r="H26" s="282"/>
+      <c r="I26" s="282"/>
+      <c r="J26" s="282"/>
+      <c r="K26" s="282"/>
+      <c r="L26" s="282"/>
+      <c r="M26" s="282"/>
+      <c r="N26" s="282"/>
+      <c r="O26" s="282"/>
+      <c r="P26" s="282"/>
+      <c r="Q26" s="282"/>
+      <c r="R26" s="282"/>
+      <c r="S26" s="282"/>
+      <c r="T26" s="282"/>
+      <c r="U26" s="282"/>
+      <c r="V26" s="282"/>
+      <c r="W26" s="282"/>
+      <c r="X26" s="282"/>
+      <c r="Y26" s="282"/>
       <c r="Z26" s="84"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="83"/>
-      <c r="B27" s="290" t="s">
+      <c r="B27" s="282" t="s">
         <v>694</v>
       </c>
-      <c r="C27" s="290"/>
-      <c r="D27" s="290"/>
-      <c r="E27" s="290"/>
-      <c r="F27" s="290"/>
-      <c r="G27" s="290"/>
-      <c r="H27" s="290"/>
-      <c r="I27" s="290"/>
-      <c r="J27" s="290" t="s">
+      <c r="C27" s="282"/>
+      <c r="D27" s="282"/>
+      <c r="E27" s="282"/>
+      <c r="F27" s="282"/>
+      <c r="G27" s="282"/>
+      <c r="H27" s="282"/>
+      <c r="I27" s="282"/>
+      <c r="J27" s="282" t="s">
         <v>695</v>
       </c>
-      <c r="K27" s="290"/>
-      <c r="L27" s="290"/>
-      <c r="M27" s="290"/>
-      <c r="N27" s="290"/>
-      <c r="O27" s="290"/>
-      <c r="P27" s="290"/>
-      <c r="Q27" s="290"/>
-      <c r="R27" s="290"/>
-      <c r="S27" s="290"/>
-      <c r="T27" s="290"/>
-      <c r="U27" s="290"/>
-      <c r="V27" s="290"/>
-      <c r="W27" s="290"/>
-      <c r="X27" s="290"/>
-      <c r="Y27" s="290"/>
+      <c r="K27" s="282"/>
+      <c r="L27" s="282"/>
+      <c r="M27" s="282"/>
+      <c r="N27" s="282"/>
+      <c r="O27" s="282"/>
+      <c r="P27" s="282"/>
+      <c r="Q27" s="282"/>
+      <c r="R27" s="282"/>
+      <c r="S27" s="282"/>
+      <c r="T27" s="282"/>
+      <c r="U27" s="282"/>
+      <c r="V27" s="282"/>
+      <c r="W27" s="282"/>
+      <c r="X27" s="282"/>
+      <c r="Y27" s="282"/>
       <c r="Z27" s="84"/>
     </row>
     <row r="28" spans="1:26">
@@ -17312,13 +17328,13 @@
       <c r="B28" s="291" t="s">
         <v>647</v>
       </c>
-      <c r="C28" s="290"/>
-      <c r="D28" s="290"/>
-      <c r="E28" s="290"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="290"/>
-      <c r="I28" s="290"/>
+      <c r="C28" s="282"/>
+      <c r="D28" s="282"/>
+      <c r="E28" s="282"/>
+      <c r="F28" s="282"/>
+      <c r="G28" s="282"/>
+      <c r="H28" s="282"/>
+      <c r="I28" s="282"/>
       <c r="J28" s="90">
         <v>15</v>
       </c>
@@ -17337,32 +17353,32 @@
       <c r="O28" s="292" t="s">
         <v>648</v>
       </c>
-      <c r="P28" s="290"/>
-      <c r="Q28" s="290"/>
+      <c r="P28" s="282"/>
+      <c r="Q28" s="282"/>
       <c r="R28" s="291" t="s">
         <v>649</v>
       </c>
-      <c r="S28" s="290"/>
-      <c r="T28" s="290"/>
-      <c r="U28" s="290"/>
-      <c r="V28" s="290"/>
-      <c r="W28" s="290"/>
-      <c r="X28" s="290"/>
-      <c r="Y28" s="290"/>
+      <c r="S28" s="282"/>
+      <c r="T28" s="282"/>
+      <c r="U28" s="282"/>
+      <c r="V28" s="282"/>
+      <c r="W28" s="282"/>
+      <c r="X28" s="282"/>
+      <c r="Y28" s="282"/>
       <c r="Z28" s="84"/>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="93"/>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="282" t="s">
         <v>650</v>
       </c>
-      <c r="C29" s="290"/>
-      <c r="D29" s="290"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="290"/>
-      <c r="H29" s="290"/>
-      <c r="I29" s="290"/>
+      <c r="C29" s="282"/>
+      <c r="D29" s="282"/>
+      <c r="E29" s="282"/>
+      <c r="F29" s="282"/>
+      <c r="G29" s="282"/>
+      <c r="H29" s="282"/>
+      <c r="I29" s="282"/>
       <c r="J29" s="75" t="s">
         <v>651</v>
       </c>
@@ -17378,21 +17394,21 @@
       <c r="N29" s="75" t="s">
         <v>654</v>
       </c>
-      <c r="O29" s="290" t="s">
+      <c r="O29" s="282" t="s">
         <v>655</v>
       </c>
-      <c r="P29" s="290"/>
-      <c r="Q29" s="290"/>
-      <c r="R29" s="290" t="s">
+      <c r="P29" s="282"/>
+      <c r="Q29" s="282"/>
+      <c r="R29" s="282" t="s">
         <v>656</v>
       </c>
-      <c r="S29" s="290"/>
-      <c r="T29" s="290"/>
-      <c r="U29" s="290"/>
-      <c r="V29" s="290"/>
-      <c r="W29" s="290"/>
-      <c r="X29" s="290"/>
-      <c r="Y29" s="290"/>
+      <c r="S29" s="282"/>
+      <c r="T29" s="282"/>
+      <c r="U29" s="282"/>
+      <c r="V29" s="282"/>
+      <c r="W29" s="282"/>
+      <c r="X29" s="282"/>
+      <c r="Y29" s="282"/>
       <c r="Z29" s="84"/>
     </row>
     <row r="30" spans="1:26">
@@ -17646,23 +17662,22 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="49">
-    <mergeCell ref="B6:T6"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="B18:Y18"/>
+    <mergeCell ref="B13:Y13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="I11:N11"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="I15:M15"/>
     <mergeCell ref="G10:H10"/>
@@ -17679,22 +17694,23 @@
     <mergeCell ref="I19:M19"/>
     <mergeCell ref="O19:S19"/>
     <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="B18:Y18"/>
-    <mergeCell ref="B13:Y13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B6:T6"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="O9:T9"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/Doc/Arch/TaC命令表.xlsx
+++ b/Doc/Arch/TaC命令表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560C18D7-3210-453F-A656-447CC770D04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE5F153-D0BC-45AA-9D20-F8379324E8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="命令表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="831">
   <si>
     <r>
       <rPr>
@@ -3000,9 +3000,6 @@
     <t>FFECh</t>
   </si>
   <si>
-    <t>38h</t>
-  </si>
-  <si>
     <t>FFEEh</t>
   </si>
   <si>
@@ -3518,9 +3515,6 @@
     <t>モード(In)</t>
   </si>
   <si>
-    <t>リセット直後はIPL(ROM)</t>
-  </si>
-  <si>
     <t>TeC 送信</t>
   </si>
   <si>
@@ -3708,10 +3702,6 @@
     <rPh sb="22" eb="24">
       <t xml:space="preserve">カイセツ </t>
     </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>ページ番号(IN)</t>
     <phoneticPr fontId="12"/>
   </si>
   <si>
@@ -4063,24 +4053,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック Bold"/>
-        <charset val="128"/>
-      </rPr>
-      <t>8h</t>
-    </r>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>ページテーブルレジスタ(OUT)</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>Page Fault（※１）</t>
     <phoneticPr fontId="12"/>
   </si>
@@ -4107,6 +4079,21 @@
     </r>
     <phoneticPr fontId="12"/>
   </si>
+  <si>
+    <t>ページテーブルレジスタ(OUT)/ページ番号(IN)</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>空き</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>リセット直後はIPL(ROM)</t>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
@@ -4116,7 +4103,7 @@
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/m/d"/>
     <numFmt numFmtId="177" formatCode="[$-411]m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4236,6 +4223,12 @@
       <name val="游ゴシック Bold"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック Bold"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4257,7 +4250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="90">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -4969,21 +4962,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="63"/>
@@ -4993,43 +4971,6 @@
       </top>
       <bottom style="hair">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5245,19 +5186,6 @@
         <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right/>
-      <top style="hair">
         <color indexed="8"/>
       </top>
       <bottom style="hair">
@@ -5389,10 +5317,106 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -5408,7 +5432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5763,9 +5787,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5853,215 +5874,449 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="13" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6072,24 +6327,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -6099,206 +6336,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="13" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6746,7 +6797,7 @@
   <dimension ref="B1:Q121"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="P3" sqref="P3:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2"/>
@@ -6763,11 +6814,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="18">
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -6780,13 +6831,13 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="6" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2" spans="2:17" ht="18">
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -6799,41 +6850,41 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7">
-        <v>45156</v>
+        <v>45222</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="16.95" customHeight="1">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="180"/>
+      <c r="D3" s="177"/>
       <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="182" t="s">
+      <c r="F3" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="183" t="s">
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="180" t="s">
+      <c r="P3" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="172"/>
+      <c r="Q3" s="169"/>
     </row>
     <row r="4" spans="2:17" ht="18">
-      <c r="B4" s="180"/>
+      <c r="B4" s="177"/>
       <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
@@ -6870,9 +6921,9 @@
       <c r="N4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="183"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="172"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="177"/>
+      <c r="Q4" s="169"/>
     </row>
     <row r="5" spans="2:17" ht="18">
       <c r="B5" s="19" t="s">
@@ -6942,7 +6993,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>31</v>
@@ -6951,10 +7002,10 @@
         <v>31</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N6" s="17" t="s">
         <v>21</v>
@@ -6980,16 +7031,16 @@
         <v>36</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>21</v>
@@ -7036,19 +7087,19 @@
         <v>30</v>
       </c>
       <c r="I8" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>21</v>
@@ -7083,19 +7134,19 @@
         <v>30</v>
       </c>
       <c r="I9" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="J9" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>21</v>
@@ -7130,19 +7181,19 @@
         <v>30</v>
       </c>
       <c r="I10" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>21</v>
@@ -7177,19 +7228,19 @@
         <v>30</v>
       </c>
       <c r="I11" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="J11" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N11" s="17" t="s">
         <v>21</v>
@@ -7224,19 +7275,19 @@
         <v>30</v>
       </c>
       <c r="I12" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="J12" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N12" s="17" t="s">
         <v>21</v>
@@ -7271,19 +7322,19 @@
         <v>30</v>
       </c>
       <c r="I13" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>21</v>
@@ -7318,19 +7369,19 @@
         <v>30</v>
       </c>
       <c r="I14" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="J14" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>21</v>
@@ -7365,19 +7416,19 @@
         <v>30</v>
       </c>
       <c r="I15" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="J15" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N15" s="14" t="s">
         <v>21</v>
@@ -7399,32 +7450,32 @@
       <c r="D16" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="153" t="s">
+      <c r="E16" s="149" t="s">
         <v>73</v>
       </c>
       <c r="F16" s="35" t="s">
+        <v>772</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>772</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>773</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>773</v>
+      </c>
+      <c r="J16" s="35" t="s">
         <v>774</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="K16" s="35" t="s">
         <v>774</v>
       </c>
-      <c r="H16" s="35" t="s">
-        <v>775</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>775</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>776</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>776</v>
-      </c>
       <c r="L16" s="35" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="N16" s="35" t="s">
         <v>21</v>
@@ -7446,32 +7497,32 @@
       <c r="D17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="153" t="s">
+      <c r="E17" s="149" t="s">
         <v>77</v>
       </c>
       <c r="F17" s="35" t="s">
+        <v>772</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>772</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>773</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>773</v>
+      </c>
+      <c r="J17" s="35" t="s">
         <v>774</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="K17" s="35" t="s">
         <v>774</v>
       </c>
-      <c r="H17" s="35" t="s">
-        <v>775</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>775</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>776</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>776</v>
-      </c>
       <c r="L17" s="35" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="N17" s="35" t="s">
         <v>21</v>
@@ -7506,19 +7557,19 @@
         <v>30</v>
       </c>
       <c r="I18" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N18" s="17" t="s">
         <v>21</v>
@@ -7553,19 +7604,19 @@
         <v>30</v>
       </c>
       <c r="I19" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>21</v>
@@ -7600,19 +7651,19 @@
         <v>30</v>
       </c>
       <c r="I20" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N20" s="17" t="s">
         <v>21</v>
@@ -7647,19 +7698,19 @@
         <v>30</v>
       </c>
       <c r="I21" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="J21" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N21" s="17" t="s">
         <v>21</v>
@@ -7685,10 +7736,10 @@
         <v>97</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>21</v>
@@ -7732,10 +7783,10 @@
         <v>101</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>21</v>
@@ -7779,10 +7830,10 @@
         <v>105</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>21</v>
@@ -7826,10 +7877,10 @@
         <v>109</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>21</v>
@@ -7861,7 +7912,7 @@
     </row>
     <row r="26" spans="2:16" ht="18">
       <c r="B26" s="19" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>111</v>
@@ -7873,10 +7924,10 @@
         <v>112</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>21</v>
@@ -7908,7 +7959,7 @@
     </row>
     <row r="27" spans="2:16" ht="18">
       <c r="B27" s="19" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>114</v>
@@ -7920,10 +7971,10 @@
         <v>115</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>21</v>
@@ -7955,7 +8006,7 @@
     </row>
     <row r="28" spans="2:16" ht="18">
       <c r="B28" s="19" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>117</v>
@@ -7967,10 +8018,10 @@
         <v>118</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H28" s="17" t="s">
         <v>21</v>
@@ -8002,7 +8053,7 @@
     </row>
     <row r="29" spans="2:16" ht="18">
       <c r="B29" s="19" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>120</v>
@@ -8014,10 +8065,10 @@
         <v>121</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>21</v>
@@ -8061,10 +8112,10 @@
         <v>125</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H30" s="17" t="s">
         <v>21</v>
@@ -8108,10 +8159,10 @@
         <v>129</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H31" s="17" t="s">
         <v>21</v>
@@ -8155,10 +8206,10 @@
         <v>133</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H32" s="17" t="s">
         <v>21</v>
@@ -8202,10 +8253,10 @@
         <v>137</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>21</v>
@@ -8237,7 +8288,7 @@
     </row>
     <row r="34" spans="2:17" ht="18">
       <c r="B34" s="19" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>139</v>
@@ -8249,10 +8300,10 @@
         <v>140</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>21</v>
@@ -8284,7 +8335,7 @@
     </row>
     <row r="35" spans="2:17" ht="18">
       <c r="B35" s="19" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>142</v>
@@ -8296,10 +8347,10 @@
         <v>143</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>21</v>
@@ -8390,10 +8441,10 @@
         <v>151</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>21</v>
@@ -8437,7 +8488,7 @@
         <v>155</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>21</v>
@@ -8455,10 +8506,10 @@
         <v>21</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="M38" s="17" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="N38" s="17" t="s">
         <v>21</v>
@@ -8484,7 +8535,7 @@
         <v>159</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>21</v>
@@ -8502,10 +8553,10 @@
         <v>21</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="N39" s="17" t="s">
         <v>21</v>
@@ -8602,7 +8653,7 @@
         <v>21</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="O41" s="23" t="s">
         <v>23</v>
@@ -8665,7 +8716,7 @@
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="72" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>21</v>
@@ -8692,10 +8743,10 @@
         <v>21</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="O43" s="23" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="P43" s="19" t="s">
         <v>176</v>
@@ -8740,7 +8791,7 @@
         <v>21</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="O44" s="23" t="s">
         <v>23</v>
@@ -8785,7 +8836,7 @@
         <v>21</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="O45" s="23" t="s">
         <v>23</v>
@@ -8800,12 +8851,12 @@
       <c r="P46" s="39"/>
     </row>
     <row r="47" spans="2:17">
-      <c r="B47" s="173" t="s">
+      <c r="B47" s="170" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="173"/>
-      <c r="D47" s="173"/>
-      <c r="E47" s="173"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="170"/>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
@@ -8819,58 +8870,58 @@
       <c r="P47" s="40"/>
     </row>
     <row r="48" spans="2:17" ht="16.95" customHeight="1">
-      <c r="B48" s="174" t="s">
+      <c r="B48" s="171" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="174" t="s">
+      <c r="C48" s="171" t="s">
         <v>188</v>
       </c>
-      <c r="D48" s="175" t="s">
+      <c r="D48" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="175"/>
-      <c r="F48" s="176" t="s">
+      <c r="E48" s="172"/>
+      <c r="F48" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="G48" s="176"/>
-      <c r="H48" s="176"/>
-      <c r="I48" s="176"/>
-      <c r="J48" s="177" t="s">
+      <c r="G48" s="173"/>
+      <c r="H48" s="173"/>
+      <c r="I48" s="173"/>
+      <c r="J48" s="174" t="s">
         <v>190</v>
       </c>
-      <c r="K48" s="177"/>
-      <c r="L48" s="177"/>
-      <c r="M48" s="177"/>
-      <c r="N48" s="177"/>
-      <c r="O48" s="177"/>
-      <c r="P48" s="177"/>
+      <c r="K48" s="174"/>
+      <c r="L48" s="174"/>
+      <c r="M48" s="174"/>
+      <c r="N48" s="174"/>
+      <c r="O48" s="174"/>
+      <c r="P48" s="174"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="178" t="s">
+      <c r="B49" s="171"/>
+      <c r="C49" s="171"/>
+      <c r="D49" s="175" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="178"/>
-      <c r="F49" s="179" t="s">
+      <c r="E49" s="175"/>
+      <c r="F49" s="176" t="s">
         <v>192</v>
       </c>
-      <c r="G49" s="179"/>
-      <c r="H49" s="179" t="s">
+      <c r="G49" s="176"/>
+      <c r="H49" s="176" t="s">
         <v>193</v>
       </c>
-      <c r="I49" s="179"/>
-      <c r="J49" s="179" t="s">
+      <c r="I49" s="176"/>
+      <c r="J49" s="176" t="s">
         <v>188</v>
       </c>
-      <c r="K49" s="179"/>
-      <c r="L49" s="179" t="s">
+      <c r="K49" s="176"/>
+      <c r="L49" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="M49" s="179"/>
-      <c r="N49" s="179"/>
-      <c r="O49" s="179"/>
-      <c r="P49" s="179"/>
+      <c r="M49" s="176"/>
+      <c r="N49" s="176"/>
+      <c r="O49" s="176"/>
+      <c r="P49" s="176"/>
     </row>
     <row r="50" spans="2:17">
       <c r="B50" s="41" t="s">
@@ -8879,31 +8930,31 @@
       <c r="C50" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="170" t="s">
+      <c r="D50" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="E50" s="170"/>
+      <c r="E50" s="167"/>
       <c r="F50" s="43" t="s">
         <v>197</v>
       </c>
       <c r="G50" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="H50" s="171" t="s">
+      <c r="H50" s="168" t="s">
         <v>199</v>
       </c>
-      <c r="I50" s="171"/>
-      <c r="J50" s="171" t="s">
+      <c r="I50" s="168"/>
+      <c r="J50" s="168" t="s">
         <v>200</v>
       </c>
-      <c r="K50" s="171"/>
-      <c r="L50" s="170" t="s">
+      <c r="K50" s="168"/>
+      <c r="L50" s="167" t="s">
         <v>201</v>
       </c>
-      <c r="M50" s="170"/>
-      <c r="N50" s="170"/>
-      <c r="O50" s="170"/>
-      <c r="P50" s="170"/>
+      <c r="M50" s="167"/>
+      <c r="N50" s="167"/>
+      <c r="O50" s="167"/>
+      <c r="P50" s="167"/>
     </row>
     <row r="51" spans="2:17">
       <c r="B51" s="45" t="s">
@@ -8912,31 +8963,31 @@
       <c r="C51" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="166" t="s">
+      <c r="D51" s="163" t="s">
         <v>203</v>
       </c>
-      <c r="E51" s="166"/>
+      <c r="E51" s="163"/>
       <c r="F51" s="47" t="s">
         <v>204</v>
       </c>
       <c r="G51" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="H51" s="167" t="s">
+      <c r="H51" s="164" t="s">
         <v>199</v>
       </c>
-      <c r="I51" s="167"/>
-      <c r="J51" s="167" t="s">
+      <c r="I51" s="164"/>
+      <c r="J51" s="164" t="s">
         <v>206</v>
       </c>
-      <c r="K51" s="167"/>
-      <c r="L51" s="161" t="s">
+      <c r="K51" s="164"/>
+      <c r="L51" s="158" t="s">
         <v>207</v>
       </c>
-      <c r="M51" s="161"/>
-      <c r="N51" s="161"/>
-      <c r="O51" s="161"/>
-      <c r="P51" s="161"/>
+      <c r="M51" s="158"/>
+      <c r="N51" s="158"/>
+      <c r="O51" s="158"/>
+      <c r="P51" s="158"/>
     </row>
     <row r="52" spans="2:17">
       <c r="B52" s="45" t="s">
@@ -8945,31 +8996,31 @@
       <c r="C52" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="166" t="s">
+      <c r="D52" s="163" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="166"/>
+      <c r="E52" s="163"/>
       <c r="F52" s="47" t="s">
         <v>210</v>
       </c>
       <c r="G52" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="H52" s="167" t="s">
+      <c r="H52" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="167"/>
-      <c r="J52" s="167" t="s">
+      <c r="I52" s="164"/>
+      <c r="J52" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="167"/>
-      <c r="L52" s="168" t="s">
+      <c r="K52" s="164"/>
+      <c r="L52" s="165" t="s">
         <v>211</v>
       </c>
-      <c r="M52" s="168"/>
-      <c r="N52" s="168"/>
-      <c r="O52" s="168"/>
-      <c r="P52" s="168"/>
+      <c r="M52" s="165"/>
+      <c r="N52" s="165"/>
+      <c r="O52" s="165"/>
+      <c r="P52" s="165"/>
     </row>
     <row r="53" spans="2:17">
       <c r="B53" s="45" t="s">
@@ -8978,31 +9029,31 @@
       <c r="C53" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="166" t="s">
+      <c r="D53" s="163" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="166"/>
+      <c r="E53" s="163"/>
       <c r="F53" s="47" t="s">
         <v>214</v>
       </c>
       <c r="G53" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="H53" s="167" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="167"/>
-      <c r="J53" s="167" t="s">
+      <c r="H53" s="164" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="164"/>
+      <c r="J53" s="164" t="s">
         <v>216</v>
       </c>
-      <c r="K53" s="167"/>
-      <c r="L53" s="169" t="s">
+      <c r="K53" s="164"/>
+      <c r="L53" s="166" t="s">
         <v>217</v>
       </c>
-      <c r="M53" s="169"/>
-      <c r="N53" s="169"/>
-      <c r="O53" s="169"/>
-      <c r="P53" s="169"/>
+      <c r="M53" s="166"/>
+      <c r="N53" s="166"/>
+      <c r="O53" s="166"/>
+      <c r="P53" s="166"/>
       <c r="Q53" s="4" t="s">
         <v>218</v>
       </c>
@@ -9014,31 +9065,31 @@
       <c r="C54" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="166" t="s">
+      <c r="D54" s="163" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="166"/>
+      <c r="E54" s="163"/>
       <c r="F54" s="47" t="s">
         <v>221</v>
       </c>
       <c r="G54" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="H54" s="167" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="167"/>
-      <c r="J54" s="167" t="s">
+      <c r="H54" s="164" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="164"/>
+      <c r="J54" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="K54" s="167"/>
-      <c r="L54" s="168" t="s">
+      <c r="K54" s="164"/>
+      <c r="L54" s="165" t="s">
         <v>224</v>
       </c>
-      <c r="M54" s="168"/>
-      <c r="N54" s="168"/>
-      <c r="O54" s="168"/>
-      <c r="P54" s="168"/>
+      <c r="M54" s="165"/>
+      <c r="N54" s="165"/>
+      <c r="O54" s="165"/>
+      <c r="P54" s="165"/>
     </row>
     <row r="55" spans="2:17">
       <c r="B55" s="45" t="s">
@@ -9047,31 +9098,31 @@
       <c r="C55" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="166" t="s">
+      <c r="D55" s="163" t="s">
         <v>226</v>
       </c>
-      <c r="E55" s="166"/>
+      <c r="E55" s="163"/>
       <c r="F55" s="47" t="s">
         <v>227</v>
       </c>
       <c r="G55" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="H55" s="167" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="167"/>
-      <c r="J55" s="167" t="s">
+      <c r="H55" s="164" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="164"/>
+      <c r="J55" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="K55" s="167"/>
-      <c r="L55" s="168" t="s">
+      <c r="K55" s="164"/>
+      <c r="L55" s="165" t="s">
         <v>229</v>
       </c>
-      <c r="M55" s="168"/>
-      <c r="N55" s="168"/>
-      <c r="O55" s="168"/>
-      <c r="P55" s="168"/>
+      <c r="M55" s="165"/>
+      <c r="N55" s="165"/>
+      <c r="O55" s="165"/>
+      <c r="P55" s="165"/>
       <c r="Q55" s="4" t="s">
         <v>230</v>
       </c>
@@ -9083,31 +9134,31 @@
       <c r="C56" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="166" t="s">
+      <c r="D56" s="163" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="166"/>
+      <c r="E56" s="163"/>
       <c r="F56" s="47" t="s">
         <v>233</v>
       </c>
       <c r="G56" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="H56" s="167" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="167"/>
-      <c r="J56" s="167" t="s">
+      <c r="H56" s="164" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="164"/>
+      <c r="J56" s="164" t="s">
         <v>234</v>
       </c>
-      <c r="K56" s="167"/>
-      <c r="L56" s="168" t="s">
+      <c r="K56" s="164"/>
+      <c r="L56" s="165" t="s">
         <v>235</v>
       </c>
-      <c r="M56" s="168"/>
-      <c r="N56" s="168"/>
-      <c r="O56" s="168"/>
-      <c r="P56" s="168"/>
+      <c r="M56" s="165"/>
+      <c r="N56" s="165"/>
+      <c r="O56" s="165"/>
+      <c r="P56" s="165"/>
     </row>
     <row r="57" spans="2:17">
       <c r="B57" s="45" t="s">
@@ -9126,84 +9177,84 @@
       <c r="G57" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="H57" s="167" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="167"/>
-      <c r="J57" s="167" t="s">
+      <c r="H57" s="164" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="164"/>
+      <c r="J57" s="164" t="s">
         <v>234</v>
       </c>
-      <c r="K57" s="167"/>
-      <c r="L57" s="168" t="s">
+      <c r="K57" s="164"/>
+      <c r="L57" s="165" t="s">
         <v>239</v>
       </c>
-      <c r="M57" s="168"/>
-      <c r="N57" s="168"/>
-      <c r="O57" s="168"/>
-      <c r="P57" s="168"/>
+      <c r="M57" s="165"/>
+      <c r="N57" s="165"/>
+      <c r="O57" s="165"/>
+      <c r="P57" s="165"/>
     </row>
     <row r="58" spans="2:17">
-      <c r="B58" s="162" t="s">
+      <c r="B58" s="159" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="165" t="s">
+      <c r="C58" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="166" t="s">
+      <c r="D58" s="163" t="s">
         <v>241</v>
       </c>
-      <c r="E58" s="166"/>
+      <c r="E58" s="163"/>
       <c r="F58" s="47" t="s">
         <v>242</v>
       </c>
       <c r="G58" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="H58" s="167" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="167"/>
-      <c r="J58" s="167"/>
-      <c r="K58" s="167"/>
-      <c r="L58" s="161" t="s">
+      <c r="H58" s="164" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="164"/>
+      <c r="J58" s="164"/>
+      <c r="K58" s="164"/>
+      <c r="L58" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="M58" s="161"/>
-      <c r="N58" s="161"/>
-      <c r="O58" s="161"/>
-      <c r="P58" s="161"/>
+      <c r="M58" s="158"/>
+      <c r="N58" s="158"/>
+      <c r="O58" s="158"/>
+      <c r="P58" s="158"/>
     </row>
     <row r="59" spans="2:17">
-      <c r="B59" s="162"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="162" t="s">
+      <c r="B59" s="159"/>
+      <c r="C59" s="162"/>
+      <c r="D59" s="159" t="s">
         <v>242</v>
       </c>
-      <c r="E59" s="162"/>
+      <c r="E59" s="159"/>
       <c r="F59" s="50" t="s">
         <v>242</v>
       </c>
       <c r="G59" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="H59" s="163" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="163"/>
-      <c r="J59" s="163"/>
-      <c r="K59" s="163"/>
-      <c r="L59" s="164" t="s">
+      <c r="H59" s="160" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="160"/>
+      <c r="J59" s="160"/>
+      <c r="K59" s="160"/>
+      <c r="L59" s="161" t="s">
         <v>243</v>
       </c>
-      <c r="M59" s="164"/>
-      <c r="N59" s="164"/>
-      <c r="O59" s="164"/>
-      <c r="P59" s="164"/>
+      <c r="M59" s="161"/>
+      <c r="N59" s="161"/>
+      <c r="O59" s="161"/>
+      <c r="P59" s="161"/>
     </row>
     <row r="60" spans="2:17">
       <c r="C60"/>
       <c r="F60" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -9219,8 +9270,8 @@
       <c r="Q60"/>
     </row>
     <row r="61" spans="2:17">
-      <c r="B61" s="146" t="s">
-        <v>795</v>
+      <c r="B61" s="145" t="s">
+        <v>792</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
@@ -9257,8 +9308,8 @@
       <c r="B63" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="147" t="s">
-        <v>794</v>
+      <c r="C63" s="146" t="s">
+        <v>791</v>
       </c>
       <c r="F63"/>
       <c r="G63"/>
@@ -9331,8 +9382,8 @@
       <c r="Q67"/>
     </row>
     <row r="68" spans="2:17">
-      <c r="B68" s="145"/>
-      <c r="C68" s="147"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="146"/>
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
@@ -9574,11 +9625,11 @@
       <c r="Q80"/>
     </row>
     <row r="81" spans="2:17">
-      <c r="B81" s="145">
+      <c r="B81" s="144">
         <v>44492</v>
       </c>
       <c r="C81" s="55" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F81"/>
       <c r="G81"/>
@@ -9593,11 +9644,11 @@
       <c r="Q81"/>
     </row>
     <row r="82" spans="2:17">
-      <c r="B82" s="145">
+      <c r="B82" s="144">
         <v>44625</v>
       </c>
       <c r="C82" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F82"/>
       <c r="G82"/>
@@ -9935,11 +9986,11 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="M2" s="197">
+      <c r="M2" s="194">
         <f>命令表!P2</f>
-        <v>45156</v>
-      </c>
-      <c r="N2" s="197"/>
+        <v>45222</v>
+      </c>
+      <c r="N2" s="194"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
@@ -9962,35 +10013,35 @@
       <c r="B4" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="177" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
       <c r="I4" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
     </row>
     <row r="5" spans="1:14" ht="13.2">
       <c r="B5" s="61"/>
       <c r="C5" s="4"/>
-      <c r="J5" s="147" t="s">
-        <v>807</v>
+      <c r="J5" s="146" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="13.2">
       <c r="B6" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="177" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
     </row>
     <row r="7" spans="1:14" ht="13.2">
       <c r="B7" s="61"/>
@@ -10003,148 +10054,148 @@
         <v>271</v>
       </c>
       <c r="B9" s="61"/>
-      <c r="C9" s="198" t="s">
+      <c r="C9" s="195" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="198"/>
-      <c r="E9" s="198" t="s">
+      <c r="D9" s="195"/>
+      <c r="E9" s="195" t="s">
         <v>273</v>
       </c>
-      <c r="F9" s="198"/>
+      <c r="F9" s="195"/>
       <c r="H9" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="J9" s="198" t="s">
+      <c r="J9" s="195" t="s">
         <v>272</v>
       </c>
-      <c r="K9" s="198"/>
-      <c r="L9" s="198" t="s">
+      <c r="K9" s="195"/>
+      <c r="L9" s="195" t="s">
         <v>273</v>
       </c>
-      <c r="M9" s="198"/>
+      <c r="M9" s="195"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
       <c r="I10" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="199"/>
-      <c r="M10" s="199"/>
+      <c r="J10" s="199"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="196"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="199"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
       <c r="I11" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="199"/>
-      <c r="M11" s="199"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="196"/>
+      <c r="M11" s="196"/>
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="199"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
       <c r="I12" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="199"/>
-      <c r="M12" s="199"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="196"/>
+      <c r="M12" s="196"/>
     </row>
     <row r="13" spans="1:14" ht="16.95" customHeight="1">
       <c r="B13" s="61"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
       <c r="I13" s="61"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="209"/>
-      <c r="M13" s="209"/>
+      <c r="J13" s="205"/>
+      <c r="K13" s="205"/>
+      <c r="L13" s="206"/>
+      <c r="M13" s="206"/>
     </row>
     <row r="14" spans="1:14" ht="16.95" customHeight="1">
       <c r="B14" s="61"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="198"/>
       <c r="I14" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="J14" s="200"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="201"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="198"/>
     </row>
     <row r="15" spans="1:14" ht="16.95" customHeight="1">
       <c r="B15" s="61"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
       <c r="I15" s="61"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="201"/>
-      <c r="M15" s="201"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
     </row>
     <row r="16" spans="1:14" ht="16.95" customHeight="1">
       <c r="B16" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="198"/>
       <c r="I16" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="J16" s="202"/>
-      <c r="K16" s="202"/>
-      <c r="L16" s="199"/>
-      <c r="M16" s="199"/>
+      <c r="J16" s="199"/>
+      <c r="K16" s="199"/>
+      <c r="L16" s="196"/>
+      <c r="M16" s="196"/>
     </row>
     <row r="17" spans="1:13" ht="16.95" customHeight="1">
       <c r="B17" s="61"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
       <c r="I17" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="J17" s="202"/>
-      <c r="K17" s="202"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="199"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="199"/>
+      <c r="L17" s="196"/>
+      <c r="M17" s="196"/>
     </row>
     <row r="18" spans="1:13" ht="16.95" customHeight="1">
       <c r="B18" s="61"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="207"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="204"/>
       <c r="I18" s="61"/>
       <c r="J18" s="62"/>
       <c r="K18" s="62"/>
@@ -10155,19 +10206,19 @@
       <c r="B19" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="199"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
     </row>
     <row r="20" spans="1:13">
       <c r="B20" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="196"/>
     </row>
     <row r="21" spans="1:13" ht="13.2">
       <c r="B21" s="61"/>
@@ -10180,13 +10231,13 @@
         <v>286</v>
       </c>
       <c r="B23" s="61"/>
-      <c r="I23" s="180" t="s">
+      <c r="I23" s="177" t="s">
         <v>287</v>
       </c>
-      <c r="J23" s="180"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
     </row>
     <row r="24" spans="1:13" ht="16.95" customHeight="1">
       <c r="B24" s="61"/>
@@ -10197,17 +10248,17 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="I24" s="188" t="s">
+      <c r="I24" s="185" t="s">
         <v>288</v>
       </c>
       <c r="J24" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="K24" s="189" t="s">
+      <c r="K24" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="L24" s="189"/>
-      <c r="M24" s="189"/>
+      <c r="L24" s="186"/>
+      <c r="M24" s="186"/>
     </row>
     <row r="25" spans="1:13" ht="16.95" customHeight="1">
       <c r="B25" s="6" t="s">
@@ -10217,15 +10268,15 @@
       <c r="D25" s="65"/>
       <c r="E25" s="65"/>
       <c r="F25" s="21"/>
-      <c r="I25" s="188"/>
+      <c r="I25" s="185"/>
       <c r="J25" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="K25" s="189" t="s">
+      <c r="K25" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="L25" s="189"/>
-      <c r="M25" s="189"/>
+      <c r="L25" s="186"/>
+      <c r="M25" s="186"/>
     </row>
     <row r="26" spans="1:13">
       <c r="B26" s="6" t="s">
@@ -10235,15 +10286,15 @@
       <c r="D26" s="65"/>
       <c r="E26" s="65"/>
       <c r="F26" s="21"/>
-      <c r="I26" s="188"/>
+      <c r="I26" s="185"/>
       <c r="J26" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="K26" s="190" t="s">
+      <c r="K26" s="187" t="s">
         <v>296</v>
       </c>
-      <c r="L26" s="190"/>
-      <c r="M26" s="190"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
     </row>
     <row r="27" spans="1:13">
       <c r="B27" s="6" t="s">
@@ -10253,15 +10304,15 @@
       <c r="D27" s="65"/>
       <c r="E27" s="65"/>
       <c r="F27" s="21"/>
-      <c r="I27" s="188"/>
+      <c r="I27" s="185"/>
       <c r="J27" s="66" t="s">
         <v>298</v>
       </c>
-      <c r="K27" s="190" t="s">
+      <c r="K27" s="187" t="s">
         <v>299</v>
       </c>
-      <c r="L27" s="190"/>
-      <c r="M27" s="190"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
     </row>
     <row r="28" spans="1:13">
       <c r="B28" s="6" t="s">
@@ -10271,7 +10322,7 @@
       <c r="D28" s="65"/>
       <c r="E28" s="65"/>
       <c r="F28" s="21"/>
-      <c r="I28" s="192" t="s">
+      <c r="I28" s="189" t="s">
         <v>301</v>
       </c>
       <c r="J28" s="67" t="s">
@@ -10291,15 +10342,15 @@
       <c r="D29" s="65"/>
       <c r="E29" s="65"/>
       <c r="F29" s="21"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="192" t="s">
+      <c r="I29" s="190"/>
+      <c r="J29" s="189" t="s">
         <v>305</v>
       </c>
-      <c r="K29" s="196" t="s">
+      <c r="K29" s="193" t="s">
         <v>306</v>
       </c>
-      <c r="L29" s="196"/>
-      <c r="M29" s="196"/>
+      <c r="L29" s="193"/>
+      <c r="M29" s="193"/>
     </row>
     <row r="30" spans="1:13">
       <c r="B30" s="6" t="s">
@@ -10309,15 +10360,15 @@
       <c r="D30" s="65"/>
       <c r="E30" s="65"/>
       <c r="F30" s="21"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="193"/>
+      <c r="I30" s="190"/>
+      <c r="J30" s="190"/>
       <c r="K30" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="L30" s="191" t="s">
+      <c r="L30" s="188" t="s">
         <v>309</v>
       </c>
-      <c r="M30" s="191"/>
+      <c r="M30" s="188"/>
     </row>
     <row r="31" spans="1:13">
       <c r="B31" s="6" t="s">
@@ -10327,15 +10378,15 @@
       <c r="D31" s="65"/>
       <c r="E31" s="65"/>
       <c r="F31" s="21"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="190"/>
       <c r="K31" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="L31" s="191" t="s">
+      <c r="L31" s="188" t="s">
         <v>312</v>
       </c>
-      <c r="M31" s="191"/>
+      <c r="M31" s="188"/>
     </row>
     <row r="32" spans="1:13">
       <c r="B32" s="6" t="s">
@@ -10345,15 +10396,15 @@
       <c r="D32" s="65"/>
       <c r="E32" s="65"/>
       <c r="F32" s="21"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
+      <c r="I32" s="190"/>
+      <c r="J32" s="190"/>
       <c r="K32" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="L32" s="204" t="s">
+      <c r="L32" s="201" t="s">
         <v>315</v>
       </c>
-      <c r="M32" s="204"/>
+      <c r="M32" s="201"/>
     </row>
     <row r="33" spans="1:15">
       <c r="B33" s="6" t="s">
@@ -10363,15 +10414,15 @@
       <c r="D33" s="65"/>
       <c r="E33" s="65"/>
       <c r="F33" s="21"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="193"/>
+      <c r="I33" s="190"/>
+      <c r="J33" s="190"/>
       <c r="K33" s="22" t="s">
-        <v>788</v>
-      </c>
-      <c r="L33" s="205" t="s">
-        <v>779</v>
-      </c>
-      <c r="M33" s="191"/>
+        <v>785</v>
+      </c>
+      <c r="L33" s="202" t="s">
+        <v>776</v>
+      </c>
+      <c r="M33" s="188"/>
     </row>
     <row r="34" spans="1:15">
       <c r="B34" s="6" t="s">
@@ -10381,15 +10432,15 @@
       <c r="D34" s="65"/>
       <c r="E34" s="65"/>
       <c r="F34" s="21"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="193"/>
+      <c r="I34" s="190"/>
+      <c r="J34" s="190"/>
       <c r="K34" s="22" t="s">
-        <v>789</v>
-      </c>
-      <c r="L34" s="191" t="s">
+        <v>786</v>
+      </c>
+      <c r="L34" s="188" t="s">
         <v>317</v>
       </c>
-      <c r="M34" s="191"/>
+      <c r="M34" s="188"/>
       <c r="O34" s="60"/>
     </row>
     <row r="35" spans="1:15">
@@ -10400,10 +10451,10 @@
       <c r="D35" s="65"/>
       <c r="E35" s="65"/>
       <c r="F35" s="21"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="193"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="190"/>
       <c r="K35" s="22" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="L35" s="69" t="s">
         <v>319</v>
@@ -10418,39 +10469,39 @@
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="21"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
       <c r="K36" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="L36" s="195" t="s">
+      <c r="L36" s="192" t="s">
         <v>322</v>
       </c>
-      <c r="M36" s="196"/>
+      <c r="M36" s="193"/>
     </row>
     <row r="37" spans="1:15">
       <c r="B37" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C37" s="64"/>
       <c r="D37" s="65"/>
       <c r="E37" s="65"/>
       <c r="F37" s="21"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
+      <c r="I37" s="191"/>
+      <c r="J37" s="191"/>
       <c r="K37" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="L37" s="195" t="s">
+      <c r="L37" s="192" t="s">
         <v>325</v>
       </c>
-      <c r="M37" s="196"/>
+      <c r="M37" s="193"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="203" t="s">
-        <v>786</v>
-      </c>
-      <c r="B38" s="203"/>
+      <c r="A38" s="200" t="s">
+        <v>783</v>
+      </c>
+      <c r="B38" s="200"/>
       <c r="C38" s="64"/>
       <c r="D38" s="65"/>
       <c r="E38" s="65"/>
@@ -10464,7 +10515,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="B39" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C39" s="64"/>
       <c r="D39" s="65"/>
@@ -10473,20 +10524,20 @@
       <c r="I39" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="J39" s="180"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="177"/>
+      <c r="L39" s="177"/>
+      <c r="M39" s="177"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="184" t="s">
-        <v>787</v>
-      </c>
-      <c r="B40" s="185"/>
-      <c r="C40" s="132"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="134"/>
+      <c r="A40" s="181" t="s">
+        <v>784</v>
+      </c>
+      <c r="B40" s="182"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="133"/>
       <c r="I40" s="6" t="s">
         <v>305</v>
       </c>
@@ -10497,7 +10548,7 @@
         <v>327</v>
       </c>
       <c r="L40" s="71" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="M40" s="72" t="s">
         <v>328</v>
@@ -10505,18 +10556,18 @@
     </row>
     <row r="41" spans="1:15">
       <c r="B41" s="61"/>
-      <c r="C41" s="186" t="s">
+      <c r="C41" s="183" t="s">
         <v>288</v>
       </c>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="J41" s="187" t="s">
+      <c r="D41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="J41" s="184" t="s">
         <v>301</v>
       </c>
-      <c r="K41" s="187"/>
-      <c r="L41" s="187"/>
-      <c r="M41" s="187"/>
+      <c r="K41" s="184"/>
+      <c r="L41" s="184"/>
+      <c r="M41" s="184"/>
     </row>
     <row r="42" spans="1:15">
       <c r="B42" s="61"/>
@@ -10530,28 +10581,28 @@
       <c r="M42" s="73"/>
     </row>
     <row r="43" spans="1:15" ht="13.2">
-      <c r="B43" s="146" t="s">
+      <c r="B43" s="145" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="13.2">
+      <c r="B44" s="146" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="13.2">
+      <c r="B45" s="146" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="13.2">
+      <c r="B46" s="146" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="13.2">
+      <c r="B47" s="146" t="s">
         <v>781</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="13.2">
-      <c r="B44" s="147" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="13.2">
-      <c r="B45" s="147" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="13.2">
-      <c r="B46" s="147" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="13.2">
-      <c r="B47" s="147" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="13.2">
@@ -13642,7 +13693,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="22.2">
       <c r="A1" s="98" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="N1" s="99" t="str">
         <f>命令表!P1</f>
@@ -13652,18 +13703,18 @@
       <c r="R1" s="100"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="M2" s="217">
+      <c r="M2" s="214">
         <f>命令表!P2</f>
-        <v>45156</v>
-      </c>
-      <c r="N2" s="217"/>
+        <v>45222</v>
+      </c>
+      <c r="N2" s="214"/>
       <c r="O2" s="100"/>
       <c r="Q2" s="101"/>
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C3" s="77"/>
       <c r="E3" s="77"/>
@@ -13671,33 +13722,33 @@
       <c r="G3" s="77"/>
       <c r="H3" s="77"/>
       <c r="J3" s="79" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="K3" s="77"/>
       <c r="L3" s="77"/>
       <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="210" t="s">
+      <c r="A4" s="207" t="s">
         <v>329</v>
       </c>
-      <c r="B4" s="210"/>
+      <c r="B4" s="207"/>
       <c r="C4" s="78" t="s">
         <v>163</v>
       </c>
       <c r="D4" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="E4" s="210" t="s">
+      <c r="E4" s="207" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="J4" s="210" t="s">
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="J4" s="207" t="s">
         <v>329</v>
       </c>
-      <c r="K4" s="210"/>
+      <c r="K4" s="207"/>
       <c r="L4" s="78" t="s">
         <v>163</v>
       </c>
@@ -13712,36 +13763,36 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="74" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J6" s="79" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="K6" s="77"/>
       <c r="L6" s="77"/>
       <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="210" t="s">
+      <c r="A7" s="207" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="210"/>
+      <c r="B7" s="207"/>
       <c r="C7" s="78" t="s">
         <v>163</v>
       </c>
       <c r="D7" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="E7" s="210" t="s">
+      <c r="E7" s="207" t="s">
         <v>199</v>
       </c>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="J7" s="210" t="s">
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="J7" s="207" t="s">
         <v>329</v>
       </c>
-      <c r="K7" s="210"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="78" t="s">
         <v>163</v>
       </c>
@@ -13759,36 +13810,36 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="79" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J9" s="79" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K9" s="77"/>
       <c r="L9" s="77"/>
       <c r="M9" s="77"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="210" t="s">
+      <c r="A10" s="207" t="s">
         <v>329</v>
       </c>
-      <c r="B10" s="210"/>
+      <c r="B10" s="207"/>
       <c r="C10" s="78" t="s">
         <v>163</v>
       </c>
       <c r="D10" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="E10" s="210" t="s">
+      <c r="E10" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="J10" s="210" t="s">
+      <c r="F10" s="207"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="207"/>
+      <c r="J10" s="207" t="s">
         <v>329</v>
       </c>
-      <c r="K10" s="210"/>
+      <c r="K10" s="207"/>
       <c r="L10" s="78" t="s">
         <v>163</v>
       </c>
@@ -13806,7 +13857,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="79" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C12" s="77"/>
       <c r="E12" s="77"/>
@@ -13814,35 +13865,35 @@
       <c r="G12" s="77"/>
       <c r="H12" s="77"/>
       <c r="J12" s="74" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K12" s="77"/>
       <c r="L12" s="77"/>
       <c r="M12" s="77"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="210" t="s">
+      <c r="A13" s="207" t="s">
         <v>329</v>
       </c>
-      <c r="B13" s="210"/>
+      <c r="B13" s="207"/>
       <c r="C13" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="158" t="s">
-        <v>810</v>
+      <c r="D13" s="154" t="s">
+        <v>807</v>
       </c>
       <c r="E13" s="77"/>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
       <c r="H13" s="77"/>
-      <c r="J13" s="210" t="s">
+      <c r="J13" s="207" t="s">
         <v>329</v>
       </c>
-      <c r="K13" s="210"/>
+      <c r="K13" s="207"/>
       <c r="L13" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="M13" s="135" t="s">
+      <c r="M13" s="134" t="s">
         <v>330</v>
       </c>
     </row>
@@ -13860,7 +13911,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="79" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C15" s="77"/>
       <c r="E15" s="77"/>
@@ -13868,17 +13919,17 @@
       <c r="G15" s="77"/>
       <c r="H15" s="77"/>
       <c r="J15" s="74" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="K15" s="77"/>
       <c r="L15" s="77"/>
       <c r="M15" s="77"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="210" t="s">
+      <c r="A16" s="207" t="s">
         <v>329</v>
       </c>
-      <c r="B16" s="210"/>
+      <c r="B16" s="207"/>
       <c r="C16" s="78" t="s">
         <v>163</v>
       </c>
@@ -13889,14 +13940,14 @@
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
       <c r="H16" s="77"/>
-      <c r="J16" s="210" t="s">
+      <c r="J16" s="207" t="s">
         <v>329</v>
       </c>
-      <c r="K16" s="210"/>
-      <c r="L16" s="210" t="s">
+      <c r="K16" s="207"/>
+      <c r="L16" s="207" t="s">
         <v>276</v>
       </c>
-      <c r="M16" s="210"/>
+      <c r="M16" s="207"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="77"/>
@@ -13908,1055 +13959,1055 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="60" t="s">
+        <v>806</v>
+      </c>
+      <c r="C18" s="77"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="212"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="207" t="s">
+        <v>753</v>
+      </c>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="207"/>
+      <c r="L19" s="207" t="s">
+        <v>332</v>
+      </c>
+      <c r="M19" s="207"/>
+      <c r="N19" s="207"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="212"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="155" t="s">
+        <v>808</v>
+      </c>
+      <c r="D20" s="155" t="s">
         <v>809</v>
       </c>
-      <c r="C18" s="77"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="215"/>
-      <c r="B19" s="215"/>
-      <c r="C19" s="210" t="s">
-        <v>755</v>
-      </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="210"/>
-      <c r="L19" s="210" t="s">
-        <v>332</v>
-      </c>
-      <c r="M19" s="210"/>
-      <c r="N19" s="210"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="215"/>
-      <c r="B20" s="215"/>
-      <c r="C20" s="159" t="s">
+      <c r="E20" s="155" t="s">
+        <v>810</v>
+      </c>
+      <c r="F20" s="155" t="s">
         <v>811</v>
       </c>
-      <c r="D20" s="159" t="s">
+      <c r="G20" s="155" t="s">
         <v>812</v>
       </c>
-      <c r="E20" s="159" t="s">
+      <c r="H20" s="155" t="s">
         <v>813</v>
       </c>
-      <c r="F20" s="159" t="s">
+      <c r="I20" s="155" t="s">
         <v>814</v>
       </c>
-      <c r="G20" s="159" t="s">
+      <c r="J20" s="155" t="s">
         <v>815</v>
       </c>
-      <c r="H20" s="159" t="s">
-        <v>816</v>
-      </c>
-      <c r="I20" s="159" t="s">
-        <v>817</v>
-      </c>
-      <c r="J20" s="159" t="s">
-        <v>818</v>
-      </c>
-      <c r="K20" s="136"/>
+      <c r="K20" s="135"/>
       <c r="L20" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="M20" s="210" t="s">
+      <c r="M20" s="207" t="s">
         <v>334</v>
       </c>
-      <c r="N20" s="210"/>
+      <c r="N20" s="207"/>
       <c r="P20" s="76"/>
     </row>
     <row r="21" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A21" s="216" t="s">
-        <v>756</v>
-      </c>
-      <c r="B21" s="135" t="s">
+      <c r="A21" s="213" t="s">
+        <v>754</v>
+      </c>
+      <c r="B21" s="134" t="s">
         <v>335</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="136" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="138"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="137"/>
       <c r="L21" s="78">
         <v>0</v>
       </c>
-      <c r="M21" s="210" t="s">
+      <c r="M21" s="207" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="210"/>
-      <c r="P21" s="139"/>
+      <c r="N21" s="207"/>
+      <c r="P21" s="138"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="216"/>
-      <c r="B22" s="135" t="s">
+      <c r="A22" s="213"/>
+      <c r="B22" s="134" t="s">
         <v>337</v>
       </c>
-      <c r="C22" s="137" t="s">
+      <c r="C22" s="136" t="s">
         <v>338</v>
       </c>
-      <c r="D22" s="137" t="s">
+      <c r="D22" s="136" t="s">
         <v>339</v>
       </c>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="136" t="s">
         <v>340</v>
       </c>
-      <c r="F22" s="137" t="s">
+      <c r="F22" s="136" t="s">
         <v>341</v>
       </c>
-      <c r="G22" s="137" t="s">
+      <c r="G22" s="136" t="s">
         <v>342</v>
       </c>
-      <c r="H22" s="137" t="s">
+      <c r="H22" s="136" t="s">
         <v>343</v>
       </c>
-      <c r="I22" s="137" t="s">
+      <c r="I22" s="136" t="s">
         <v>344</v>
       </c>
-      <c r="J22" s="137" t="s">
+      <c r="J22" s="136" t="s">
         <v>345</v>
       </c>
-      <c r="K22" s="138"/>
+      <c r="K22" s="137"/>
       <c r="L22" s="78">
         <v>1</v>
       </c>
-      <c r="M22" s="210" t="s">
+      <c r="M22" s="207" t="s">
         <v>294</v>
       </c>
-      <c r="N22" s="210"/>
-      <c r="P22" s="139"/>
+      <c r="N22" s="207"/>
+      <c r="P22" s="138"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="216"/>
-      <c r="B23" s="135" t="s">
+      <c r="A23" s="213"/>
+      <c r="B23" s="134" t="s">
         <v>346</v>
       </c>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="136" t="s">
         <v>347</v>
       </c>
-      <c r="D23" s="137" t="s">
+      <c r="D23" s="136" t="s">
         <v>348</v>
       </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137" t="s">
+      <c r="E23" s="136"/>
+      <c r="F23" s="136" t="s">
         <v>349</v>
       </c>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137" t="s">
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136" t="s">
         <v>350</v>
       </c>
-      <c r="J23" s="137" t="s">
+      <c r="J23" s="136" t="s">
         <v>351</v>
       </c>
-      <c r="K23" s="138"/>
+      <c r="K23" s="137"/>
       <c r="L23" s="78">
         <v>2</v>
       </c>
-      <c r="M23" s="210" t="s">
+      <c r="M23" s="207" t="s">
         <v>297</v>
       </c>
-      <c r="N23" s="210"/>
-      <c r="P23" s="139"/>
+      <c r="N23" s="207"/>
+      <c r="P23" s="138"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="216"/>
-      <c r="B24" s="135" t="s">
+      <c r="A24" s="213"/>
+      <c r="B24" s="134" t="s">
         <v>352</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="136" t="s">
         <v>353</v>
       </c>
-      <c r="D24" s="137" t="s">
+      <c r="D24" s="136" t="s">
         <v>354</v>
       </c>
-      <c r="E24" s="137" t="s">
+      <c r="E24" s="136" t="s">
         <v>355</v>
       </c>
-      <c r="F24" s="137" t="s">
+      <c r="F24" s="136" t="s">
         <v>356</v>
       </c>
-      <c r="G24" s="137" t="s">
+      <c r="G24" s="136" t="s">
         <v>357</v>
       </c>
-      <c r="H24" s="137" t="s">
+      <c r="H24" s="136" t="s">
         <v>358</v>
       </c>
-      <c r="I24" s="137" t="s">
+      <c r="I24" s="136" t="s">
         <v>359</v>
       </c>
-      <c r="J24" s="137" t="s">
+      <c r="J24" s="136" t="s">
         <v>360</v>
       </c>
-      <c r="K24" s="138"/>
+      <c r="K24" s="137"/>
       <c r="L24" s="78">
         <v>3</v>
       </c>
-      <c r="M24" s="210" t="s">
+      <c r="M24" s="207" t="s">
         <v>300</v>
       </c>
-      <c r="N24" s="210"/>
-      <c r="P24" s="139"/>
+      <c r="N24" s="207"/>
+      <c r="P24" s="138"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="216"/>
-      <c r="B25" s="135" t="s">
+      <c r="A25" s="213"/>
+      <c r="B25" s="134" t="s">
         <v>361</v>
       </c>
-      <c r="C25" s="137" t="s">
+      <c r="C25" s="136" t="s">
         <v>362</v>
       </c>
-      <c r="D25" s="137" t="s">
+      <c r="D25" s="136" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="137" t="s">
+      <c r="E25" s="136" t="s">
         <v>364</v>
       </c>
-      <c r="F25" s="137" t="s">
+      <c r="F25" s="136" t="s">
         <v>365</v>
       </c>
-      <c r="G25" s="137" t="s">
+      <c r="G25" s="136" t="s">
         <v>366</v>
       </c>
-      <c r="H25" s="137" t="s">
+      <c r="H25" s="136" t="s">
         <v>367</v>
       </c>
-      <c r="I25" s="137" t="s">
+      <c r="I25" s="136" t="s">
         <v>368</v>
       </c>
-      <c r="J25" s="137" t="s">
+      <c r="J25" s="136" t="s">
         <v>369</v>
       </c>
-      <c r="K25" s="138"/>
+      <c r="K25" s="137"/>
       <c r="L25" s="78">
         <v>4</v>
       </c>
-      <c r="M25" s="210" t="s">
+      <c r="M25" s="207" t="s">
         <v>304</v>
       </c>
-      <c r="N25" s="210"/>
-      <c r="P25" s="139"/>
+      <c r="N25" s="207"/>
+      <c r="P25" s="138"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="216"/>
-      <c r="B26" s="135" t="s">
+      <c r="A26" s="213"/>
+      <c r="B26" s="134" t="s">
         <v>370</v>
       </c>
-      <c r="C26" s="137" t="s">
+      <c r="C26" s="136" t="s">
         <v>371</v>
       </c>
-      <c r="D26" s="137" t="s">
+      <c r="D26" s="136" t="s">
         <v>372</v>
       </c>
-      <c r="E26" s="137" t="s">
+      <c r="E26" s="136" t="s">
         <v>373</v>
       </c>
-      <c r="F26" s="137" t="s">
+      <c r="F26" s="136" t="s">
         <v>374</v>
       </c>
-      <c r="G26" s="137" t="s">
+      <c r="G26" s="136" t="s">
         <v>375</v>
       </c>
-      <c r="H26" s="137" t="s">
+      <c r="H26" s="136" t="s">
         <v>376</v>
       </c>
-      <c r="I26" s="137" t="s">
+      <c r="I26" s="136" t="s">
         <v>377</v>
       </c>
-      <c r="J26" s="137" t="s">
+      <c r="J26" s="136" t="s">
         <v>378</v>
       </c>
-      <c r="K26" s="138"/>
+      <c r="K26" s="137"/>
       <c r="L26" s="78">
         <v>5</v>
       </c>
-      <c r="M26" s="210" t="s">
+      <c r="M26" s="207" t="s">
         <v>307</v>
       </c>
-      <c r="N26" s="210"/>
-      <c r="P26" s="139"/>
+      <c r="N26" s="207"/>
+      <c r="P26" s="138"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="216"/>
-      <c r="B27" s="135" t="s">
+      <c r="A27" s="213"/>
+      <c r="B27" s="134" t="s">
         <v>379</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="C27" s="136" t="s">
         <v>380</v>
       </c>
-      <c r="D27" s="137" t="s">
+      <c r="D27" s="136" t="s">
         <v>381</v>
       </c>
-      <c r="E27" s="137" t="s">
+      <c r="E27" s="136" t="s">
         <v>382</v>
       </c>
-      <c r="F27" s="137" t="s">
+      <c r="F27" s="136" t="s">
         <v>383</v>
       </c>
-      <c r="G27" s="137" t="s">
+      <c r="G27" s="136" t="s">
         <v>384</v>
       </c>
-      <c r="H27" s="137" t="s">
+      <c r="H27" s="136" t="s">
         <v>385</v>
       </c>
-      <c r="I27" s="137" t="s">
+      <c r="I27" s="136" t="s">
         <v>386</v>
       </c>
-      <c r="J27" s="137" t="s">
+      <c r="J27" s="136" t="s">
         <v>387</v>
       </c>
-      <c r="K27" s="138"/>
+      <c r="K27" s="137"/>
       <c r="L27" s="78">
         <v>6</v>
       </c>
-      <c r="M27" s="210" t="s">
+      <c r="M27" s="207" t="s">
         <v>310</v>
       </c>
-      <c r="N27" s="210"/>
-      <c r="P27" s="139"/>
+      <c r="N27" s="207"/>
+      <c r="P27" s="138"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="216"/>
-      <c r="B28" s="135" t="s">
+      <c r="A28" s="213"/>
+      <c r="B28" s="134" t="s">
         <v>388</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="136" t="s">
         <v>389</v>
       </c>
-      <c r="D28" s="137" t="s">
+      <c r="D28" s="136" t="s">
         <v>390</v>
       </c>
-      <c r="E28" s="137" t="s">
+      <c r="E28" s="136" t="s">
         <v>391</v>
       </c>
-      <c r="F28" s="137" t="s">
+      <c r="F28" s="136" t="s">
         <v>392</v>
       </c>
-      <c r="G28" s="137" t="s">
+      <c r="G28" s="136" t="s">
         <v>393</v>
       </c>
-      <c r="H28" s="137" t="s">
+      <c r="H28" s="136" t="s">
         <v>394</v>
       </c>
-      <c r="I28" s="137" t="s">
+      <c r="I28" s="136" t="s">
         <v>395</v>
       </c>
-      <c r="J28" s="137" t="s">
+      <c r="J28" s="136" t="s">
         <v>396</v>
       </c>
-      <c r="K28" s="138"/>
+      <c r="K28" s="137"/>
       <c r="L28" s="78">
         <v>7</v>
       </c>
-      <c r="M28" s="210" t="s">
+      <c r="M28" s="207" t="s">
         <v>313</v>
       </c>
-      <c r="N28" s="210"/>
-      <c r="P28" s="139"/>
+      <c r="N28" s="207"/>
+      <c r="P28" s="138"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="216"/>
-      <c r="B29" s="135" t="s">
+      <c r="A29" s="213"/>
+      <c r="B29" s="134" t="s">
         <v>397</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="D29" s="137" t="s">
+      <c r="D29" s="136" t="s">
         <v>399</v>
       </c>
-      <c r="E29" s="137" t="s">
+      <c r="E29" s="136" t="s">
         <v>400</v>
       </c>
-      <c r="F29" s="137" t="s">
+      <c r="F29" s="136" t="s">
         <v>401</v>
       </c>
-      <c r="G29" s="137" t="s">
+      <c r="G29" s="136" t="s">
         <v>402</v>
       </c>
-      <c r="H29" s="137" t="s">
+      <c r="H29" s="136" t="s">
         <v>403</v>
       </c>
-      <c r="I29" s="137" t="s">
+      <c r="I29" s="136" t="s">
         <v>404</v>
       </c>
-      <c r="J29" s="137" t="s">
+      <c r="J29" s="136" t="s">
         <v>405</v>
       </c>
-      <c r="K29" s="138"/>
+      <c r="K29" s="137"/>
       <c r="L29" s="78">
         <v>8</v>
       </c>
-      <c r="M29" s="210" t="s">
+      <c r="M29" s="207" t="s">
         <v>316</v>
       </c>
-      <c r="N29" s="210"/>
-      <c r="P29" s="139"/>
+      <c r="N29" s="207"/>
+      <c r="P29" s="138"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="216"/>
-      <c r="B30" s="135" t="s">
+      <c r="A30" s="213"/>
+      <c r="B30" s="134" t="s">
         <v>406</v>
       </c>
-      <c r="C30" s="137" t="s">
+      <c r="C30" s="136" t="s">
         <v>407</v>
       </c>
-      <c r="D30" s="137" t="s">
+      <c r="D30" s="136" t="s">
         <v>408</v>
       </c>
-      <c r="E30" s="137" t="s">
+      <c r="E30" s="136" t="s">
         <v>409</v>
       </c>
-      <c r="F30" s="137" t="s">
+      <c r="F30" s="136" t="s">
         <v>410</v>
       </c>
-      <c r="G30" s="137" t="s">
+      <c r="G30" s="136" t="s">
         <v>411</v>
       </c>
-      <c r="H30" s="137" t="s">
+      <c r="H30" s="136" t="s">
         <v>412</v>
       </c>
-      <c r="I30" s="137" t="s">
+      <c r="I30" s="136" t="s">
         <v>413</v>
       </c>
-      <c r="J30" s="137" t="s">
+      <c r="J30" s="136" t="s">
         <v>414</v>
       </c>
-      <c r="K30" s="138"/>
+      <c r="K30" s="137"/>
       <c r="L30" s="78">
         <v>9</v>
       </c>
-      <c r="M30" s="210" t="s">
+      <c r="M30" s="207" t="s">
         <v>318</v>
       </c>
-      <c r="N30" s="210"/>
-      <c r="P30" s="140"/>
+      <c r="N30" s="207"/>
+      <c r="P30" s="139"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="216"/>
-      <c r="B31" s="135" t="s">
+      <c r="A31" s="213"/>
+      <c r="B31" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="C31" s="137" t="s">
+      <c r="C31" s="136" t="s">
         <v>416</v>
       </c>
-      <c r="D31" s="137" t="s">
+      <c r="D31" s="136" t="s">
         <v>417</v>
       </c>
-      <c r="E31" s="137" t="s">
+      <c r="E31" s="136" t="s">
         <v>418</v>
       </c>
-      <c r="F31" s="137" t="s">
+      <c r="F31" s="136" t="s">
         <v>419</v>
       </c>
-      <c r="G31" s="137" t="s">
+      <c r="G31" s="136" t="s">
         <v>420</v>
       </c>
-      <c r="H31" s="137" t="s">
+      <c r="H31" s="136" t="s">
         <v>421</v>
       </c>
-      <c r="I31" s="137" t="s">
+      <c r="I31" s="136" t="s">
         <v>422</v>
       </c>
-      <c r="J31" s="137" t="s">
+      <c r="J31" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="K31" s="138"/>
+      <c r="K31" s="137"/>
       <c r="L31" s="78" t="s">
         <v>424</v>
       </c>
-      <c r="M31" s="210" t="s">
+      <c r="M31" s="207" t="s">
         <v>320</v>
       </c>
-      <c r="N31" s="210"/>
-      <c r="P31" s="140"/>
+      <c r="N31" s="207"/>
+      <c r="P31" s="139"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="216"/>
-      <c r="B32" s="135" t="s">
+      <c r="A32" s="213"/>
+      <c r="B32" s="134" t="s">
         <v>425</v>
       </c>
-      <c r="C32" s="137" t="s">
+      <c r="C32" s="136" t="s">
         <v>426</v>
       </c>
-      <c r="D32" s="137" t="s">
+      <c r="D32" s="136" t="s">
         <v>427</v>
       </c>
-      <c r="E32" s="137" t="s">
+      <c r="E32" s="136" t="s">
         <v>428</v>
       </c>
-      <c r="F32" s="137" t="s">
+      <c r="F32" s="136" t="s">
         <v>429</v>
       </c>
-      <c r="G32" s="137" t="s">
+      <c r="G32" s="136" t="s">
         <v>430</v>
       </c>
-      <c r="H32" s="137" t="s">
+      <c r="H32" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="I32" s="137" t="s">
+      <c r="I32" s="136" t="s">
         <v>432</v>
       </c>
-      <c r="J32" s="137" t="s">
+      <c r="J32" s="136" t="s">
         <v>433</v>
       </c>
-      <c r="K32" s="138"/>
+      <c r="K32" s="137"/>
       <c r="L32" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="M32" s="210" t="s">
+      <c r="M32" s="207" t="s">
         <v>323</v>
       </c>
-      <c r="N32" s="210"/>
-      <c r="P32" s="139"/>
+      <c r="N32" s="207"/>
+      <c r="P32" s="138"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="216"/>
-      <c r="B33" s="135" t="s">
+      <c r="A33" s="213"/>
+      <c r="B33" s="134" t="s">
         <v>435</v>
       </c>
-      <c r="C33" s="137" t="s">
+      <c r="C33" s="136" t="s">
         <v>436</v>
       </c>
-      <c r="D33" s="137" t="s">
+      <c r="D33" s="136" t="s">
         <v>437</v>
       </c>
-      <c r="E33" s="137" t="s">
+      <c r="E33" s="136" t="s">
         <v>438</v>
       </c>
-      <c r="F33" s="137" t="s">
+      <c r="F33" s="136" t="s">
         <v>439</v>
       </c>
-      <c r="G33" s="137" t="s">
+      <c r="G33" s="136" t="s">
         <v>440</v>
       </c>
-      <c r="H33" s="137" t="s">
+      <c r="H33" s="136" t="s">
         <v>441</v>
       </c>
-      <c r="I33" s="137" t="s">
+      <c r="I33" s="136" t="s">
         <v>442</v>
       </c>
-      <c r="J33" s="137" t="s">
+      <c r="J33" s="136" t="s">
         <v>443</v>
       </c>
-      <c r="K33" s="138"/>
+      <c r="K33" s="137"/>
       <c r="L33" s="78" t="s">
         <v>444</v>
       </c>
-      <c r="M33" s="210" t="s">
+      <c r="M33" s="207" t="s">
         <v>445</v>
       </c>
-      <c r="N33" s="210"/>
-      <c r="P33" s="139"/>
+      <c r="N33" s="207"/>
+      <c r="P33" s="138"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="216"/>
-      <c r="B34" s="135" t="s">
+      <c r="A34" s="213"/>
+      <c r="B34" s="134" t="s">
         <v>446</v>
       </c>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="138"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="137"/>
       <c r="L34" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="M34" s="210" t="s">
+      <c r="M34" s="207" t="s">
         <v>326</v>
       </c>
-      <c r="N34" s="210"/>
-      <c r="P34" s="140"/>
+      <c r="N34" s="207"/>
+      <c r="P34" s="139"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="216"/>
-      <c r="B35" s="135" t="s">
+      <c r="A35" s="213"/>
+      <c r="B35" s="134" t="s">
         <v>448</v>
       </c>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="138"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="137"/>
       <c r="L35" s="78" t="s">
         <v>449</v>
       </c>
-      <c r="M35" s="210" t="s">
+      <c r="M35" s="207" t="s">
         <v>298</v>
       </c>
-      <c r="N35" s="210"/>
-      <c r="P35" s="140"/>
+      <c r="N35" s="207"/>
+      <c r="P35" s="139"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="216"/>
-      <c r="B36" s="135" t="s">
+      <c r="A36" s="213"/>
+      <c r="B36" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="138"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="137"/>
       <c r="L36" s="78" t="s">
         <v>451</v>
       </c>
-      <c r="M36" s="210" t="s">
+      <c r="M36" s="207" t="s">
         <v>305</v>
       </c>
-      <c r="N36" s="210"/>
-      <c r="P36" s="140"/>
+      <c r="N36" s="207"/>
+      <c r="P36" s="139"/>
     </row>
     <row r="37" spans="1:16" ht="18" customHeight="1">
-      <c r="A37" s="216"/>
+      <c r="A37" s="213"/>
       <c r="B37" s="78" t="s">
         <v>452</v>
       </c>
-      <c r="C37" s="137" t="s">
+      <c r="C37" s="136" t="s">
         <v>453</v>
       </c>
-      <c r="D37" s="137" t="s">
+      <c r="D37" s="136" t="s">
         <v>454</v>
       </c>
-      <c r="E37" s="137" t="s">
+      <c r="E37" s="136" t="s">
         <v>455</v>
       </c>
-      <c r="F37" s="137" t="s">
+      <c r="F37" s="136" t="s">
         <v>456</v>
       </c>
-      <c r="G37" s="137" t="s">
+      <c r="G37" s="136" t="s">
         <v>457</v>
       </c>
-      <c r="H37" s="137" t="s">
+      <c r="H37" s="136" t="s">
         <v>458</v>
       </c>
-      <c r="I37" s="137" t="s">
+      <c r="I37" s="136" t="s">
         <v>459</v>
       </c>
-      <c r="J37" s="137" t="s">
+      <c r="J37" s="136" t="s">
         <v>460</v>
       </c>
-      <c r="K37" s="141"/>
-      <c r="L37" s="213" t="s">
-        <v>793</v>
-      </c>
-      <c r="M37" s="214"/>
-      <c r="N37" s="214"/>
+      <c r="K37" s="140"/>
+      <c r="L37" s="210" t="s">
+        <v>790</v>
+      </c>
+      <c r="M37" s="211"/>
+      <c r="N37" s="211"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="216"/>
+      <c r="A38" s="213"/>
       <c r="B38" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="C38" s="137" t="s">
+      <c r="C38" s="136" t="s">
         <v>462</v>
       </c>
-      <c r="D38" s="137" t="s">
+      <c r="D38" s="136" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="137" t="s">
+      <c r="E38" s="136" t="s">
         <v>464</v>
       </c>
-      <c r="F38" s="137" t="s">
+      <c r="F38" s="136" t="s">
         <v>465</v>
       </c>
-      <c r="G38" s="137" t="s">
+      <c r="G38" s="136" t="s">
         <v>466</v>
       </c>
-      <c r="H38" s="137" t="s">
+      <c r="H38" s="136" t="s">
         <v>467</v>
       </c>
-      <c r="I38" s="137" t="s">
+      <c r="I38" s="136" t="s">
         <v>468</v>
       </c>
-      <c r="J38" s="137" t="s">
+      <c r="J38" s="136" t="s">
         <v>469</v>
       </c>
-      <c r="K38" s="141"/>
-      <c r="L38" s="214"/>
-      <c r="M38" s="214"/>
-      <c r="N38" s="214"/>
+      <c r="K38" s="140"/>
+      <c r="L38" s="211"/>
+      <c r="M38" s="211"/>
+      <c r="N38" s="211"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="216"/>
+      <c r="A39" s="213"/>
       <c r="B39" s="78" t="s">
         <v>470</v>
       </c>
-      <c r="C39" s="137" t="s">
+      <c r="C39" s="136" t="s">
         <v>471</v>
       </c>
-      <c r="D39" s="137" t="s">
+      <c r="D39" s="136" t="s">
         <v>472</v>
       </c>
-      <c r="E39" s="137" t="s">
+      <c r="E39" s="136" t="s">
         <v>473</v>
       </c>
-      <c r="F39" s="137" t="s">
+      <c r="F39" s="136" t="s">
         <v>474</v>
       </c>
-      <c r="G39" s="137" t="s">
+      <c r="G39" s="136" t="s">
         <v>475</v>
       </c>
-      <c r="H39" s="137" t="s">
+      <c r="H39" s="136" t="s">
         <v>476</v>
       </c>
-      <c r="I39" s="137" t="s">
+      <c r="I39" s="136" t="s">
         <v>477</v>
       </c>
-      <c r="J39" s="137" t="s">
+      <c r="J39" s="136" t="s">
         <v>478</v>
       </c>
-      <c r="K39" s="141"/>
+      <c r="K39" s="140"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="216"/>
+      <c r="A40" s="213"/>
       <c r="B40" s="78" t="s">
         <v>479</v>
       </c>
-      <c r="C40" s="137" t="s">
+      <c r="C40" s="136" t="s">
         <v>480</v>
       </c>
-      <c r="D40" s="137" t="s">
+      <c r="D40" s="136" t="s">
         <v>481</v>
       </c>
-      <c r="E40" s="137" t="s">
+      <c r="E40" s="136" t="s">
         <v>482</v>
       </c>
-      <c r="F40" s="137" t="s">
+      <c r="F40" s="136" t="s">
         <v>483</v>
       </c>
-      <c r="G40" s="137" t="s">
+      <c r="G40" s="136" t="s">
         <v>484</v>
       </c>
-      <c r="H40" s="137" t="s">
+      <c r="H40" s="136" t="s">
         <v>485</v>
       </c>
-      <c r="I40" s="137" t="s">
+      <c r="I40" s="136" t="s">
         <v>486</v>
       </c>
-      <c r="J40" s="137" t="s">
+      <c r="J40" s="136" t="s">
         <v>487</v>
       </c>
-      <c r="K40" s="141"/>
-      <c r="L40" s="210" t="s">
-        <v>757</v>
-      </c>
-      <c r="M40" s="210"/>
-      <c r="N40" s="210"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="207" t="s">
+        <v>755</v>
+      </c>
+      <c r="M40" s="207"/>
+      <c r="N40" s="207"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="216"/>
+      <c r="A41" s="213"/>
       <c r="B41" s="78" t="s">
         <v>488</v>
       </c>
-      <c r="C41" s="137" t="s">
+      <c r="C41" s="136" t="s">
         <v>489</v>
       </c>
-      <c r="D41" s="137" t="s">
+      <c r="D41" s="136" t="s">
         <v>490</v>
       </c>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="141"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="140"/>
       <c r="L41" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="M41" s="210" t="s">
+      <c r="M41" s="207" t="s">
         <v>334</v>
       </c>
-      <c r="N41" s="210"/>
+      <c r="N41" s="207"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="216"/>
+      <c r="A42" s="213"/>
       <c r="B42" s="78" t="s">
         <v>491</v>
       </c>
-      <c r="C42" s="137" t="s">
+      <c r="C42" s="136" t="s">
         <v>492</v>
       </c>
-      <c r="D42" s="137" t="s">
+      <c r="D42" s="136" t="s">
         <v>493</v>
       </c>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="141"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="140"/>
       <c r="L42" s="78">
         <v>0</v>
       </c>
-      <c r="M42" s="210" t="s">
+      <c r="M42" s="207" t="s">
         <v>95</v>
       </c>
-      <c r="N42" s="210"/>
+      <c r="N42" s="207"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="216"/>
+      <c r="A43" s="213"/>
       <c r="B43" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="C43" s="142" t="s">
+      <c r="C43" s="141" t="s">
         <v>495</v>
       </c>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="142" t="s">
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="141" t="s">
         <v>496</v>
       </c>
-      <c r="J43" s="137"/>
-      <c r="K43" s="141"/>
+      <c r="J43" s="136"/>
+      <c r="K43" s="140"/>
       <c r="L43" s="78">
         <v>1</v>
       </c>
-      <c r="M43" s="210" t="s">
+      <c r="M43" s="207" t="s">
         <v>100</v>
       </c>
-      <c r="N43" s="210"/>
+      <c r="N43" s="207"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="216"/>
+      <c r="A44" s="213"/>
       <c r="B44" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="C44" s="142" t="s">
+      <c r="C44" s="141" t="s">
         <v>498</v>
       </c>
-      <c r="D44" s="137"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="142" t="s">
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="141" t="s">
         <v>499</v>
       </c>
-      <c r="J44" s="137"/>
-      <c r="K44" s="141"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="140"/>
       <c r="L44" s="78">
         <v>2</v>
       </c>
-      <c r="M44" s="210" t="s">
+      <c r="M44" s="207" t="s">
         <v>104</v>
       </c>
-      <c r="N44" s="210"/>
+      <c r="N44" s="207"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="216"/>
+      <c r="A45" s="213"/>
       <c r="B45" s="78" t="s">
         <v>500</v>
       </c>
-      <c r="C45" s="137" t="s">
+      <c r="C45" s="136" t="s">
         <v>501</v>
       </c>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137" t="s">
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136" t="s">
         <v>502</v>
       </c>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="141"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="140"/>
       <c r="L45" s="78">
         <v>3</v>
       </c>
-      <c r="M45" s="210" t="s">
+      <c r="M45" s="207" t="s">
         <v>108</v>
       </c>
-      <c r="N45" s="210"/>
+      <c r="N45" s="207"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="216"/>
+      <c r="A46" s="213"/>
       <c r="B46" s="78" t="s">
         <v>503</v>
       </c>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="141"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="140"/>
       <c r="L46" s="78">
         <v>4</v>
       </c>
-      <c r="M46" s="210" t="s">
+      <c r="M46" s="207" t="s">
         <v>111</v>
       </c>
-      <c r="N46" s="210"/>
+      <c r="N46" s="207"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="216"/>
+      <c r="A47" s="213"/>
       <c r="B47" s="78" t="s">
         <v>504</v>
       </c>
-      <c r="C47" s="137" t="s">
+      <c r="C47" s="136" t="s">
         <v>505</v>
       </c>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137" t="s">
-        <v>819</v>
-      </c>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="137"/>
-      <c r="K47" s="141"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136" t="s">
+        <v>816</v>
+      </c>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
+      <c r="K47" s="140"/>
       <c r="L47" s="78">
         <v>5</v>
       </c>
-      <c r="M47" s="210" t="s">
+      <c r="M47" s="207" t="s">
         <v>114</v>
       </c>
-      <c r="N47" s="210"/>
+      <c r="N47" s="207"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="216"/>
+      <c r="A48" s="213"/>
       <c r="B48" s="78" t="s">
         <v>506</v>
       </c>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
-      <c r="J48" s="137"/>
-      <c r="K48" s="141"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
+      <c r="K48" s="140"/>
       <c r="L48" s="78">
         <v>6</v>
       </c>
-      <c r="M48" s="210" t="s">
+      <c r="M48" s="207" t="s">
         <v>117</v>
       </c>
-      <c r="N48" s="210"/>
+      <c r="N48" s="207"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="216"/>
+      <c r="A49" s="213"/>
       <c r="B49" s="78" t="s">
         <v>507</v>
       </c>
-      <c r="C49" s="137"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
-      <c r="J49" s="137"/>
-      <c r="K49" s="141"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="140"/>
       <c r="L49" s="78">
         <v>7</v>
       </c>
-      <c r="M49" s="210" t="s">
+      <c r="M49" s="207" t="s">
         <v>120</v>
       </c>
-      <c r="N49" s="210"/>
+      <c r="N49" s="207"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="216"/>
+      <c r="A50" s="213"/>
       <c r="B50" s="78" t="s">
         <v>508</v>
       </c>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="141"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="140"/>
       <c r="L50" s="78">
         <v>8</v>
       </c>
-      <c r="M50" s="210" t="s">
+      <c r="M50" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="N50" s="210"/>
+      <c r="N50" s="207"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="216"/>
+      <c r="A51" s="213"/>
       <c r="B51" s="78" t="s">
         <v>509</v>
       </c>
-      <c r="C51" s="137" t="s">
+      <c r="C51" s="136" t="s">
         <v>510</v>
       </c>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="137"/>
-      <c r="K51" s="141"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="140"/>
       <c r="L51" s="78">
         <v>9</v>
       </c>
-      <c r="M51" s="210" t="s">
+      <c r="M51" s="207" t="s">
         <v>128</v>
       </c>
-      <c r="N51" s="210"/>
+      <c r="N51" s="207"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="216"/>
+      <c r="A52" s="213"/>
       <c r="B52" s="78" t="s">
         <v>511</v>
       </c>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="142" t="s">
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="141" t="s">
         <v>512</v>
       </c>
-      <c r="K52" s="141"/>
+      <c r="K52" s="140"/>
       <c r="L52" s="78" t="s">
         <v>424</v>
       </c>
-      <c r="M52" s="210" t="s">
+      <c r="M52" s="207" t="s">
         <v>132</v>
       </c>
-      <c r="N52" s="210"/>
+      <c r="N52" s="207"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="C53" s="143" t="s">
+      <c r="C53" s="142" t="s">
         <v>513</v>
       </c>
       <c r="G53" s="74" t="s">
@@ -14965,114 +15016,114 @@
       <c r="L53" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="M53" s="210" t="s">
+      <c r="M53" s="207" t="s">
         <v>136</v>
       </c>
-      <c r="N53" s="210"/>
+      <c r="N53" s="207"/>
     </row>
     <row r="54" spans="1:14">
       <c r="L54" s="78" t="s">
         <v>444</v>
       </c>
-      <c r="M54" s="210" t="s">
+      <c r="M54" s="207" t="s">
         <v>139</v>
       </c>
-      <c r="N54" s="210"/>
+      <c r="N54" s="207"/>
     </row>
     <row r="55" spans="1:14" ht="18" customHeight="1">
-      <c r="A55" s="144"/>
-      <c r="B55" s="144" t="s">
+      <c r="A55" s="143"/>
+      <c r="B55" s="143" t="s">
         <v>515</v>
       </c>
-      <c r="C55" s="144" t="s">
+      <c r="C55" s="143" t="s">
         <v>516</v>
       </c>
-      <c r="D55" s="144" t="s">
+      <c r="D55" s="143" t="s">
         <v>517</v>
       </c>
-      <c r="E55" s="144" t="s">
+      <c r="E55" s="143" t="s">
         <v>518</v>
       </c>
-      <c r="F55" s="144" t="s">
+      <c r="F55" s="143" t="s">
         <v>519</v>
       </c>
-      <c r="G55" s="144" t="s">
+      <c r="G55" s="143" t="s">
         <v>520</v>
       </c>
-      <c r="H55" s="211" t="s">
-        <v>792</v>
-      </c>
-      <c r="I55" s="212"/>
-      <c r="J55" s="212"/>
+      <c r="H55" s="208" t="s">
+        <v>789</v>
+      </c>
+      <c r="I55" s="209"/>
+      <c r="J55" s="209"/>
       <c r="L55" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="M55" s="210"/>
-      <c r="N55" s="210"/>
+      <c r="M55" s="207"/>
+      <c r="N55" s="207"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="144" t="s">
+      <c r="A56" s="143" t="s">
         <v>521</v>
       </c>
-      <c r="B56" s="144" t="s">
+      <c r="B56" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="144" t="s">
+      <c r="C56" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="144" t="s">
+      <c r="D56" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="144" t="s">
+      <c r="E56" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="144" t="s">
+      <c r="F56" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="G56" s="144" t="s">
+      <c r="G56" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="212"/>
-      <c r="I56" s="212"/>
-      <c r="J56" s="212"/>
+      <c r="H56" s="209"/>
+      <c r="I56" s="209"/>
+      <c r="J56" s="209"/>
       <c r="K56" s="76"/>
       <c r="L56" s="78" t="s">
         <v>449</v>
       </c>
-      <c r="M56" s="210" t="s">
+      <c r="M56" s="207" t="s">
         <v>142</v>
       </c>
-      <c r="N56" s="210"/>
+      <c r="N56" s="207"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="144" t="s">
+      <c r="A57" s="143" t="s">
         <v>522</v>
       </c>
-      <c r="B57" s="144" t="s">
+      <c r="B57" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="144" t="s">
+      <c r="C57" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="D57" s="144" t="s">
+      <c r="D57" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="144" t="s">
+      <c r="E57" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="F57" s="144" t="s">
+      <c r="F57" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="G57" s="144" t="s">
+      <c r="G57" s="143" t="s">
         <v>100</v>
       </c>
       <c r="L57" s="78" t="s">
         <v>451</v>
       </c>
-      <c r="M57" s="210" t="s">
+      <c r="M57" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="N57" s="210"/>
+      <c r="N57" s="207"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -15146,10 +15197,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -15161,29 +15212,29 @@
     <col min="6" max="6" width="4.77734375" style="74" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" style="77" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" style="77" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="74" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="74" customWidth="1"/>
     <col min="10" max="10" width="4" style="74" customWidth="1"/>
     <col min="11" max="11" width="12.77734375" style="74" customWidth="1"/>
     <col min="12" max="16384" width="9.33203125" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.05" customHeight="1">
-      <c r="A1" s="157" t="s">
-        <v>808</v>
-      </c>
-      <c r="H1" s="217" t="str">
+      <c r="A1" s="153" t="s">
+        <v>805</v>
+      </c>
+      <c r="H1" s="214" t="str">
         <f>命令表!P1</f>
         <v>Ver.10.2.0(TeC7a,b,c,d対応)</v>
       </c>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1">
-      <c r="I2" s="217">
+      <c r="I2" s="214">
         <f>命令表!P2</f>
-        <v>45156</v>
-      </c>
-      <c r="J2" s="217"/>
+        <v>45222</v>
+      </c>
+      <c r="J2" s="214"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="79" t="s">
@@ -15197,16 +15248,16 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="B4" s="77" t="s">
+        <v>713</v>
+      </c>
+      <c r="C4" s="77" t="s">
         <v>714</v>
       </c>
-      <c r="C4" s="77" t="s">
-        <v>715</v>
-      </c>
       <c r="H4" s="77" t="s">
+        <v>713</v>
+      </c>
+      <c r="I4" s="77" t="s">
         <v>714</v>
-      </c>
-      <c r="I4" s="77" t="s">
-        <v>715</v>
       </c>
       <c r="K4" s="99"/>
       <c r="L4" s="101"/>
@@ -15215,22 +15266,22 @@
       <c r="A5" s="78" t="s">
         <v>525</v>
       </c>
-      <c r="B5" s="264" t="s">
+      <c r="B5" s="221" t="s">
         <v>526</v>
       </c>
-      <c r="C5" s="265"/>
-      <c r="D5" s="270" t="s">
+      <c r="C5" s="222"/>
+      <c r="D5" s="227" t="s">
         <v>527</v>
       </c>
       <c r="E5" s="102"/>
       <c r="G5" s="103" t="s">
         <v>528</v>
       </c>
-      <c r="H5" s="245" t="s">
-        <v>716</v>
-      </c>
-      <c r="I5" s="258"/>
-      <c r="J5" s="256" t="s">
+      <c r="H5" s="243" t="s">
+        <v>715</v>
+      </c>
+      <c r="I5" s="252"/>
+      <c r="J5" s="250" t="s">
         <v>529</v>
       </c>
     </row>
@@ -15238,58 +15289,58 @@
       <c r="A6" s="78" t="s">
         <v>530</v>
       </c>
-      <c r="B6" s="266"/>
-      <c r="C6" s="267"/>
-      <c r="D6" s="271"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="228"/>
       <c r="E6" s="102"/>
       <c r="G6" s="104" t="s">
         <v>531</v>
       </c>
-      <c r="H6" s="259" t="s">
-        <v>717</v>
-      </c>
-      <c r="I6" s="260"/>
-      <c r="J6" s="256"/>
+      <c r="H6" s="253" t="s">
+        <v>716</v>
+      </c>
+      <c r="I6" s="254"/>
+      <c r="J6" s="250"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="78" t="s">
         <v>532</v>
       </c>
-      <c r="B7" s="266"/>
-      <c r="C7" s="267"/>
-      <c r="D7" s="271"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="228"/>
       <c r="E7" s="102"/>
       <c r="G7" s="105" t="s">
         <v>533</v>
       </c>
-      <c r="H7" s="245" t="s">
-        <v>718</v>
-      </c>
-      <c r="I7" s="258"/>
-      <c r="J7" s="256"/>
+      <c r="H7" s="243" t="s">
+        <v>717</v>
+      </c>
+      <c r="I7" s="252"/>
+      <c r="J7" s="250"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="A8" s="261" t="s">
+      <c r="A8" s="218" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="266"/>
-      <c r="C8" s="267"/>
-      <c r="D8" s="271"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="228"/>
       <c r="E8" s="102"/>
       <c r="G8" s="104" t="s">
         <v>534</v>
       </c>
-      <c r="H8" s="259" t="s">
-        <v>719</v>
-      </c>
-      <c r="I8" s="260"/>
-      <c r="J8" s="256"/>
+      <c r="H8" s="253" t="s">
+        <v>718</v>
+      </c>
+      <c r="I8" s="254"/>
+      <c r="J8" s="250"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="262"/>
-      <c r="B9" s="266"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="271"/>
+      <c r="A9" s="219"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="228"/>
       <c r="E9" s="102"/>
       <c r="G9" s="103" t="s">
         <v>535</v>
@@ -15300,15 +15351,15 @@
       <c r="I9" s="109" t="s">
         <v>536</v>
       </c>
-      <c r="J9" s="257" t="s">
+      <c r="J9" s="251" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1">
-      <c r="A10" s="262"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="271"/>
+      <c r="A10" s="219"/>
+      <c r="B10" s="223"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="102"/>
       <c r="G10" s="104" t="s">
         <v>538</v>
@@ -15319,13 +15370,13 @@
       <c r="I10" s="111" t="s">
         <v>539</v>
       </c>
-      <c r="J10" s="257"/>
+      <c r="J10" s="251"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
-      <c r="A11" s="262"/>
-      <c r="B11" s="266"/>
-      <c r="C11" s="267"/>
-      <c r="D11" s="271"/>
+      <c r="A11" s="219"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="228"/>
       <c r="E11" s="102"/>
       <c r="G11" s="103" t="s">
         <v>540</v>
@@ -15336,15 +15387,15 @@
       <c r="I11" s="109" t="s">
         <v>541</v>
       </c>
-      <c r="J11" s="256" t="s">
+      <c r="J11" s="250" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
-      <c r="A12" s="262"/>
-      <c r="B12" s="266"/>
-      <c r="C12" s="267"/>
-      <c r="D12" s="271"/>
+      <c r="A12" s="219"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="228"/>
       <c r="E12" s="102"/>
       <c r="G12" s="104" t="s">
         <v>543</v>
@@ -15355,13 +15406,13 @@
       <c r="I12" s="111" t="s">
         <v>544</v>
       </c>
-      <c r="J12" s="256"/>
+      <c r="J12" s="250"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="262"/>
-      <c r="B13" s="266"/>
-      <c r="C13" s="267"/>
-      <c r="D13" s="271"/>
+      <c r="A13" s="219"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="228"/>
       <c r="E13" s="102"/>
       <c r="G13" s="103" t="s">
         <v>545</v>
@@ -15372,61 +15423,61 @@
       <c r="I13" s="109" t="s">
         <v>546</v>
       </c>
-      <c r="J13" s="281" t="s">
-        <v>799</v>
+      <c r="J13" s="264" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="A14" s="262"/>
-      <c r="B14" s="266"/>
-      <c r="C14" s="267"/>
-      <c r="D14" s="271"/>
+      <c r="A14" s="219"/>
+      <c r="B14" s="223"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="228"/>
       <c r="E14" s="102"/>
       <c r="G14" s="112" t="s">
         <v>547</v>
       </c>
-      <c r="H14" s="242" t="s">
+      <c r="H14" s="265" t="s">
         <v>548</v>
       </c>
-      <c r="I14" s="242"/>
-      <c r="J14" s="257"/>
+      <c r="I14" s="265"/>
+      <c r="J14" s="251"/>
       <c r="N14" s="77"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
-      <c r="A15" s="262"/>
-      <c r="B15" s="266"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="271"/>
+      <c r="A15" s="219"/>
+      <c r="B15" s="223"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="228"/>
       <c r="E15" s="102"/>
       <c r="G15" s="112" t="s">
         <v>549</v>
       </c>
-      <c r="H15" s="242" t="s">
+      <c r="H15" s="265" t="s">
         <v>550</v>
       </c>
-      <c r="I15" s="242"/>
-      <c r="J15" s="257"/>
+      <c r="I15" s="265"/>
+      <c r="J15" s="251"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1">
-      <c r="A16" s="262"/>
-      <c r="B16" s="266"/>
-      <c r="C16" s="267"/>
-      <c r="D16" s="271"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="223"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="228"/>
       <c r="E16" s="102"/>
       <c r="G16" s="104" t="s">
         <v>551</v>
       </c>
-      <c r="H16" s="280" t="s">
+      <c r="H16" s="263" t="s">
         <v>552</v>
       </c>
-      <c r="I16" s="280"/>
-      <c r="J16" s="257"/>
+      <c r="I16" s="263"/>
+      <c r="J16" s="251"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="A17" s="262"/>
-      <c r="B17" s="266"/>
-      <c r="C17" s="267"/>
-      <c r="D17" s="271"/>
+      <c r="A17" s="219"/>
+      <c r="B17" s="223"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="228"/>
       <c r="E17" s="102"/>
       <c r="G17" s="103" t="s">
         <v>553</v>
@@ -15435,9 +15486,9 @@
         <v>276</v>
       </c>
       <c r="I17" s="114" t="s">
-        <v>721</v>
-      </c>
-      <c r="J17" s="257" t="s">
+        <v>720</v>
+      </c>
+      <c r="J17" s="251" t="s">
         <v>554</v>
       </c>
       <c r="M17"/>
@@ -15447,10 +15498,10 @@
       <c r="Q17"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1">
-      <c r="A18" s="262"/>
-      <c r="B18" s="266"/>
-      <c r="C18" s="267"/>
-      <c r="D18" s="271"/>
+      <c r="A18" s="219"/>
+      <c r="B18" s="223"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="228"/>
       <c r="E18" s="102"/>
       <c r="G18" s="112" t="s">
         <v>555</v>
@@ -15459,9 +15510,9 @@
         <v>276</v>
       </c>
       <c r="I18" s="116" t="s">
-        <v>722</v>
-      </c>
-      <c r="J18" s="257"/>
+        <v>721</v>
+      </c>
+      <c r="J18" s="251"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
@@ -15469,10 +15520,10 @@
       <c r="Q18"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1">
-      <c r="A19" s="262"/>
-      <c r="B19" s="266"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="271"/>
+      <c r="A19" s="219"/>
+      <c r="B19" s="223"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="228"/>
       <c r="E19" s="102"/>
       <c r="G19" s="112" t="s">
         <v>556</v>
@@ -15481,9 +15532,9 @@
         <v>276</v>
       </c>
       <c r="I19" s="116" t="s">
-        <v>723</v>
-      </c>
-      <c r="J19" s="257"/>
+        <v>722</v>
+      </c>
+      <c r="J19" s="251"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
@@ -15491,10 +15542,10 @@
       <c r="Q19"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1">
-      <c r="A20" s="262"/>
-      <c r="B20" s="266"/>
-      <c r="C20" s="267"/>
-      <c r="D20" s="271"/>
+      <c r="A20" s="219"/>
+      <c r="B20" s="223"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="228"/>
       <c r="E20" s="102"/>
       <c r="G20" s="104" t="s">
         <v>557</v>
@@ -15503,9 +15554,9 @@
         <v>276</v>
       </c>
       <c r="I20" s="111" t="s">
-        <v>724</v>
-      </c>
-      <c r="J20" s="257"/>
+        <v>723</v>
+      </c>
+      <c r="J20" s="251"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
@@ -15513,10 +15564,10 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1">
-      <c r="A21" s="262"/>
-      <c r="B21" s="266"/>
-      <c r="C21" s="267"/>
-      <c r="D21" s="271"/>
+      <c r="A21" s="219"/>
+      <c r="B21" s="223"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="228"/>
       <c r="E21" s="102"/>
       <c r="G21" s="103" t="s">
         <v>558</v>
@@ -15527,7 +15578,7 @@
       <c r="I21" s="109" t="s">
         <v>559</v>
       </c>
-      <c r="J21" s="257"/>
+      <c r="J21" s="251"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
@@ -15535,10 +15586,10 @@
       <c r="Q21"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1">
-      <c r="A22" s="262"/>
-      <c r="B22" s="266"/>
-      <c r="C22" s="267"/>
-      <c r="D22" s="271"/>
+      <c r="A22" s="220"/>
+      <c r="B22" s="223"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="228"/>
       <c r="E22" s="102"/>
       <c r="G22" s="104" t="s">
         <v>560</v>
@@ -15549,7 +15600,7 @@
       <c r="I22" s="111" t="s">
         <v>561</v>
       </c>
-      <c r="J22" s="257"/>
+      <c r="J22" s="251"/>
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
@@ -15557,10 +15608,12 @@
       <c r="Q22"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1">
-      <c r="A23" s="262"/>
-      <c r="B23" s="266"/>
-      <c r="C23" s="267"/>
-      <c r="D23" s="271"/>
+      <c r="A23" s="78" t="s">
+        <v>562</v>
+      </c>
+      <c r="B23" s="225"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="229"/>
       <c r="E23" s="102"/>
       <c r="G23" s="103" t="s">
         <v>563</v>
@@ -15571,7 +15624,7 @@
       <c r="I23" s="109" t="s">
         <v>564</v>
       </c>
-      <c r="J23" s="257"/>
+      <c r="J23" s="251"/>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
@@ -15579,11 +15632,19 @@
       <c r="Q23"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1">
-      <c r="A24" s="263"/>
-      <c r="B24" s="266"/>
-      <c r="C24" s="267"/>
-      <c r="D24" s="271"/>
-      <c r="E24" s="118"/>
+      <c r="A24" s="106" t="s">
+        <v>565</v>
+      </c>
+      <c r="B24" s="221" t="s">
+        <v>566</v>
+      </c>
+      <c r="C24" s="222"/>
+      <c r="D24" s="258" t="s">
+        <v>527</v>
+      </c>
+      <c r="E24" s="230" t="s">
+        <v>830</v>
+      </c>
       <c r="G24" s="112" t="s">
         <v>567</v>
       </c>
@@ -15593,7 +15654,7 @@
       <c r="I24" s="116" t="s">
         <v>568</v>
       </c>
-      <c r="J24" s="257"/>
+      <c r="J24" s="251"/>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
@@ -15601,13 +15662,13 @@
       <c r="Q24"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1">
-      <c r="A25" s="78" t="s">
-        <v>562</v>
-      </c>
-      <c r="B25" s="268"/>
-      <c r="C25" s="269"/>
-      <c r="D25" s="272"/>
-      <c r="E25" s="148"/>
+      <c r="A25" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="223"/>
+      <c r="C25" s="224"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="231"/>
       <c r="G25" s="103" t="s">
         <v>569</v>
       </c>
@@ -15617,7 +15678,7 @@
       <c r="I25" s="109" t="s">
         <v>570</v>
       </c>
-      <c r="J25" s="256" t="s">
+      <c r="J25" s="250" t="s">
         <v>571</v>
       </c>
       <c r="M25"/>
@@ -15627,29 +15688,23 @@
       <c r="Q25"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1">
-      <c r="A26" s="106" t="s">
-        <v>565</v>
-      </c>
-      <c r="B26" s="264" t="s">
-        <v>566</v>
-      </c>
-      <c r="C26" s="265"/>
-      <c r="D26" s="270" t="s">
-        <v>527</v>
-      </c>
-      <c r="E26" s="270" t="s">
-        <v>725</v>
-      </c>
+      <c r="A26" s="120" t="s">
+        <v>572</v>
+      </c>
+      <c r="B26" s="225"/>
+      <c r="C26" s="226"/>
+      <c r="D26" s="260"/>
+      <c r="E26" s="231"/>
       <c r="G26" s="112" t="s">
         <v>573</v>
       </c>
       <c r="H26" s="115" t="s">
         <v>276</v>
       </c>
-      <c r="I26" s="119" t="s">
+      <c r="I26" s="118" t="s">
         <v>574</v>
       </c>
-      <c r="J26" s="256"/>
+      <c r="J26" s="250"/>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
@@ -15657,23 +15712,27 @@
       <c r="Q26"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1">
-      <c r="A27" s="107" t="s">
-        <v>281</v>
-      </c>
-      <c r="B27" s="266"/>
-      <c r="C27" s="267"/>
-      <c r="D27" s="271"/>
-      <c r="E27" s="271"/>
+      <c r="A27" s="106" t="s">
+        <v>575</v>
+      </c>
+      <c r="B27" s="243" t="s">
+        <v>601</v>
+      </c>
+      <c r="C27" s="252"/>
+      <c r="D27" s="258" t="s">
+        <v>577</v>
+      </c>
+      <c r="E27" s="231"/>
       <c r="G27" s="112" t="s">
         <v>578</v>
       </c>
       <c r="H27" s="115" t="s">
         <v>276</v>
       </c>
-      <c r="I27" s="119" t="s">
+      <c r="I27" s="118" t="s">
         <v>579</v>
       </c>
-      <c r="J27" s="256"/>
+      <c r="J27" s="250"/>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
@@ -15681,23 +15740,25 @@
       <c r="Q27"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1">
-      <c r="A28" s="121" t="s">
-        <v>572</v>
-      </c>
-      <c r="B28" s="268"/>
-      <c r="C28" s="269"/>
-      <c r="D28" s="272"/>
-      <c r="E28" s="271"/>
+      <c r="A28" s="107" t="s">
+        <v>580</v>
+      </c>
+      <c r="B28" s="239" t="s">
+        <v>598</v>
+      </c>
+      <c r="C28" s="270"/>
+      <c r="D28" s="259"/>
+      <c r="E28" s="231"/>
       <c r="G28" s="104" t="s">
         <v>581</v>
       </c>
       <c r="H28" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="I28" s="120" t="s">
+      <c r="I28" s="119" t="s">
         <v>582</v>
       </c>
-      <c r="J28" s="256"/>
+      <c r="J28" s="250"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
@@ -15705,17 +15766,15 @@
       <c r="Q28"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1">
-      <c r="A29" s="106" t="s">
-        <v>575</v>
-      </c>
-      <c r="B29" s="245" t="s">
-        <v>602</v>
-      </c>
-      <c r="C29" s="258"/>
-      <c r="D29" s="270" t="s">
-        <v>577</v>
-      </c>
-      <c r="E29" s="271"/>
+      <c r="A29" s="107" t="s">
+        <v>583</v>
+      </c>
+      <c r="B29" s="239" t="s">
+        <v>728</v>
+      </c>
+      <c r="C29" s="270"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="231"/>
       <c r="G29" s="108" t="s">
         <v>584</v>
       </c>
@@ -15725,8 +15784,8 @@
       <c r="I29" s="109" t="s">
         <v>585</v>
       </c>
-      <c r="J29" s="151" t="s">
-        <v>640</v>
+      <c r="J29" s="267" t="s">
+        <v>639</v>
       </c>
       <c r="M29"/>
       <c r="N29"/>
@@ -15736,14 +15795,14 @@
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1">
       <c r="A30" s="107" t="s">
-        <v>580</v>
-      </c>
-      <c r="B30" s="249" t="s">
-        <v>599</v>
-      </c>
-      <c r="C30" s="295"/>
-      <c r="D30" s="271"/>
-      <c r="E30" s="271"/>
+        <v>586</v>
+      </c>
+      <c r="B30" s="239" t="s">
+        <v>727</v>
+      </c>
+      <c r="C30" s="270"/>
+      <c r="D30" s="259"/>
+      <c r="E30" s="231"/>
       <c r="G30" s="112" t="s">
         <v>587</v>
       </c>
@@ -15753,7 +15812,7 @@
       <c r="I30" s="116" t="s">
         <v>588</v>
       </c>
-      <c r="J30" s="151"/>
+      <c r="J30" s="268"/>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
@@ -15762,14 +15821,14 @@
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1">
       <c r="A31" s="107" t="s">
-        <v>583</v>
-      </c>
-      <c r="B31" s="249" t="s">
-        <v>730</v>
-      </c>
-      <c r="C31" s="295"/>
-      <c r="D31" s="271"/>
-      <c r="E31" s="271"/>
+        <v>589</v>
+      </c>
+      <c r="B31" s="266" t="s">
+        <v>797</v>
+      </c>
+      <c r="C31" s="271"/>
+      <c r="D31" s="259"/>
+      <c r="E31" s="231"/>
       <c r="G31" s="112" t="s">
         <v>590</v>
       </c>
@@ -15779,7 +15838,7 @@
       <c r="I31" s="116" t="s">
         <v>591</v>
       </c>
-      <c r="J31" s="151"/>
+      <c r="J31" s="268"/>
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
@@ -15788,14 +15847,14 @@
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1">
       <c r="A32" s="107" t="s">
-        <v>586</v>
-      </c>
-      <c r="B32" s="249" t="s">
-        <v>729</v>
-      </c>
-      <c r="C32" s="295"/>
-      <c r="D32" s="271"/>
-      <c r="E32" s="271"/>
+        <v>592</v>
+      </c>
+      <c r="B32" s="239" t="s">
+        <v>726</v>
+      </c>
+      <c r="C32" s="270"/>
+      <c r="D32" s="259"/>
+      <c r="E32" s="231"/>
       <c r="G32" s="104" t="s">
         <v>593</v>
       </c>
@@ -15805,7 +15864,7 @@
       <c r="I32" s="111" t="s">
         <v>594</v>
       </c>
-      <c r="J32" s="151"/>
+      <c r="J32" s="269"/>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
@@ -15814,24 +15873,22 @@
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="107" t="s">
-        <v>589</v>
-      </c>
-      <c r="B33" s="255" t="s">
-        <v>800</v>
-      </c>
-      <c r="C33" s="296"/>
-      <c r="D33" s="271"/>
-      <c r="E33" s="271"/>
-      <c r="G33" s="103" t="s">
-        <v>596</v>
-      </c>
-      <c r="H33" s="108" t="s">
-        <v>276</v>
-      </c>
-      <c r="I33" s="150" t="s">
-        <v>276</v>
-      </c>
-      <c r="J33" s="276"/>
+        <v>595</v>
+      </c>
+      <c r="B33" s="239" t="s">
+        <v>725</v>
+      </c>
+      <c r="C33" s="270"/>
+      <c r="D33" s="259"/>
+      <c r="E33" s="231"/>
+      <c r="G33" s="104" t="s">
+        <v>281</v>
+      </c>
+      <c r="H33" s="261" t="s">
+        <v>829</v>
+      </c>
+      <c r="I33" s="262"/>
+      <c r="J33" s="157"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -15840,22 +15897,24 @@
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="107" t="s">
-        <v>592</v>
-      </c>
-      <c r="B34" s="249" t="s">
-        <v>728</v>
-      </c>
-      <c r="C34" s="295"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="271"/>
-      <c r="G34" s="104" t="s">
-        <v>281</v>
-      </c>
-      <c r="H34" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="I34" s="279"/>
-      <c r="J34" s="278"/>
+        <v>596</v>
+      </c>
+      <c r="B34" s="239" t="s">
+        <v>724</v>
+      </c>
+      <c r="C34" s="270"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="231"/>
+      <c r="G34" s="150" t="s">
+        <v>761</v>
+      </c>
+      <c r="H34" s="266" t="s">
+        <v>793</v>
+      </c>
+      <c r="I34" s="240"/>
+      <c r="J34" s="215" t="s">
+        <v>599</v>
+      </c>
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
@@ -15865,24 +15924,22 @@
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1">
       <c r="A35" s="107" t="s">
-        <v>595</v>
-      </c>
-      <c r="B35" s="249" t="s">
-        <v>727</v>
-      </c>
-      <c r="C35" s="295"/>
-      <c r="D35" s="271"/>
-      <c r="E35" s="271"/>
-      <c r="G35" s="154" t="s">
-        <v>763</v>
-      </c>
-      <c r="H35" s="255" t="s">
-        <v>796</v>
-      </c>
-      <c r="I35" s="250"/>
-      <c r="J35" s="276" t="s">
-        <v>600</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="B35" s="239" t="s">
+        <v>719</v>
+      </c>
+      <c r="C35" s="270"/>
+      <c r="D35" s="259"/>
+      <c r="E35" s="231"/>
+      <c r="G35" s="150" t="s">
+        <v>762</v>
+      </c>
+      <c r="H35" s="247" t="s">
+        <v>794</v>
+      </c>
+      <c r="I35" s="248"/>
+      <c r="J35" s="216"/>
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
@@ -15892,22 +15949,22 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="107" t="s">
-        <v>597</v>
-      </c>
-      <c r="B36" s="249" t="s">
-        <v>726</v>
-      </c>
-      <c r="C36" s="295"/>
-      <c r="D36" s="271"/>
-      <c r="E36" s="271"/>
-      <c r="G36" s="154" t="s">
-        <v>764</v>
-      </c>
-      <c r="H36" s="251" t="s">
-        <v>797</v>
-      </c>
-      <c r="I36" s="252"/>
-      <c r="J36" s="277"/>
+        <v>600</v>
+      </c>
+      <c r="B36" s="239" t="s">
+        <v>576</v>
+      </c>
+      <c r="C36" s="270"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="231"/>
+      <c r="G36" s="150" t="s">
+        <v>763</v>
+      </c>
+      <c r="H36" s="247" t="s">
+        <v>795</v>
+      </c>
+      <c r="I36" s="249"/>
+      <c r="J36" s="216"/>
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
@@ -15917,22 +15974,22 @@
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1">
       <c r="A37" s="107" t="s">
-        <v>598</v>
-      </c>
-      <c r="B37" s="249" t="s">
-        <v>720</v>
-      </c>
-      <c r="C37" s="295"/>
-      <c r="D37" s="271"/>
-      <c r="E37" s="271"/>
-      <c r="G37" s="154" t="s">
-        <v>765</v>
-      </c>
-      <c r="H37" s="251" t="s">
-        <v>798</v>
-      </c>
-      <c r="I37" s="253"/>
-      <c r="J37" s="277"/>
+        <v>602</v>
+      </c>
+      <c r="B37" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="C37" s="234"/>
+      <c r="D37" s="259"/>
+      <c r="E37" s="231"/>
+      <c r="G37" s="151" t="s">
+        <v>764</v>
+      </c>
+      <c r="H37" s="241" t="s">
+        <v>828</v>
+      </c>
+      <c r="I37" s="242"/>
+      <c r="J37" s="217"/>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
@@ -15942,22 +15999,22 @@
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="107" t="s">
-        <v>601</v>
-      </c>
-      <c r="B38" s="249" t="s">
-        <v>576</v>
-      </c>
-      <c r="C38" s="295"/>
-      <c r="D38" s="271"/>
-      <c r="E38" s="271"/>
-      <c r="G38" s="155" t="s">
-        <v>766</v>
-      </c>
-      <c r="H38" s="243" t="s">
-        <v>778</v>
-      </c>
-      <c r="I38" s="244"/>
-      <c r="J38" s="277"/>
+        <v>603</v>
+      </c>
+      <c r="B38" s="233" t="s">
+        <v>798</v>
+      </c>
+      <c r="C38" s="234"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="231"/>
+      <c r="G38" s="120" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" s="245" t="s">
+        <v>706</v>
+      </c>
+      <c r="I38" s="246"/>
+      <c r="J38" s="147"/>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -15967,22 +16024,24 @@
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="107" t="s">
-        <v>603</v>
-      </c>
-      <c r="B39" s="233" t="s">
-        <v>831</v>
-      </c>
-      <c r="C39" s="234"/>
-      <c r="D39" s="271"/>
-      <c r="E39" s="271"/>
-      <c r="G39" s="160" t="s">
-        <v>829</v>
-      </c>
-      <c r="H39" s="254" t="s">
-        <v>830</v>
-      </c>
-      <c r="I39" s="250"/>
-      <c r="J39" s="278"/>
+        <v>604</v>
+      </c>
+      <c r="B39" s="235" t="s">
+        <v>799</v>
+      </c>
+      <c r="C39" s="236"/>
+      <c r="D39" s="259"/>
+      <c r="E39" s="231"/>
+      <c r="G39" s="103" t="s">
+        <v>608</v>
+      </c>
+      <c r="H39" s="243" t="s">
+        <v>729</v>
+      </c>
+      <c r="I39" s="244"/>
+      <c r="J39" s="255" t="s">
+        <v>609</v>
+      </c>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
@@ -15992,22 +16051,22 @@
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="107" t="s">
-        <v>604</v>
-      </c>
-      <c r="B40" s="233" t="s">
-        <v>801</v>
-      </c>
-      <c r="C40" s="234"/>
-      <c r="D40" s="271"/>
-      <c r="E40" s="271"/>
-      <c r="G40" s="121" t="s">
-        <v>281</v>
-      </c>
-      <c r="H40" s="247" t="s">
-        <v>707</v>
-      </c>
-      <c r="I40" s="248"/>
-      <c r="J40" s="149"/>
+        <v>605</v>
+      </c>
+      <c r="B40" s="235" t="s">
+        <v>800</v>
+      </c>
+      <c r="C40" s="236"/>
+      <c r="D40" s="259"/>
+      <c r="E40" s="231"/>
+      <c r="G40" s="112" t="s">
+        <v>610</v>
+      </c>
+      <c r="H40" s="239" t="s">
+        <v>730</v>
+      </c>
+      <c r="I40" s="240"/>
+      <c r="J40" s="256"/>
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
@@ -16017,24 +16076,24 @@
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="107" t="s">
-        <v>605</v>
-      </c>
-      <c r="B41" s="238" t="s">
-        <v>802</v>
-      </c>
-      <c r="C41" s="239"/>
-      <c r="D41" s="271"/>
-      <c r="E41" s="271"/>
-      <c r="G41" s="103" t="s">
-        <v>609</v>
-      </c>
-      <c r="H41" s="245" t="s">
+        <v>606</v>
+      </c>
+      <c r="B41" s="235" t="s">
+        <v>801</v>
+      </c>
+      <c r="C41" s="236"/>
+      <c r="D41" s="259"/>
+      <c r="E41" s="231"/>
+      <c r="G41" s="112" t="s">
+        <v>611</v>
+      </c>
+      <c r="H41" s="115" t="s">
+        <v>276</v>
+      </c>
+      <c r="I41" s="121" t="s">
         <v>731</v>
       </c>
-      <c r="I41" s="246"/>
-      <c r="J41" s="273" t="s">
-        <v>610</v>
-      </c>
+      <c r="J41" s="256"/>
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
@@ -16043,23 +16102,25 @@
       <c r="Q41"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1">
-      <c r="A42" s="107" t="s">
-        <v>606</v>
-      </c>
-      <c r="B42" s="238" t="s">
-        <v>803</v>
-      </c>
-      <c r="C42" s="239"/>
-      <c r="D42" s="271"/>
-      <c r="E42" s="271"/>
-      <c r="G42" s="112" t="s">
-        <v>611</v>
-      </c>
-      <c r="H42" s="249" t="s">
+      <c r="A42" s="120" t="s">
+        <v>607</v>
+      </c>
+      <c r="B42" s="237" t="s">
+        <v>802</v>
+      </c>
+      <c r="C42" s="238"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="232"/>
+      <c r="G42" s="104" t="s">
+        <v>612</v>
+      </c>
+      <c r="H42" s="110" t="s">
+        <v>276</v>
+      </c>
+      <c r="I42" s="122" t="s">
         <v>732</v>
       </c>
-      <c r="I42" s="250"/>
-      <c r="J42" s="274"/>
+      <c r="J42" s="257"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -16068,25 +16129,16 @@
       <c r="Q42"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1">
-      <c r="A43" s="107" t="s">
-        <v>607</v>
-      </c>
-      <c r="B43" s="238" t="s">
-        <v>804</v>
-      </c>
-      <c r="C43" s="239"/>
-      <c r="D43" s="271"/>
-      <c r="E43" s="271"/>
-      <c r="G43" s="112" t="s">
-        <v>612</v>
-      </c>
-      <c r="H43" s="115" t="s">
-        <v>276</v>
-      </c>
-      <c r="I43" s="122" t="s">
+      <c r="B43" s="60" t="s">
+        <v>803</v>
+      </c>
+      <c r="C43" s="77"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="285"/>
+      <c r="G43" s="79" t="s">
         <v>733</v>
       </c>
-      <c r="J43" s="274"/>
+      <c r="J43" s="124"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -16095,25 +16147,13 @@
       <c r="Q43"/>
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1">
-      <c r="A44" s="121" t="s">
-        <v>608</v>
-      </c>
-      <c r="B44" s="240" t="s">
-        <v>805</v>
-      </c>
-      <c r="C44" s="241"/>
-      <c r="D44" s="272"/>
-      <c r="E44" s="272"/>
-      <c r="G44" s="104" t="s">
-        <v>613</v>
-      </c>
-      <c r="H44" s="110" t="s">
-        <v>276</v>
-      </c>
-      <c r="I44" s="123" t="s">
+      <c r="B44" s="79"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="123"/>
+      <c r="G44" s="79" t="s">
         <v>734</v>
       </c>
-      <c r="J44" s="275"/>
+      <c r="J44" s="125"/>
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
@@ -16122,316 +16162,314 @@
       <c r="Q44"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1">
-      <c r="B45" s="60" t="s">
-        <v>806</v>
-      </c>
-      <c r="C45" s="77"/>
-      <c r="D45" s="102"/>
+      <c r="D45" s="123"/>
       <c r="E45" s="102"/>
       <c r="G45" s="79" t="s">
+        <v>741</v>
+      </c>
+      <c r="J45" s="125"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1">
+      <c r="A46" s="126" t="s">
         <v>735</v>
       </c>
-      <c r="J45" s="125"/>
-    </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1">
-      <c r="B46" s="79"/>
-      <c r="D46" s="102"/>
       <c r="E46" s="102"/>
-      <c r="G46" s="79" t="s">
+      <c r="G46" s="79"/>
+      <c r="J46" s="125"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1">
+      <c r="A47" s="78" t="s">
+        <v>613</v>
+      </c>
+      <c r="B47" s="78" t="s">
         <v>736</v>
       </c>
-      <c r="J46" s="126"/>
-    </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1">
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
-      <c r="G47" s="79" t="s">
-        <v>743</v>
-      </c>
-      <c r="J47" s="126"/>
+      <c r="C47" s="156" t="s">
+        <v>614</v>
+      </c>
+      <c r="D47" s="283" t="s">
+        <v>334</v>
+      </c>
+      <c r="E47" s="274"/>
+      <c r="F47" s="274"/>
+      <c r="G47" s="274"/>
+      <c r="H47" s="274"/>
+      <c r="I47" s="274"/>
+      <c r="J47" s="275"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="127"/>
+      <c r="B48" s="78" t="s">
+        <v>615</v>
+      </c>
+      <c r="C48" s="78" t="s">
+        <v>616</v>
+      </c>
+      <c r="D48" s="289" t="s">
+        <v>617</v>
+      </c>
+      <c r="E48" s="290"/>
+      <c r="F48" s="290"/>
+      <c r="G48" s="290"/>
+      <c r="H48" s="290"/>
+      <c r="I48" s="290"/>
+      <c r="J48" s="291"/>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1">
+      <c r="A49" s="127"/>
+      <c r="B49" s="78" t="s">
+        <v>618</v>
+      </c>
+      <c r="C49" s="78" t="s">
+        <v>616</v>
+      </c>
+      <c r="D49" s="286" t="s">
+        <v>619</v>
+      </c>
+      <c r="E49" s="287"/>
+      <c r="F49" s="287"/>
+      <c r="G49" s="287"/>
+      <c r="H49" s="287"/>
+      <c r="I49" s="287"/>
+      <c r="J49" s="288"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1">
+      <c r="A50" s="78" t="s">
+        <v>531</v>
+      </c>
+      <c r="B50" s="127" t="s">
         <v>737</v>
       </c>
-      <c r="G48" s="79"/>
-      <c r="J48" s="126"/>
-    </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1">
-      <c r="A49" s="78" t="s">
-        <v>614</v>
-      </c>
-      <c r="B49" s="78" t="s">
+      <c r="C50" s="78" t="s">
+        <v>620</v>
+      </c>
+      <c r="D50" s="286" t="s">
+        <v>621</v>
+      </c>
+      <c r="E50" s="287"/>
+      <c r="F50" s="287"/>
+      <c r="G50" s="287"/>
+      <c r="H50" s="287"/>
+      <c r="I50" s="287"/>
+      <c r="J50" s="288"/>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1">
+      <c r="A51" s="78" t="s">
+        <v>534</v>
+      </c>
+      <c r="B51" s="127" t="s">
         <v>738</v>
       </c>
-      <c r="C49" s="78" t="s">
-        <v>615</v>
-      </c>
-      <c r="D49" s="235" t="s">
-        <v>334</v>
-      </c>
-      <c r="E49" s="236"/>
-      <c r="F49" s="236"/>
-      <c r="G49" s="236"/>
-      <c r="H49" s="236"/>
-      <c r="I49" s="236"/>
-      <c r="J49" s="237"/>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1">
-      <c r="A50" s="128"/>
-      <c r="B50" s="78" t="s">
-        <v>616</v>
-      </c>
-      <c r="C50" s="78" t="s">
-        <v>617</v>
-      </c>
-      <c r="D50" s="230" t="s">
-        <v>618</v>
-      </c>
-      <c r="E50" s="231"/>
-      <c r="F50" s="231"/>
-      <c r="G50" s="231"/>
-      <c r="H50" s="231"/>
-      <c r="I50" s="231"/>
-      <c r="J50" s="232"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1">
-      <c r="A51" s="128"/>
-      <c r="B51" s="78" t="s">
-        <v>619</v>
-      </c>
       <c r="C51" s="78" t="s">
-        <v>617</v>
-      </c>
-      <c r="D51" s="230" t="s">
         <v>620</v>
       </c>
-      <c r="E51" s="231"/>
-      <c r="F51" s="231"/>
-      <c r="G51" s="231"/>
-      <c r="H51" s="231"/>
-      <c r="I51" s="231"/>
-      <c r="J51" s="232"/>
+      <c r="D51" s="286" t="s">
+        <v>621</v>
+      </c>
+      <c r="E51" s="287"/>
+      <c r="F51" s="287"/>
+      <c r="G51" s="287"/>
+      <c r="H51" s="287"/>
+      <c r="I51" s="287"/>
+      <c r="J51" s="288"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" s="78" t="s">
-        <v>531</v>
-      </c>
-      <c r="B52" s="128" t="s">
-        <v>739</v>
+        <v>622</v>
+      </c>
+      <c r="B52" s="78" t="s">
+        <v>623</v>
       </c>
       <c r="C52" s="78" t="s">
-        <v>621</v>
-      </c>
-      <c r="D52" s="230" t="s">
-        <v>622</v>
-      </c>
-      <c r="E52" s="231"/>
-      <c r="F52" s="231"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="231"/>
-      <c r="I52" s="231"/>
-      <c r="J52" s="232"/>
+        <v>624</v>
+      </c>
+      <c r="D52" s="286" t="s">
+        <v>625</v>
+      </c>
+      <c r="E52" s="287"/>
+      <c r="F52" s="287"/>
+      <c r="G52" s="287"/>
+      <c r="H52" s="287"/>
+      <c r="I52" s="287"/>
+      <c r="J52" s="288"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1">
       <c r="A53" s="78" t="s">
-        <v>534</v>
-      </c>
-      <c r="B53" s="128" t="s">
-        <v>740</v>
+        <v>622</v>
+      </c>
+      <c r="B53" s="78" t="s">
+        <v>626</v>
       </c>
       <c r="C53" s="78" t="s">
-        <v>621</v>
-      </c>
-      <c r="D53" s="230" t="s">
-        <v>622</v>
-      </c>
-      <c r="E53" s="231"/>
-      <c r="F53" s="231"/>
-      <c r="G53" s="231"/>
-      <c r="H53" s="231"/>
-      <c r="I53" s="231"/>
-      <c r="J53" s="232"/>
+        <v>627</v>
+      </c>
+      <c r="D53" s="286" t="s">
+        <v>628</v>
+      </c>
+      <c r="E53" s="287"/>
+      <c r="F53" s="287"/>
+      <c r="G53" s="287"/>
+      <c r="H53" s="287"/>
+      <c r="I53" s="287"/>
+      <c r="J53" s="288"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1">
       <c r="A54" s="78" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B54" s="78" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C54" s="78" t="s">
-        <v>625</v>
-      </c>
-      <c r="D54" s="230" t="s">
-        <v>626</v>
-      </c>
-      <c r="E54" s="231"/>
-      <c r="F54" s="231"/>
-      <c r="G54" s="231"/>
-      <c r="H54" s="231"/>
-      <c r="I54" s="231"/>
-      <c r="J54" s="232"/>
+        <v>631</v>
+      </c>
+      <c r="D54" s="292" t="s">
+        <v>739</v>
+      </c>
+      <c r="E54" s="293"/>
+      <c r="F54" s="293"/>
+      <c r="G54" s="293"/>
+      <c r="H54" s="293"/>
+      <c r="I54" s="293"/>
+      <c r="J54" s="294"/>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1">
       <c r="A55" s="78" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="B55" s="78" t="s">
-        <v>627</v>
+        <v>579</v>
       </c>
       <c r="C55" s="78" t="s">
-        <v>628</v>
-      </c>
-      <c r="D55" s="230" t="s">
-        <v>629</v>
-      </c>
-      <c r="E55" s="231"/>
-      <c r="F55" s="231"/>
-      <c r="G55" s="231"/>
-      <c r="H55" s="231"/>
-      <c r="I55" s="231"/>
-      <c r="J55" s="232"/>
+        <v>633</v>
+      </c>
+      <c r="D55" s="295" t="s">
+        <v>740</v>
+      </c>
+      <c r="E55" s="296"/>
+      <c r="F55" s="296"/>
+      <c r="G55" s="296"/>
+      <c r="H55" s="296"/>
+      <c r="I55" s="296"/>
+      <c r="J55" s="297"/>
     </row>
     <row r="56" spans="1:10" s="77" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="78" t="s">
-        <v>630</v>
-      </c>
-      <c r="B56" s="78" t="s">
-        <v>631</v>
+        <v>642</v>
+      </c>
+      <c r="B56" s="152" t="s">
+        <v>640</v>
       </c>
       <c r="C56" s="78" t="s">
-        <v>632</v>
-      </c>
-      <c r="D56" s="224" t="s">
-        <v>741</v>
-      </c>
-      <c r="E56" s="225"/>
-      <c r="F56" s="225"/>
-      <c r="G56" s="225"/>
-      <c r="H56" s="225"/>
-      <c r="I56" s="225"/>
-      <c r="J56" s="226"/>
+        <v>645</v>
+      </c>
+      <c r="D56" s="295" t="s">
+        <v>641</v>
+      </c>
+      <c r="E56" s="296"/>
+      <c r="F56" s="296"/>
+      <c r="G56" s="296"/>
+      <c r="H56" s="296"/>
+      <c r="I56" s="296"/>
+      <c r="J56" s="297"/>
     </row>
     <row r="57" spans="1:10" s="77" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="78" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="B57" s="78" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="C57" s="78" t="s">
-        <v>634</v>
-      </c>
-      <c r="D57" s="218" t="s">
-        <v>742</v>
-      </c>
-      <c r="E57" s="219"/>
-      <c r="F57" s="219"/>
-      <c r="G57" s="219"/>
-      <c r="H57" s="219"/>
-      <c r="I57" s="219"/>
-      <c r="J57" s="220"/>
+        <v>645</v>
+      </c>
+      <c r="D57" s="295" t="s">
+        <v>641</v>
+      </c>
+      <c r="E57" s="296"/>
+      <c r="F57" s="296"/>
+      <c r="G57" s="296"/>
+      <c r="H57" s="296"/>
+      <c r="I57" s="296"/>
+      <c r="J57" s="297"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1">
       <c r="A58" s="78" t="s">
-        <v>643</v>
-      </c>
-      <c r="B58" s="156" t="s">
-        <v>641</v>
+        <v>634</v>
+      </c>
+      <c r="B58" s="128" t="s">
+        <v>731</v>
       </c>
       <c r="C58" s="78" t="s">
-        <v>646</v>
-      </c>
-      <c r="D58" s="218" t="s">
-        <v>642</v>
-      </c>
-      <c r="E58" s="219"/>
-      <c r="F58" s="219"/>
-      <c r="G58" s="219"/>
-      <c r="H58" s="219"/>
-      <c r="I58" s="219"/>
-      <c r="J58" s="220"/>
+        <v>635</v>
+      </c>
+      <c r="D58" s="298" t="s">
+        <v>765</v>
+      </c>
+      <c r="E58" s="299"/>
+      <c r="F58" s="299"/>
+      <c r="G58" s="299"/>
+      <c r="H58" s="299"/>
+      <c r="I58" s="299"/>
+      <c r="J58" s="300"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1">
-      <c r="A59" s="78" t="s">
-        <v>644</v>
-      </c>
-      <c r="B59" s="78" t="s">
-        <v>645</v>
-      </c>
-      <c r="C59" s="78" t="s">
-        <v>646</v>
-      </c>
-      <c r="D59" s="218" t="s">
-        <v>642</v>
-      </c>
-      <c r="E59" s="219"/>
-      <c r="F59" s="219"/>
-      <c r="G59" s="219"/>
-      <c r="H59" s="219"/>
-      <c r="I59" s="219"/>
-      <c r="J59" s="220"/>
+      <c r="A59" s="129" t="s">
+        <v>636</v>
+      </c>
+      <c r="B59" s="130" t="s">
+        <v>732</v>
+      </c>
+      <c r="C59" s="129" t="s">
+        <v>637</v>
+      </c>
+      <c r="D59" s="303" t="s">
+        <v>638</v>
+      </c>
+      <c r="E59" s="304"/>
+      <c r="F59" s="304"/>
+      <c r="G59" s="304"/>
+      <c r="H59" s="304"/>
+      <c r="I59" s="304"/>
+      <c r="J59" s="305"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1">
-      <c r="A60" s="78" t="s">
-        <v>635</v>
-      </c>
-      <c r="B60" s="129" t="s">
-        <v>733</v>
-      </c>
-      <c r="C60" s="78" t="s">
-        <v>636</v>
-      </c>
-      <c r="D60" s="227" t="s">
-        <v>767</v>
-      </c>
-      <c r="E60" s="228"/>
-      <c r="F60" s="228"/>
-      <c r="G60" s="228"/>
-      <c r="H60" s="228"/>
-      <c r="I60" s="228"/>
-      <c r="J60" s="229"/>
+      <c r="E60" s="301"/>
+      <c r="F60" s="301"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1">
-      <c r="A61" s="130" t="s">
-        <v>637</v>
-      </c>
-      <c r="B61" s="131" t="s">
-        <v>734</v>
-      </c>
-      <c r="C61" s="130" t="s">
-        <v>638</v>
-      </c>
-      <c r="D61" s="221" t="s">
-        <v>639</v>
-      </c>
-      <c r="E61" s="222"/>
-      <c r="F61" s="222"/>
-      <c r="G61" s="222"/>
-      <c r="H61" s="222"/>
-      <c r="I61" s="222"/>
-      <c r="J61" s="223"/>
+      <c r="A61" s="74"/>
+      <c r="B61" s="74"/>
+      <c r="E61" s="302"/>
+      <c r="F61" s="302"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1">
+      <c r="A62" s="74"/>
+      <c r="B62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1">
-      <c r="A63" s="74"/>
-      <c r="B63" s="74"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
       <c r="G63" s="74"/>
       <c r="H63" s="74"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1">
-      <c r="A64" s="74"/>
       <c r="B64" s="74"/>
       <c r="G64" s="74"/>
       <c r="H64" s="74"/>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1">
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
+      <c r="A65" s="74"/>
+      <c r="B65" s="74"/>
       <c r="G65" s="74"/>
       <c r="H65" s="74"/>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1">
+      <c r="A66" s="74"/>
       <c r="B66" s="74"/>
       <c r="G66" s="74"/>
       <c r="H66" s="74"/>
@@ -16445,14 +16483,10 @@
     <row r="68" spans="1:8" ht="15" customHeight="1">
       <c r="A68" s="74"/>
       <c r="B68" s="74"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1">
       <c r="A69" s="74"/>
       <c r="B69" s="74"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="74"/>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1">
       <c r="A70" s="74"/>
@@ -16510,37 +16544,42 @@
       <c r="A83" s="74"/>
       <c r="B83" s="74"/>
     </row>
-    <row r="84" spans="1:2" ht="15" customHeight="1">
-      <c r="A84" s="74"/>
-      <c r="B84" s="74"/>
-    </row>
-    <row r="85" spans="1:2" ht="15" customHeight="1">
-      <c r="A85" s="74"/>
-      <c r="B85" s="74"/>
-    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="63">
+  <mergeCells count="62">
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A8:A24"/>
-    <mergeCell ref="B5:C25"/>
-    <mergeCell ref="D5:D25"/>
-    <mergeCell ref="J41:J44"/>
-    <mergeCell ref="J35:J39"/>
-    <mergeCell ref="D29:D44"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B26:C28"/>
-    <mergeCell ref="E26:E44"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="D27:D42"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="H33:I33"/>
     <mergeCell ref="J17:J24"/>
     <mergeCell ref="J25:J28"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="H36:I36"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="J5:J8"/>
@@ -16550,44 +16589,30 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="A8:A22"/>
+    <mergeCell ref="B5:C23"/>
+    <mergeCell ref="D5:D23"/>
+    <mergeCell ref="E24:E42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" scale="71" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="76" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -16610,31 +16635,31 @@
   <sheetData>
     <row r="1" spans="1:27" ht="19.8">
       <c r="A1" s="97" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q1" s="217" t="str">
+        <v>712</v>
+      </c>
+      <c r="Q1" s="214" t="str">
         <f>命令表!P1</f>
         <v>Ver.10.2.0(TeC7a,b,c,d対応)</v>
       </c>
-      <c r="R1" s="217"/>
-      <c r="S1" s="217"/>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="217"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="214"/>
+      <c r="T1" s="214"/>
+      <c r="U1" s="214"/>
+      <c r="V1" s="214"/>
+      <c r="W1" s="214"/>
+      <c r="X1" s="214"/>
+      <c r="Y1" s="214"/>
+      <c r="Z1" s="214"/>
     </row>
     <row r="2" spans="1:27" ht="19.8">
       <c r="A2" s="97"/>
-      <c r="W2" s="283">
+      <c r="W2" s="273">
         <f>命令表!P2</f>
-        <v>45156</v>
-      </c>
-      <c r="X2" s="283"/>
-      <c r="Y2" s="283"/>
-      <c r="Z2" s="283"/>
+        <v>45222</v>
+      </c>
+      <c r="X2" s="273"/>
+      <c r="Y2" s="273"/>
+      <c r="Z2" s="273"/>
       <c r="AA2" s="7"/>
     </row>
     <row r="3" spans="1:27">
@@ -16667,7 +16692,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="83" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="Z4" s="84"/>
     </row>
@@ -16677,27 +16702,27 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="83"/>
-      <c r="B6" s="282" t="s">
-        <v>711</v>
-      </c>
-      <c r="C6" s="282"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="282"/>
-      <c r="J6" s="282"/>
-      <c r="K6" s="282"/>
-      <c r="L6" s="282"/>
-      <c r="M6" s="282"/>
-      <c r="N6" s="282"/>
-      <c r="O6" s="282"/>
-      <c r="P6" s="282"/>
-      <c r="Q6" s="282"/>
-      <c r="R6" s="282"/>
-      <c r="S6" s="282"/>
-      <c r="T6" s="282"/>
+      <c r="B6" s="272" t="s">
+        <v>710</v>
+      </c>
+      <c r="C6" s="272"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="272"/>
+      <c r="I6" s="272"/>
+      <c r="J6" s="272"/>
+      <c r="K6" s="272"/>
+      <c r="L6" s="272"/>
+      <c r="M6" s="272"/>
+      <c r="N6" s="272"/>
+      <c r="O6" s="272"/>
+      <c r="P6" s="272"/>
+      <c r="Q6" s="272"/>
+      <c r="R6" s="272"/>
+      <c r="S6" s="272"/>
+      <c r="T6" s="272"/>
       <c r="U6" s="85"/>
       <c r="V6" s="85"/>
       <c r="W6" s="85"/>
@@ -16707,29 +16732,29 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="83"/>
-      <c r="B7" s="287"/>
-      <c r="C7" s="287"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="287"/>
-      <c r="I7" s="282" t="s">
+      <c r="B7" s="277"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="277"/>
+      <c r="G7" s="277"/>
+      <c r="H7" s="277"/>
+      <c r="I7" s="272" t="s">
+        <v>708</v>
+      </c>
+      <c r="J7" s="272"/>
+      <c r="K7" s="272"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="272"/>
+      <c r="N7" s="272"/>
+      <c r="O7" s="272" t="s">
         <v>709</v>
       </c>
-      <c r="J7" s="282"/>
-      <c r="K7" s="282"/>
-      <c r="L7" s="282"/>
-      <c r="M7" s="282"/>
-      <c r="N7" s="282"/>
-      <c r="O7" s="282" t="s">
-        <v>710</v>
-      </c>
-      <c r="P7" s="282"/>
-      <c r="Q7" s="282"/>
-      <c r="R7" s="282"/>
-      <c r="S7" s="282"/>
-      <c r="T7" s="282"/>
+      <c r="P7" s="272"/>
+      <c r="Q7" s="272"/>
+      <c r="R7" s="272"/>
+      <c r="S7" s="272"/>
+      <c r="T7" s="272"/>
       <c r="U7" s="85"/>
       <c r="V7" s="85"/>
       <c r="W7" s="85"/>
@@ -16739,33 +16764,33 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="83"/>
-      <c r="B8" s="288" t="s">
-        <v>701</v>
-      </c>
-      <c r="C8" s="289"/>
-      <c r="D8" s="289"/>
-      <c r="E8" s="289"/>
-      <c r="F8" s="289"/>
-      <c r="G8" s="284" t="s">
+      <c r="B8" s="278" t="s">
+        <v>700</v>
+      </c>
+      <c r="C8" s="279"/>
+      <c r="D8" s="279"/>
+      <c r="E8" s="279"/>
+      <c r="F8" s="279"/>
+      <c r="G8" s="274" t="s">
+        <v>704</v>
+      </c>
+      <c r="H8" s="275"/>
+      <c r="I8" s="272" t="s">
         <v>705</v>
       </c>
-      <c r="H8" s="285"/>
-      <c r="I8" s="282" t="s">
+      <c r="J8" s="272"/>
+      <c r="K8" s="272"/>
+      <c r="L8" s="272"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="272"/>
+      <c r="O8" s="272" t="s">
         <v>706</v>
       </c>
-      <c r="J8" s="282"/>
-      <c r="K8" s="282"/>
-      <c r="L8" s="282"/>
-      <c r="M8" s="282"/>
-      <c r="N8" s="282"/>
-      <c r="O8" s="282" t="s">
-        <v>707</v>
-      </c>
-      <c r="P8" s="282"/>
-      <c r="Q8" s="282"/>
-      <c r="R8" s="282"/>
-      <c r="S8" s="282"/>
-      <c r="T8" s="282"/>
+      <c r="P8" s="272"/>
+      <c r="Q8" s="272"/>
+      <c r="R8" s="272"/>
+      <c r="S8" s="272"/>
+      <c r="T8" s="272"/>
       <c r="U8" s="85"/>
       <c r="V8" s="85"/>
       <c r="W8" s="85"/>
@@ -16775,33 +16800,33 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="83"/>
-      <c r="B9" s="288" t="s">
-        <v>702</v>
-      </c>
-      <c r="C9" s="289"/>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="284" t="s">
-        <v>700</v>
-      </c>
-      <c r="H9" s="285"/>
-      <c r="I9" s="282" t="s">
-        <v>697</v>
-      </c>
-      <c r="J9" s="282"/>
-      <c r="K9" s="282"/>
-      <c r="L9" s="282"/>
-      <c r="M9" s="282"/>
-      <c r="N9" s="282"/>
-      <c r="O9" s="282" t="s">
-        <v>708</v>
-      </c>
-      <c r="P9" s="282"/>
-      <c r="Q9" s="282"/>
-      <c r="R9" s="282"/>
-      <c r="S9" s="282"/>
-      <c r="T9" s="282"/>
+      <c r="B9" s="278" t="s">
+        <v>701</v>
+      </c>
+      <c r="C9" s="279"/>
+      <c r="D9" s="279"/>
+      <c r="E9" s="279"/>
+      <c r="F9" s="279"/>
+      <c r="G9" s="274" t="s">
+        <v>699</v>
+      </c>
+      <c r="H9" s="275"/>
+      <c r="I9" s="272" t="s">
+        <v>696</v>
+      </c>
+      <c r="J9" s="272"/>
+      <c r="K9" s="272"/>
+      <c r="L9" s="272"/>
+      <c r="M9" s="272"/>
+      <c r="N9" s="272"/>
+      <c r="O9" s="272" t="s">
+        <v>707</v>
+      </c>
+      <c r="P9" s="272"/>
+      <c r="Q9" s="272"/>
+      <c r="R9" s="272"/>
+      <c r="S9" s="272"/>
+      <c r="T9" s="272"/>
       <c r="U9" s="85"/>
       <c r="V9" s="85"/>
       <c r="W9" s="85"/>
@@ -16811,33 +16836,33 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="83"/>
-      <c r="B10" s="288" t="s">
-        <v>703</v>
-      </c>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="284" t="s">
+      <c r="B10" s="278" t="s">
+        <v>702</v>
+      </c>
+      <c r="C10" s="279"/>
+      <c r="D10" s="279"/>
+      <c r="E10" s="279"/>
+      <c r="F10" s="279"/>
+      <c r="G10" s="274" t="s">
+        <v>695</v>
+      </c>
+      <c r="H10" s="275"/>
+      <c r="I10" s="272" t="s">
         <v>696</v>
       </c>
-      <c r="H10" s="285"/>
-      <c r="I10" s="282" t="s">
+      <c r="J10" s="272"/>
+      <c r="K10" s="272"/>
+      <c r="L10" s="272"/>
+      <c r="M10" s="272"/>
+      <c r="N10" s="272"/>
+      <c r="O10" s="276" t="s">
         <v>697</v>
       </c>
-      <c r="J10" s="282"/>
-      <c r="K10" s="282"/>
-      <c r="L10" s="282"/>
-      <c r="M10" s="282"/>
-      <c r="N10" s="282"/>
-      <c r="O10" s="286" t="s">
-        <v>698</v>
-      </c>
-      <c r="P10" s="286"/>
-      <c r="Q10" s="286"/>
-      <c r="R10" s="286"/>
-      <c r="S10" s="286"/>
-      <c r="T10" s="286"/>
+      <c r="P10" s="276"/>
+      <c r="Q10" s="276"/>
+      <c r="R10" s="276"/>
+      <c r="S10" s="276"/>
+      <c r="T10" s="276"/>
       <c r="U10" s="85"/>
       <c r="V10" s="85"/>
       <c r="W10" s="85"/>
@@ -16847,33 +16872,33 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="83"/>
-      <c r="B11" s="288" t="s">
-        <v>704</v>
-      </c>
-      <c r="C11" s="289"/>
-      <c r="D11" s="289"/>
-      <c r="E11" s="289"/>
-      <c r="F11" s="289"/>
-      <c r="G11" s="284" t="s">
+      <c r="B11" s="278" t="s">
+        <v>703</v>
+      </c>
+      <c r="C11" s="279"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="279"/>
+      <c r="F11" s="279"/>
+      <c r="G11" s="274" t="s">
+        <v>684</v>
+      </c>
+      <c r="H11" s="275"/>
+      <c r="I11" s="284" t="s">
         <v>685</v>
       </c>
-      <c r="H11" s="285"/>
-      <c r="I11" s="294" t="s">
-        <v>686</v>
-      </c>
-      <c r="J11" s="294"/>
-      <c r="K11" s="294"/>
-      <c r="L11" s="294"/>
-      <c r="M11" s="294"/>
-      <c r="N11" s="294"/>
-      <c r="O11" s="286" t="s">
-        <v>699</v>
-      </c>
-      <c r="P11" s="286"/>
-      <c r="Q11" s="286"/>
-      <c r="R11" s="286"/>
-      <c r="S11" s="286"/>
-      <c r="T11" s="286"/>
+      <c r="J11" s="284"/>
+      <c r="K11" s="284"/>
+      <c r="L11" s="284"/>
+      <c r="M11" s="284"/>
+      <c r="N11" s="284"/>
+      <c r="O11" s="276" t="s">
+        <v>698</v>
+      </c>
+      <c r="P11" s="276"/>
+      <c r="Q11" s="276"/>
+      <c r="R11" s="276"/>
+      <c r="S11" s="276"/>
+      <c r="T11" s="276"/>
       <c r="U11" s="85"/>
       <c r="V11" s="85"/>
       <c r="W11" s="85"/>
@@ -16887,164 +16912,164 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="83"/>
-      <c r="B13" s="293" t="s">
-        <v>681</v>
-      </c>
-      <c r="C13" s="284"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="284"/>
-      <c r="F13" s="284"/>
-      <c r="G13" s="284"/>
-      <c r="H13" s="284"/>
-      <c r="I13" s="284"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="284"/>
-      <c r="L13" s="284"/>
-      <c r="M13" s="284"/>
-      <c r="N13" s="284"/>
-      <c r="O13" s="284"/>
-      <c r="P13" s="284"/>
-      <c r="Q13" s="284"/>
-      <c r="R13" s="284"/>
-      <c r="S13" s="284"/>
-      <c r="T13" s="284"/>
-      <c r="U13" s="284"/>
-      <c r="V13" s="284"/>
-      <c r="W13" s="284"/>
-      <c r="X13" s="284"/>
-      <c r="Y13" s="285"/>
+      <c r="B13" s="283" t="s">
+        <v>680</v>
+      </c>
+      <c r="C13" s="274"/>
+      <c r="D13" s="274"/>
+      <c r="E13" s="274"/>
+      <c r="F13" s="274"/>
+      <c r="G13" s="274"/>
+      <c r="H13" s="274"/>
+      <c r="I13" s="274"/>
+      <c r="J13" s="274"/>
+      <c r="K13" s="274"/>
+      <c r="L13" s="274"/>
+      <c r="M13" s="274"/>
+      <c r="N13" s="274"/>
+      <c r="O13" s="274"/>
+      <c r="P13" s="274"/>
+      <c r="Q13" s="274"/>
+      <c r="R13" s="274"/>
+      <c r="S13" s="274"/>
+      <c r="T13" s="274"/>
+      <c r="U13" s="274"/>
+      <c r="V13" s="274"/>
+      <c r="W13" s="274"/>
+      <c r="X13" s="274"/>
+      <c r="Y13" s="275"/>
       <c r="Z13" s="84"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="83"/>
       <c r="B14" s="75" t="s">
+        <v>657</v>
+      </c>
+      <c r="C14" s="280" t="s">
         <v>658</v>
       </c>
-      <c r="C14" s="290" t="s">
+      <c r="D14" s="280"/>
+      <c r="E14" s="280"/>
+      <c r="F14" s="280"/>
+      <c r="G14" s="280"/>
+      <c r="H14" s="75" t="s">
         <v>659</v>
       </c>
-      <c r="D14" s="290"/>
-      <c r="E14" s="290"/>
-      <c r="F14" s="290"/>
-      <c r="G14" s="290"/>
-      <c r="H14" s="75" t="s">
+      <c r="I14" s="280" t="s">
         <v>660</v>
       </c>
-      <c r="I14" s="290" t="s">
+      <c r="J14" s="280"/>
+      <c r="K14" s="280"/>
+      <c r="L14" s="280"/>
+      <c r="M14" s="280"/>
+      <c r="N14" s="75" t="s">
         <v>661</v>
       </c>
-      <c r="J14" s="290"/>
-      <c r="K14" s="290"/>
-      <c r="L14" s="290"/>
-      <c r="M14" s="290"/>
-      <c r="N14" s="75" t="s">
+      <c r="O14" s="280" t="s">
         <v>662</v>
       </c>
-      <c r="O14" s="290" t="s">
+      <c r="P14" s="280"/>
+      <c r="Q14" s="280"/>
+      <c r="R14" s="280"/>
+      <c r="S14" s="280"/>
+      <c r="T14" s="75" t="s">
+        <v>653</v>
+      </c>
+      <c r="U14" s="280" t="s">
         <v>663</v>
       </c>
-      <c r="P14" s="290"/>
-      <c r="Q14" s="290"/>
-      <c r="R14" s="290"/>
-      <c r="S14" s="290"/>
-      <c r="T14" s="75" t="s">
-        <v>654</v>
-      </c>
-      <c r="U14" s="290" t="s">
-        <v>664</v>
-      </c>
-      <c r="V14" s="290"/>
-      <c r="W14" s="290"/>
-      <c r="X14" s="290"/>
-      <c r="Y14" s="290"/>
+      <c r="V14" s="280"/>
+      <c r="W14" s="280"/>
+      <c r="X14" s="280"/>
+      <c r="Y14" s="280"/>
       <c r="Z14" s="84"/>
     </row>
     <row r="15" spans="1:27" ht="13.5" customHeight="1">
       <c r="A15" s="83"/>
       <c r="B15" s="75" t="s">
+        <v>664</v>
+      </c>
+      <c r="C15" s="280" t="s">
         <v>665</v>
       </c>
-      <c r="C15" s="290" t="s">
+      <c r="D15" s="280"/>
+      <c r="E15" s="280"/>
+      <c r="F15" s="280"/>
+      <c r="G15" s="280"/>
+      <c r="H15" s="75" t="s">
         <v>666</v>
       </c>
-      <c r="D15" s="290"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="75" t="s">
+      <c r="I15" s="280" t="s">
         <v>667</v>
       </c>
-      <c r="I15" s="290" t="s">
+      <c r="J15" s="280"/>
+      <c r="K15" s="280"/>
+      <c r="L15" s="280"/>
+      <c r="M15" s="280"/>
+      <c r="N15" s="75" t="s">
         <v>668</v>
       </c>
-      <c r="J15" s="290"/>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
-      <c r="M15" s="290"/>
-      <c r="N15" s="75" t="s">
+      <c r="O15" s="280" t="s">
         <v>669</v>
       </c>
-      <c r="O15" s="290" t="s">
+      <c r="P15" s="280"/>
+      <c r="Q15" s="280"/>
+      <c r="R15" s="280"/>
+      <c r="S15" s="280"/>
+      <c r="T15" s="75" t="s">
         <v>670</v>
       </c>
-      <c r="P15" s="290"/>
-      <c r="Q15" s="290"/>
-      <c r="R15" s="290"/>
-      <c r="S15" s="290"/>
-      <c r="T15" s="75" t="s">
+      <c r="U15" s="280" t="s">
         <v>671</v>
       </c>
-      <c r="U15" s="290" t="s">
-        <v>672</v>
-      </c>
-      <c r="V15" s="290"/>
-      <c r="W15" s="290"/>
-      <c r="X15" s="290"/>
-      <c r="Y15" s="290"/>
+      <c r="V15" s="280"/>
+      <c r="W15" s="280"/>
+      <c r="X15" s="280"/>
+      <c r="Y15" s="280"/>
       <c r="Z15" s="84"/>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1">
       <c r="A16" s="83"/>
       <c r="B16" s="75" t="s">
+        <v>672</v>
+      </c>
+      <c r="C16" s="280" t="s">
         <v>673</v>
       </c>
-      <c r="C16" s="290" t="s">
+      <c r="D16" s="280"/>
+      <c r="E16" s="280"/>
+      <c r="F16" s="280"/>
+      <c r="G16" s="280"/>
+      <c r="H16" s="75" t="s">
         <v>674</v>
       </c>
-      <c r="D16" s="290"/>
-      <c r="E16" s="290"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="75" t="s">
+      <c r="I16" s="280" t="s">
         <v>675</v>
       </c>
-      <c r="I16" s="290" t="s">
+      <c r="J16" s="280"/>
+      <c r="K16" s="280"/>
+      <c r="L16" s="280"/>
+      <c r="M16" s="280"/>
+      <c r="N16" s="75" t="s">
         <v>676</v>
       </c>
-      <c r="J16" s="290"/>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
-      <c r="M16" s="290"/>
-      <c r="N16" s="75" t="s">
+      <c r="O16" s="280" t="s">
         <v>677</v>
       </c>
-      <c r="O16" s="290" t="s">
+      <c r="P16" s="280"/>
+      <c r="Q16" s="280"/>
+      <c r="R16" s="280"/>
+      <c r="S16" s="280"/>
+      <c r="T16" s="75" t="s">
         <v>678</v>
       </c>
-      <c r="P16" s="290"/>
-      <c r="Q16" s="290"/>
-      <c r="R16" s="290"/>
-      <c r="S16" s="290"/>
-      <c r="T16" s="75" t="s">
+      <c r="U16" s="280" t="s">
         <v>679</v>
       </c>
-      <c r="U16" s="290" t="s">
-        <v>680</v>
-      </c>
-      <c r="V16" s="290"/>
-      <c r="W16" s="290"/>
-      <c r="X16" s="290"/>
-      <c r="Y16" s="290"/>
+      <c r="V16" s="280"/>
+      <c r="W16" s="280"/>
+      <c r="X16" s="280"/>
+      <c r="Y16" s="280"/>
       <c r="Z16" s="84"/>
     </row>
     <row r="17" spans="1:26" ht="13.5" customHeight="1">
@@ -17077,68 +17102,68 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="83"/>
-      <c r="B18" s="293" t="s">
-        <v>684</v>
-      </c>
-      <c r="C18" s="284"/>
-      <c r="D18" s="284"/>
-      <c r="E18" s="284"/>
-      <c r="F18" s="284"/>
-      <c r="G18" s="284"/>
-      <c r="H18" s="284"/>
-      <c r="I18" s="284"/>
-      <c r="J18" s="284"/>
-      <c r="K18" s="284"/>
-      <c r="L18" s="284"/>
-      <c r="M18" s="284"/>
-      <c r="N18" s="284"/>
-      <c r="O18" s="284"/>
-      <c r="P18" s="284"/>
-      <c r="Q18" s="284"/>
-      <c r="R18" s="284"/>
-      <c r="S18" s="284"/>
-      <c r="T18" s="284"/>
-      <c r="U18" s="284"/>
-      <c r="V18" s="284"/>
-      <c r="W18" s="284"/>
-      <c r="X18" s="284"/>
-      <c r="Y18" s="285"/>
+      <c r="B18" s="283" t="s">
+        <v>683</v>
+      </c>
+      <c r="C18" s="274"/>
+      <c r="D18" s="274"/>
+      <c r="E18" s="274"/>
+      <c r="F18" s="274"/>
+      <c r="G18" s="274"/>
+      <c r="H18" s="274"/>
+      <c r="I18" s="274"/>
+      <c r="J18" s="274"/>
+      <c r="K18" s="274"/>
+      <c r="L18" s="274"/>
+      <c r="M18" s="274"/>
+      <c r="N18" s="274"/>
+      <c r="O18" s="274"/>
+      <c r="P18" s="274"/>
+      <c r="Q18" s="274"/>
+      <c r="R18" s="274"/>
+      <c r="S18" s="274"/>
+      <c r="T18" s="274"/>
+      <c r="U18" s="274"/>
+      <c r="V18" s="274"/>
+      <c r="W18" s="274"/>
+      <c r="X18" s="274"/>
+      <c r="Y18" s="275"/>
       <c r="Z18" s="84"/>
     </row>
     <row r="19" spans="1:26" ht="13.5" customHeight="1">
       <c r="A19" s="83"/>
       <c r="B19" s="75" t="s">
-        <v>653</v>
-      </c>
-      <c r="C19" s="290" t="s">
+        <v>652</v>
+      </c>
+      <c r="C19" s="280" t="s">
+        <v>681</v>
+      </c>
+      <c r="D19" s="280"/>
+      <c r="E19" s="280"/>
+      <c r="F19" s="280"/>
+      <c r="G19" s="280"/>
+      <c r="H19" s="75" t="s">
         <v>682</v>
       </c>
-      <c r="D19" s="290"/>
-      <c r="E19" s="290"/>
-      <c r="F19" s="290"/>
-      <c r="G19" s="290"/>
-      <c r="H19" s="75" t="s">
-        <v>683</v>
-      </c>
-      <c r="I19" s="290" t="s">
-        <v>666</v>
-      </c>
-      <c r="J19" s="290"/>
-      <c r="K19" s="290"/>
-      <c r="L19" s="290"/>
-      <c r="M19" s="290"/>
+      <c r="I19" s="280" t="s">
+        <v>665</v>
+      </c>
+      <c r="J19" s="280"/>
+      <c r="K19" s="280"/>
+      <c r="L19" s="280"/>
+      <c r="M19" s="280"/>
       <c r="N19" s="75"/>
-      <c r="O19" s="290"/>
-      <c r="P19" s="290"/>
-      <c r="Q19" s="290"/>
-      <c r="R19" s="290"/>
-      <c r="S19" s="290"/>
+      <c r="O19" s="280"/>
+      <c r="P19" s="280"/>
+      <c r="Q19" s="280"/>
+      <c r="R19" s="280"/>
+      <c r="S19" s="280"/>
       <c r="T19" s="75"/>
-      <c r="U19" s="290"/>
-      <c r="V19" s="290"/>
-      <c r="W19" s="290"/>
-      <c r="X19" s="290"/>
-      <c r="Y19" s="290"/>
+      <c r="U19" s="280"/>
+      <c r="V19" s="280"/>
+      <c r="W19" s="280"/>
+      <c r="X19" s="280"/>
+      <c r="Y19" s="280"/>
       <c r="Z19" s="84"/>
     </row>
     <row r="20" spans="1:26" ht="13.5" customHeight="1">
@@ -17252,8 +17277,8 @@
       <c r="Z23" s="82"/>
     </row>
     <row r="24" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A24" s="152" t="s">
-        <v>777</v>
+      <c r="A24" s="148" t="s">
+        <v>775</v>
       </c>
       <c r="Z24" s="84"/>
     </row>
@@ -17263,78 +17288,78 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="83"/>
-      <c r="B26" s="282" t="s">
-        <v>657</v>
-      </c>
-      <c r="C26" s="282"/>
-      <c r="D26" s="282"/>
-      <c r="E26" s="282"/>
-      <c r="F26" s="282"/>
-      <c r="G26" s="282"/>
-      <c r="H26" s="282"/>
-      <c r="I26" s="282"/>
-      <c r="J26" s="282"/>
-      <c r="K26" s="282"/>
-      <c r="L26" s="282"/>
-      <c r="M26" s="282"/>
-      <c r="N26" s="282"/>
-      <c r="O26" s="282"/>
-      <c r="P26" s="282"/>
-      <c r="Q26" s="282"/>
-      <c r="R26" s="282"/>
-      <c r="S26" s="282"/>
-      <c r="T26" s="282"/>
-      <c r="U26" s="282"/>
-      <c r="V26" s="282"/>
-      <c r="W26" s="282"/>
-      <c r="X26" s="282"/>
-      <c r="Y26" s="282"/>
+      <c r="B26" s="272" t="s">
+        <v>656</v>
+      </c>
+      <c r="C26" s="272"/>
+      <c r="D26" s="272"/>
+      <c r="E26" s="272"/>
+      <c r="F26" s="272"/>
+      <c r="G26" s="272"/>
+      <c r="H26" s="272"/>
+      <c r="I26" s="272"/>
+      <c r="J26" s="272"/>
+      <c r="K26" s="272"/>
+      <c r="L26" s="272"/>
+      <c r="M26" s="272"/>
+      <c r="N26" s="272"/>
+      <c r="O26" s="272"/>
+      <c r="P26" s="272"/>
+      <c r="Q26" s="272"/>
+      <c r="R26" s="272"/>
+      <c r="S26" s="272"/>
+      <c r="T26" s="272"/>
+      <c r="U26" s="272"/>
+      <c r="V26" s="272"/>
+      <c r="W26" s="272"/>
+      <c r="X26" s="272"/>
+      <c r="Y26" s="272"/>
       <c r="Z26" s="84"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="83"/>
-      <c r="B27" s="282" t="s">
+      <c r="B27" s="272" t="s">
+        <v>693</v>
+      </c>
+      <c r="C27" s="272"/>
+      <c r="D27" s="272"/>
+      <c r="E27" s="272"/>
+      <c r="F27" s="272"/>
+      <c r="G27" s="272"/>
+      <c r="H27" s="272"/>
+      <c r="I27" s="272"/>
+      <c r="J27" s="272" t="s">
         <v>694</v>
       </c>
-      <c r="C27" s="282"/>
-      <c r="D27" s="282"/>
-      <c r="E27" s="282"/>
-      <c r="F27" s="282"/>
-      <c r="G27" s="282"/>
-      <c r="H27" s="282"/>
-      <c r="I27" s="282"/>
-      <c r="J27" s="282" t="s">
-        <v>695</v>
-      </c>
-      <c r="K27" s="282"/>
-      <c r="L27" s="282"/>
-      <c r="M27" s="282"/>
-      <c r="N27" s="282"/>
-      <c r="O27" s="282"/>
-      <c r="P27" s="282"/>
-      <c r="Q27" s="282"/>
-      <c r="R27" s="282"/>
-      <c r="S27" s="282"/>
-      <c r="T27" s="282"/>
-      <c r="U27" s="282"/>
-      <c r="V27" s="282"/>
-      <c r="W27" s="282"/>
-      <c r="X27" s="282"/>
-      <c r="Y27" s="282"/>
+      <c r="K27" s="272"/>
+      <c r="L27" s="272"/>
+      <c r="M27" s="272"/>
+      <c r="N27" s="272"/>
+      <c r="O27" s="272"/>
+      <c r="P27" s="272"/>
+      <c r="Q27" s="272"/>
+      <c r="R27" s="272"/>
+      <c r="S27" s="272"/>
+      <c r="T27" s="272"/>
+      <c r="U27" s="272"/>
+      <c r="V27" s="272"/>
+      <c r="W27" s="272"/>
+      <c r="X27" s="272"/>
+      <c r="Y27" s="272"/>
       <c r="Z27" s="84"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="93"/>
-      <c r="B28" s="291" t="s">
-        <v>647</v>
-      </c>
-      <c r="C28" s="282"/>
-      <c r="D28" s="282"/>
-      <c r="E28" s="282"/>
-      <c r="F28" s="282"/>
-      <c r="G28" s="282"/>
-      <c r="H28" s="282"/>
-      <c r="I28" s="282"/>
+      <c r="B28" s="281" t="s">
+        <v>646</v>
+      </c>
+      <c r="C28" s="272"/>
+      <c r="D28" s="272"/>
+      <c r="E28" s="272"/>
+      <c r="F28" s="272"/>
+      <c r="G28" s="272"/>
+      <c r="H28" s="272"/>
+      <c r="I28" s="272"/>
       <c r="J28" s="90">
         <v>15</v>
       </c>
@@ -17350,65 +17375,65 @@
       <c r="N28" s="90">
         <v>11</v>
       </c>
-      <c r="O28" s="292" t="s">
+      <c r="O28" s="282" t="s">
+        <v>647</v>
+      </c>
+      <c r="P28" s="272"/>
+      <c r="Q28" s="272"/>
+      <c r="R28" s="281" t="s">
         <v>648</v>
       </c>
-      <c r="P28" s="282"/>
-      <c r="Q28" s="282"/>
-      <c r="R28" s="291" t="s">
-        <v>649</v>
-      </c>
-      <c r="S28" s="282"/>
-      <c r="T28" s="282"/>
-      <c r="U28" s="282"/>
-      <c r="V28" s="282"/>
-      <c r="W28" s="282"/>
-      <c r="X28" s="282"/>
-      <c r="Y28" s="282"/>
+      <c r="S28" s="272"/>
+      <c r="T28" s="272"/>
+      <c r="U28" s="272"/>
+      <c r="V28" s="272"/>
+      <c r="W28" s="272"/>
+      <c r="X28" s="272"/>
+      <c r="Y28" s="272"/>
       <c r="Z28" s="84"/>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="93"/>
-      <c r="B29" s="282" t="s">
+      <c r="B29" s="272" t="s">
+        <v>649</v>
+      </c>
+      <c r="C29" s="272"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="272"/>
+      <c r="F29" s="272"/>
+      <c r="G29" s="272"/>
+      <c r="H29" s="272"/>
+      <c r="I29" s="272"/>
+      <c r="J29" s="75" t="s">
         <v>650</v>
       </c>
-      <c r="C29" s="282"/>
-      <c r="D29" s="282"/>
-      <c r="E29" s="282"/>
-      <c r="F29" s="282"/>
-      <c r="G29" s="282"/>
-      <c r="H29" s="282"/>
-      <c r="I29" s="282"/>
-      <c r="J29" s="75" t="s">
+      <c r="K29" s="75" t="s">
         <v>651</v>
       </c>
-      <c r="K29" s="75" t="s">
+      <c r="L29" s="75" t="s">
+        <v>651</v>
+      </c>
+      <c r="M29" s="75" t="s">
         <v>652</v>
       </c>
-      <c r="L29" s="75" t="s">
-        <v>652</v>
-      </c>
-      <c r="M29" s="75" t="s">
+      <c r="N29" s="75" t="s">
         <v>653</v>
       </c>
-      <c r="N29" s="75" t="s">
+      <c r="O29" s="272" t="s">
         <v>654</v>
       </c>
-      <c r="O29" s="282" t="s">
+      <c r="P29" s="272"/>
+      <c r="Q29" s="272"/>
+      <c r="R29" s="272" t="s">
         <v>655</v>
       </c>
-      <c r="P29" s="282"/>
-      <c r="Q29" s="282"/>
-      <c r="R29" s="282" t="s">
-        <v>656</v>
-      </c>
-      <c r="S29" s="282"/>
-      <c r="T29" s="282"/>
-      <c r="U29" s="282"/>
-      <c r="V29" s="282"/>
-      <c r="W29" s="282"/>
-      <c r="X29" s="282"/>
-      <c r="Y29" s="282"/>
+      <c r="S29" s="272"/>
+      <c r="T29" s="272"/>
+      <c r="U29" s="272"/>
+      <c r="V29" s="272"/>
+      <c r="W29" s="272"/>
+      <c r="X29" s="272"/>
+      <c r="Y29" s="272"/>
       <c r="Z29" s="84"/>
     </row>
     <row r="30" spans="1:26">
@@ -17441,19 +17466,19 @@
     <row r="31" spans="1:26">
       <c r="A31" s="94"/>
       <c r="B31" s="74" t="s">
+        <v>686</v>
+      </c>
+      <c r="G31" s="74" t="s">
         <v>687</v>
       </c>
-      <c r="G31" s="74" t="s">
+      <c r="J31" s="74" t="s">
+        <v>692</v>
+      </c>
+      <c r="M31" s="74" t="s">
         <v>688</v>
       </c>
-      <c r="J31" s="74" t="s">
-        <v>693</v>
-      </c>
-      <c r="M31" s="74" t="s">
-        <v>689</v>
-      </c>
       <c r="R31" s="74" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Z31" s="84"/>
     </row>
@@ -17461,10 +17486,10 @@
       <c r="A32" s="93"/>
       <c r="B32" s="77"/>
       <c r="M32" s="74" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="R32" s="74" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Z32" s="84"/>
     </row>
